--- a/data/misused_bar_graph_figures/acs_nano/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/acs_nano/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/acs_nano/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275F191E-EF1C-E948-9351-37A78E99FACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B8317B-2F18-CD43-9FCD-0015312D68B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="1100" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="199">
   <si>
     <t>DOI</t>
   </si>
@@ -295,9 +295,6 @@
     <t>Energy comspution (J/L)</t>
   </si>
   <si>
-    <t>WVP (g m-1 s-1 Pa-1)</t>
-  </si>
-  <si>
     <t>Radiant efficiency (p/sec/cm2/srµw/cm2)</t>
   </si>
   <si>
@@ -437,6 +434,189 @@
   </si>
   <si>
     <t>Abundances (x1e8)</t>
+  </si>
+  <si>
+    <t>Intended Baseline</t>
+  </si>
+  <si>
+    <t>Measurement Type</t>
+  </si>
+  <si>
+    <t>Absolute/Relative</t>
+  </si>
+  <si>
+    <t>Log transformation</t>
+  </si>
+  <si>
+    <t>Absolute</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>Physical quantity I</t>
+  </si>
+  <si>
+    <t>Physical quantity II</t>
+  </si>
+  <si>
+    <t>Measured value</t>
+  </si>
+  <si>
+    <t>Modulus</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Colony count</t>
+  </si>
+  <si>
+    <t>Plaque count</t>
+  </si>
+  <si>
+    <t>Fluorescence</t>
+  </si>
+  <si>
+    <t>Titer</t>
+  </si>
+  <si>
+    <t>Cytokine concentration</t>
+  </si>
+  <si>
+    <t>Rate constant</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Impedance</t>
+  </si>
+  <si>
+    <t>Selectivity</t>
+  </si>
+  <si>
+    <t>Storage and loss modulus</t>
+  </si>
+  <si>
+    <t>Shear strength</t>
+  </si>
+  <si>
+    <t>Tensile strength</t>
+  </si>
+  <si>
+    <t>Interfacial toughness</t>
+  </si>
+  <si>
+    <t>Cell count</t>
+  </si>
+  <si>
+    <t>Hopping energy</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Transcript count</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Cell viability</t>
+  </si>
+  <si>
+    <t>Oligomerization</t>
+  </si>
+  <si>
+    <t>Equilibrium constant</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Gene count</t>
+  </si>
+  <si>
+    <t>Permeate concentration</t>
+  </si>
+  <si>
+    <t>EC50</t>
+  </si>
+  <si>
+    <t>Blood chemistry concentration</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Permeation rate</t>
+  </si>
+  <si>
+    <t>Protein abundance</t>
+  </si>
+  <si>
+    <t>Protein percentage</t>
+  </si>
+  <si>
+    <t>DNA count</t>
+  </si>
+  <si>
+    <t>Calculated value</t>
+  </si>
+  <si>
+    <t>Protein concentration</t>
+  </si>
+  <si>
+    <t>Particle diameter</t>
+  </si>
+  <si>
+    <t>Tissue exposure</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Stiffness</t>
+  </si>
+  <si>
+    <t>DNA concentration</t>
+  </si>
+  <si>
+    <t>IC50</t>
+  </si>
+  <si>
+    <t>Radiant flux</t>
+  </si>
+  <si>
+    <t>Bioluminescence</t>
+  </si>
+  <si>
+    <t>Relative luminescence</t>
+  </si>
+  <si>
+    <t>Radiance</t>
+  </si>
+  <si>
+    <t>Radiant efficiency</t>
+  </si>
+  <si>
+    <t>Water vapor permeability (g m-1 s-1 Pa-1)</t>
+  </si>
+  <si>
+    <t>Permeability</t>
+  </si>
+  <si>
+    <t>Water vaport permeability</t>
   </si>
 </sst>
 </file>
@@ -509,15 +689,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,35 +1003,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="143" workbookViewId="0">
-      <selection activeCell="A86" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -864,8 +1072,26 @@
       <c r="E2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -881,8 +1107,26 @@
       <c r="E3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -898,8 +1142,26 @@
       <c r="E4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" t="s">
+        <v>185</v>
+      </c>
+      <c r="J4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -915,8 +1177,26 @@
       <c r="E5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I5" t="s">
+        <v>186</v>
+      </c>
+      <c r="J5" t="s">
+        <v>187</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -932,8 +1212,26 @@
       <c r="E6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" t="s">
+        <v>186</v>
+      </c>
+      <c r="J6" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -949,8 +1247,26 @@
       <c r="E7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" t="s">
+        <v>186</v>
+      </c>
+      <c r="J7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -966,8 +1282,26 @@
       <c r="E8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J8" t="s">
+        <v>147</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -983,8 +1317,26 @@
       <c r="E9" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" t="s">
+        <v>150</v>
+      </c>
+      <c r="J9" t="s">
+        <v>150</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1000,8 +1352,26 @@
       <c r="E10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" t="s">
+        <v>146</v>
+      </c>
+      <c r="I10" t="s">
+        <v>192</v>
+      </c>
+      <c r="J10" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1017,8 +1387,26 @@
       <c r="E11" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" t="s">
+        <v>146</v>
+      </c>
+      <c r="I11" t="s">
+        <v>184</v>
+      </c>
+      <c r="J11" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1034,8 +1422,26 @@
       <c r="E12" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>149</v>
+      </c>
+      <c r="H12" t="s">
+        <v>183</v>
+      </c>
+      <c r="I12" t="s">
+        <v>192</v>
+      </c>
+      <c r="J12" t="s">
+        <v>193</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1051,8 +1457,26 @@
       <c r="E13" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" t="s">
+        <v>182</v>
+      </c>
+      <c r="J13" t="s">
+        <v>151</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1068,8 +1492,26 @@
       <c r="E14" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" t="s">
+        <v>146</v>
+      </c>
+      <c r="I14" t="s">
+        <v>182</v>
+      </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1085,8 +1527,26 @@
       <c r="E15" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J15" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1102,8 +1562,26 @@
       <c r="E16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I16" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1119,8 +1597,26 @@
       <c r="E17" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" t="s">
+        <v>146</v>
+      </c>
+      <c r="I17" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1136,8 +1632,26 @@
       <c r="E18" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" t="s">
+        <v>146</v>
+      </c>
+      <c r="I18" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1153,8 +1667,26 @@
       <c r="E19" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19" t="s">
+        <v>146</v>
+      </c>
+      <c r="I19" t="s">
+        <v>152</v>
+      </c>
+      <c r="J19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1170,8 +1702,26 @@
       <c r="E20" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" t="s">
+        <v>146</v>
+      </c>
+      <c r="I20" t="s">
+        <v>152</v>
+      </c>
+      <c r="J20" t="s">
+        <v>151</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1187,8 +1737,26 @@
       <c r="E21" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" t="s">
+        <v>146</v>
+      </c>
+      <c r="I21" t="s">
+        <v>152</v>
+      </c>
+      <c r="J21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1204,8 +1772,26 @@
       <c r="E22" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" t="s">
+        <v>146</v>
+      </c>
+      <c r="I22" t="s">
+        <v>166</v>
+      </c>
+      <c r="J22" t="s">
+        <v>167</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1221,8 +1807,26 @@
       <c r="E23" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>142</v>
+      </c>
+      <c r="H23" t="s">
+        <v>146</v>
+      </c>
+      <c r="I23" t="s">
+        <v>152</v>
+      </c>
+      <c r="J23" t="s">
+        <v>151</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1238,8 +1842,26 @@
       <c r="E24" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>142</v>
+      </c>
+      <c r="H24" t="s">
+        <v>146</v>
+      </c>
+      <c r="I24" t="s">
+        <v>165</v>
+      </c>
+      <c r="J24" t="s">
+        <v>151</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1255,8 +1877,26 @@
       <c r="E25" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" t="s">
+        <v>146</v>
+      </c>
+      <c r="I25" t="s">
+        <v>167</v>
+      </c>
+      <c r="J25" t="s">
+        <v>167</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1272,8 +1912,26 @@
       <c r="E26" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H26" t="s">
+        <v>146</v>
+      </c>
+      <c r="I26" t="s">
+        <v>152</v>
+      </c>
+      <c r="J26" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1289,8 +1947,26 @@
       <c r="E27" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>142</v>
+      </c>
+      <c r="H27" t="s">
+        <v>146</v>
+      </c>
+      <c r="I27" t="s">
+        <v>152</v>
+      </c>
+      <c r="J27" t="s">
+        <v>151</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1304,10 +1980,28 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>142</v>
+      </c>
+      <c r="H28" t="s">
+        <v>146</v>
+      </c>
+      <c r="I28" t="s">
+        <v>198</v>
+      </c>
+      <c r="J28" t="s">
+        <v>197</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1321,10 +2015,28 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>142</v>
+      </c>
+      <c r="H29" t="s">
+        <v>146</v>
+      </c>
+      <c r="I29" t="s">
+        <v>192</v>
+      </c>
+      <c r="J29" t="s">
+        <v>195</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1338,10 +2050,28 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>142</v>
+      </c>
+      <c r="H30" t="s">
+        <v>146</v>
+      </c>
+      <c r="I30" t="s">
+        <v>157</v>
+      </c>
+      <c r="J30" t="s">
+        <v>158</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1355,10 +2085,28 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>149</v>
+      </c>
+      <c r="H31" t="s">
+        <v>150</v>
+      </c>
+      <c r="I31" t="s">
+        <v>150</v>
+      </c>
+      <c r="J31" t="s">
+        <v>150</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1372,10 +2120,28 @@
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32" t="s">
+        <v>146</v>
+      </c>
+      <c r="I32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J32" t="s">
+        <v>151</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1389,10 +2155,28 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>142</v>
+      </c>
+      <c r="H33" t="s">
+        <v>146</v>
+      </c>
+      <c r="I33" t="s">
+        <v>168</v>
+      </c>
+      <c r="J33" t="s">
+        <v>151</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1406,10 +2190,28 @@
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" t="s">
+        <v>146</v>
+      </c>
+      <c r="I34" t="s">
+        <v>152</v>
+      </c>
+      <c r="J34" t="s">
+        <v>151</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1423,10 +2225,28 @@
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>142</v>
+      </c>
+      <c r="H35" t="s">
+        <v>146</v>
+      </c>
+      <c r="I35" t="s">
+        <v>152</v>
+      </c>
+      <c r="J35" t="s">
+        <v>151</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -1440,10 +2260,28 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>149</v>
+      </c>
+      <c r="H36" t="s">
+        <v>169</v>
+      </c>
+      <c r="I36" t="s">
+        <v>170</v>
+      </c>
+      <c r="J36" t="s">
+        <v>169</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -1457,10 +2295,28 @@
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>142</v>
+      </c>
+      <c r="H37" t="s">
+        <v>146</v>
+      </c>
+      <c r="I37" t="s">
+        <v>152</v>
+      </c>
+      <c r="J37" t="s">
+        <v>151</v>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -1474,10 +2330,28 @@
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>142</v>
+      </c>
+      <c r="H38" t="s">
+        <v>146</v>
+      </c>
+      <c r="I38" t="s">
+        <v>152</v>
+      </c>
+      <c r="J38" t="s">
+        <v>151</v>
+      </c>
+      <c r="K38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -1491,10 +2365,28 @@
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>142</v>
+      </c>
+      <c r="H39" t="s">
+        <v>146</v>
+      </c>
+      <c r="I39" t="s">
+        <v>152</v>
+      </c>
+      <c r="J39" t="s">
+        <v>151</v>
+      </c>
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -1508,10 +2400,28 @@
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>142</v>
+      </c>
+      <c r="H40" t="s">
+        <v>146</v>
+      </c>
+      <c r="I40" t="s">
+        <v>152</v>
+      </c>
+      <c r="J40" t="s">
+        <v>151</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -1525,10 +2435,28 @@
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>149</v>
+      </c>
+      <c r="H41" t="s">
+        <v>183</v>
+      </c>
+      <c r="I41" t="s">
+        <v>154</v>
+      </c>
+      <c r="J41" t="s">
+        <v>193</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -1542,10 +2470,28 @@
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>142</v>
+      </c>
+      <c r="H42" t="s">
+        <v>146</v>
+      </c>
+      <c r="I42" t="s">
+        <v>99</v>
+      </c>
+      <c r="J42" t="s">
+        <v>151</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -1559,10 +2505,28 @@
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>142</v>
+      </c>
+      <c r="H43" t="s">
+        <v>146</v>
+      </c>
+      <c r="I43" t="s">
+        <v>100</v>
+      </c>
+      <c r="J43" t="s">
+        <v>151</v>
+      </c>
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -1576,10 +2540,28 @@
         <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>142</v>
+      </c>
+      <c r="H44" t="s">
+        <v>146</v>
+      </c>
+      <c r="I44" t="s">
+        <v>99</v>
+      </c>
+      <c r="J44" t="s">
+        <v>151</v>
+      </c>
+      <c r="K44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -1593,10 +2575,28 @@
         <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>142</v>
+      </c>
+      <c r="H45" t="s">
+        <v>146</v>
+      </c>
+      <c r="I45" t="s">
+        <v>100</v>
+      </c>
+      <c r="J45" t="s">
+        <v>151</v>
+      </c>
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -1610,10 +2610,28 @@
         <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>142</v>
+      </c>
+      <c r="H46" t="s">
+        <v>146</v>
+      </c>
+      <c r="I46" t="s">
+        <v>188</v>
+      </c>
+      <c r="J46" t="s">
+        <v>188</v>
+      </c>
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -1627,10 +2645,28 @@
         <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>142</v>
+      </c>
+      <c r="H47" t="s">
+        <v>146</v>
+      </c>
+      <c r="I47" t="s">
+        <v>190</v>
+      </c>
+      <c r="J47" t="s">
+        <v>143</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -1644,10 +2680,28 @@
         <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>149</v>
+      </c>
+      <c r="H48" t="s">
+        <v>183</v>
+      </c>
+      <c r="I48" t="s">
+        <v>154</v>
+      </c>
+      <c r="J48" t="s">
+        <v>193</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>39</v>
       </c>
@@ -1661,10 +2715,28 @@
         <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>142</v>
+      </c>
+      <c r="H49" t="s">
+        <v>146</v>
+      </c>
+      <c r="I49" t="s">
+        <v>155</v>
+      </c>
+      <c r="J49" t="s">
+        <v>143</v>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -1678,10 +2750,28 @@
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>142</v>
+      </c>
+      <c r="H50" t="s">
+        <v>146</v>
+      </c>
+      <c r="I50" t="s">
+        <v>155</v>
+      </c>
+      <c r="J50" t="s">
+        <v>143</v>
+      </c>
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>39</v>
       </c>
@@ -1695,10 +2785,28 @@
         <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>142</v>
+      </c>
+      <c r="H51" t="s">
+        <v>146</v>
+      </c>
+      <c r="I51" t="s">
+        <v>155</v>
+      </c>
+      <c r="J51" t="s">
+        <v>143</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -1712,10 +2820,28 @@
         <v>7</v>
       </c>
       <c r="E52" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>142</v>
+      </c>
+      <c r="H52" t="s">
+        <v>146</v>
+      </c>
+      <c r="I52" t="s">
+        <v>155</v>
+      </c>
+      <c r="J52" t="s">
+        <v>143</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -1729,10 +2855,28 @@
         <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>142</v>
+      </c>
+      <c r="H53" t="s">
+        <v>146</v>
+      </c>
+      <c r="I53" t="s">
+        <v>155</v>
+      </c>
+      <c r="J53" t="s">
+        <v>143</v>
+      </c>
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>39</v>
       </c>
@@ -1746,10 +2890,28 @@
         <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>142</v>
+      </c>
+      <c r="H54" t="s">
+        <v>146</v>
+      </c>
+      <c r="I54" t="s">
+        <v>155</v>
+      </c>
+      <c r="J54" t="s">
+        <v>143</v>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>39</v>
       </c>
@@ -1763,10 +2925,28 @@
         <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>142</v>
+      </c>
+      <c r="H55" t="s">
+        <v>146</v>
+      </c>
+      <c r="I55" t="s">
+        <v>155</v>
+      </c>
+      <c r="J55" t="s">
+        <v>143</v>
+      </c>
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -1780,10 +2960,28 @@
         <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>142</v>
+      </c>
+      <c r="H56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I56" t="s">
+        <v>155</v>
+      </c>
+      <c r="J56" t="s">
+        <v>143</v>
+      </c>
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>39</v>
       </c>
@@ -1797,10 +2995,28 @@
         <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>142</v>
+      </c>
+      <c r="H57" t="s">
+        <v>146</v>
+      </c>
+      <c r="I57" t="s">
+        <v>155</v>
+      </c>
+      <c r="J57" t="s">
+        <v>143</v>
+      </c>
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>39</v>
       </c>
@@ -1814,10 +3030,28 @@
         <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>142</v>
+      </c>
+      <c r="H58" t="s">
+        <v>146</v>
+      </c>
+      <c r="I58" t="s">
+        <v>155</v>
+      </c>
+      <c r="J58" t="s">
+        <v>143</v>
+      </c>
+      <c r="K58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>39</v>
       </c>
@@ -1831,10 +3065,28 @@
         <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>142</v>
+      </c>
+      <c r="H59" t="s">
+        <v>146</v>
+      </c>
+      <c r="I59" t="s">
+        <v>155</v>
+      </c>
+      <c r="J59" t="s">
+        <v>143</v>
+      </c>
+      <c r="K59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>46</v>
       </c>
@@ -1848,10 +3100,28 @@
         <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>142</v>
+      </c>
+      <c r="H60" t="s">
+        <v>146</v>
+      </c>
+      <c r="I60" t="s">
+        <v>106</v>
+      </c>
+      <c r="J60" t="s">
+        <v>151</v>
+      </c>
+      <c r="K60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>47</v>
       </c>
@@ -1865,10 +3135,28 @@
         <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>142</v>
+      </c>
+      <c r="H61" t="s">
+        <v>146</v>
+      </c>
+      <c r="I61" t="s">
+        <v>152</v>
+      </c>
+      <c r="J61" t="s">
+        <v>151</v>
+      </c>
+      <c r="K61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>48</v>
       </c>
@@ -1882,10 +3170,28 @@
         <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" t="s">
+        <v>142</v>
+      </c>
+      <c r="H62" t="s">
+        <v>146</v>
+      </c>
+      <c r="I62" t="s">
+        <v>108</v>
+      </c>
+      <c r="J62" t="s">
+        <v>108</v>
+      </c>
+      <c r="K62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>48</v>
       </c>
@@ -1899,10 +3205,28 @@
         <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>142</v>
+      </c>
+      <c r="H63" t="s">
+        <v>146</v>
+      </c>
+      <c r="I63" t="s">
+        <v>108</v>
+      </c>
+      <c r="J63" t="s">
+        <v>108</v>
+      </c>
+      <c r="K63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>48</v>
       </c>
@@ -1916,10 +3240,28 @@
         <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>142</v>
+      </c>
+      <c r="H64" t="s">
+        <v>146</v>
+      </c>
+      <c r="I64" t="s">
+        <v>108</v>
+      </c>
+      <c r="J64" t="s">
+        <v>108</v>
+      </c>
+      <c r="K64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -1933,10 +3275,28 @@
         <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>142</v>
+      </c>
+      <c r="H65" t="s">
+        <v>146</v>
+      </c>
+      <c r="I65" t="s">
+        <v>192</v>
+      </c>
+      <c r="J65" t="s">
+        <v>191</v>
+      </c>
+      <c r="K65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -1950,10 +3310,28 @@
         <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>142</v>
+      </c>
+      <c r="H66" t="s">
+        <v>146</v>
+      </c>
+      <c r="I66" t="s">
+        <v>192</v>
+      </c>
+      <c r="J66" t="s">
+        <v>191</v>
+      </c>
+      <c r="K66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>50</v>
       </c>
@@ -1967,10 +3345,28 @@
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>142</v>
+      </c>
+      <c r="H67" t="s">
+        <v>146</v>
+      </c>
+      <c r="I67" t="s">
+        <v>152</v>
+      </c>
+      <c r="J67" t="s">
+        <v>151</v>
+      </c>
+      <c r="K67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>50</v>
       </c>
@@ -1984,10 +3380,28 @@
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>142</v>
+      </c>
+      <c r="H68" t="s">
+        <v>146</v>
+      </c>
+      <c r="I68" t="s">
+        <v>152</v>
+      </c>
+      <c r="J68" t="s">
+        <v>151</v>
+      </c>
+      <c r="K68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>51</v>
       </c>
@@ -2001,10 +3415,28 @@
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>142</v>
+      </c>
+      <c r="H69" t="s">
+        <v>146</v>
+      </c>
+      <c r="I69" t="s">
+        <v>157</v>
+      </c>
+      <c r="J69" t="s">
+        <v>158</v>
+      </c>
+      <c r="K69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>52</v>
       </c>
@@ -2018,10 +3450,28 @@
         <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>142</v>
+      </c>
+      <c r="H70" t="s">
+        <v>146</v>
+      </c>
+      <c r="I70" t="s">
+        <v>159</v>
+      </c>
+      <c r="J70" t="s">
+        <v>159</v>
+      </c>
+      <c r="K70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>52</v>
       </c>
@@ -2035,10 +3485,28 @@
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>142</v>
+      </c>
+      <c r="H71" t="s">
+        <v>146</v>
+      </c>
+      <c r="I71" t="s">
+        <v>159</v>
+      </c>
+      <c r="J71" t="s">
+        <v>159</v>
+      </c>
+      <c r="K71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>53</v>
       </c>
@@ -2052,10 +3520,28 @@
         <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>149</v>
+      </c>
+      <c r="H72" t="s">
+        <v>150</v>
+      </c>
+      <c r="I72" t="s">
+        <v>114</v>
+      </c>
+      <c r="J72" t="s">
+        <v>160</v>
+      </c>
+      <c r="K72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>54</v>
       </c>
@@ -2069,10 +3555,28 @@
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73" t="s">
+        <v>142</v>
+      </c>
+      <c r="H73" t="s">
+        <v>146</v>
+      </c>
+      <c r="I73" t="s">
+        <v>161</v>
+      </c>
+      <c r="J73" t="s">
+        <v>147</v>
+      </c>
+      <c r="K73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>54</v>
       </c>
@@ -2086,10 +3590,28 @@
         <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74" t="s">
+        <v>142</v>
+      </c>
+      <c r="H74" t="s">
+        <v>146</v>
+      </c>
+      <c r="I74" t="s">
+        <v>161</v>
+      </c>
+      <c r="J74" t="s">
+        <v>147</v>
+      </c>
+      <c r="K74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>55</v>
       </c>
@@ -2103,10 +3625,28 @@
         <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>142</v>
+      </c>
+      <c r="H75" t="s">
+        <v>146</v>
+      </c>
+      <c r="I75" t="s">
+        <v>164</v>
+      </c>
+      <c r="J75" t="s">
+        <v>164</v>
+      </c>
+      <c r="K75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>55</v>
       </c>
@@ -2120,10 +3660,28 @@
         <v>7</v>
       </c>
       <c r="E76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>142</v>
+      </c>
+      <c r="H76" t="s">
+        <v>146</v>
+      </c>
+      <c r="I76" t="s">
+        <v>162</v>
+      </c>
+      <c r="J76" t="s">
+        <v>162</v>
+      </c>
+      <c r="K76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>55</v>
       </c>
@@ -2137,10 +3695,28 @@
         <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77" t="s">
+        <v>142</v>
+      </c>
+      <c r="H77" t="s">
+        <v>146</v>
+      </c>
+      <c r="I77" t="s">
+        <v>163</v>
+      </c>
+      <c r="J77" t="s">
+        <v>163</v>
+      </c>
+      <c r="K77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>55</v>
       </c>
@@ -2154,10 +3730,28 @@
         <v>7</v>
       </c>
       <c r="E78" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>142</v>
+      </c>
+      <c r="H78" t="s">
+        <v>146</v>
+      </c>
+      <c r="I78" t="s">
+        <v>164</v>
+      </c>
+      <c r="J78" t="s">
+        <v>164</v>
+      </c>
+      <c r="K78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>55</v>
       </c>
@@ -2171,10 +3765,28 @@
         <v>7</v>
       </c>
       <c r="E79" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>142</v>
+      </c>
+      <c r="H79" t="s">
+        <v>146</v>
+      </c>
+      <c r="I79" t="s">
+        <v>162</v>
+      </c>
+      <c r="J79" t="s">
+        <v>162</v>
+      </c>
+      <c r="K79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>55</v>
       </c>
@@ -2188,10 +3800,28 @@
         <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80" t="s">
+        <v>142</v>
+      </c>
+      <c r="H80" t="s">
+        <v>146</v>
+      </c>
+      <c r="I80" t="s">
+        <v>163</v>
+      </c>
+      <c r="J80" t="s">
+        <v>163</v>
+      </c>
+      <c r="K80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>56</v>
       </c>
@@ -2205,10 +3835,28 @@
         <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>142</v>
+      </c>
+      <c r="H81" t="s">
+        <v>146</v>
+      </c>
+      <c r="I81" t="s">
+        <v>165</v>
+      </c>
+      <c r="J81" t="s">
+        <v>151</v>
+      </c>
+      <c r="K81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>57</v>
       </c>
@@ -2222,10 +3870,28 @@
         <v>7</v>
       </c>
       <c r="E82" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>142</v>
+      </c>
+      <c r="H82" t="s">
+        <v>146</v>
+      </c>
+      <c r="I82" t="s">
+        <v>176</v>
+      </c>
+      <c r="J82" t="s">
+        <v>143</v>
+      </c>
+      <c r="K82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>58</v>
       </c>
@@ -2239,10 +3905,28 @@
         <v>7</v>
       </c>
       <c r="E83" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83" t="s">
+        <v>149</v>
+      </c>
+      <c r="H83" t="s">
+        <v>169</v>
+      </c>
+      <c r="I83" t="s">
+        <v>181</v>
+      </c>
+      <c r="J83" t="s">
+        <v>169</v>
+      </c>
+      <c r="K83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>58</v>
       </c>
@@ -2256,10 +3940,28 @@
         <v>7</v>
       </c>
       <c r="E84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84" t="s">
+        <v>142</v>
+      </c>
+      <c r="H84" t="s">
+        <v>146</v>
+      </c>
+      <c r="I84" t="s">
+        <v>174</v>
+      </c>
+      <c r="J84" t="s">
+        <v>151</v>
+      </c>
+      <c r="K84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>58</v>
       </c>
@@ -2273,10 +3975,28 @@
         <v>7</v>
       </c>
       <c r="E85" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>142</v>
+      </c>
+      <c r="H85" t="s">
+        <v>146</v>
+      </c>
+      <c r="I85" t="s">
+        <v>174</v>
+      </c>
+      <c r="J85" t="s">
+        <v>151</v>
+      </c>
+      <c r="K85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>58</v>
       </c>
@@ -2290,10 +4010,28 @@
         <v>7</v>
       </c>
       <c r="E86" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" t="s">
+        <v>142</v>
+      </c>
+      <c r="H86" t="s">
+        <v>146</v>
+      </c>
+      <c r="I86" t="s">
+        <v>174</v>
+      </c>
+      <c r="J86" t="s">
+        <v>151</v>
+      </c>
+      <c r="K86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>58</v>
       </c>
@@ -2307,10 +4045,28 @@
         <v>7</v>
       </c>
       <c r="E87" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>142</v>
+      </c>
+      <c r="H87" t="s">
+        <v>146</v>
+      </c>
+      <c r="I87" t="s">
+        <v>174</v>
+      </c>
+      <c r="J87" t="s">
+        <v>151</v>
+      </c>
+      <c r="K87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>58</v>
       </c>
@@ -2324,10 +4080,28 @@
         <v>7</v>
       </c>
       <c r="E88" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>142</v>
+      </c>
+      <c r="H88" t="s">
+        <v>146</v>
+      </c>
+      <c r="I88" t="s">
+        <v>174</v>
+      </c>
+      <c r="J88" t="s">
+        <v>151</v>
+      </c>
+      <c r="K88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>58</v>
       </c>
@@ -2341,10 +4115,28 @@
         <v>7</v>
       </c>
       <c r="E89" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>142</v>
+      </c>
+      <c r="H89" t="s">
+        <v>146</v>
+      </c>
+      <c r="I89" t="s">
+        <v>174</v>
+      </c>
+      <c r="J89" t="s">
+        <v>151</v>
+      </c>
+      <c r="K89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>58</v>
       </c>
@@ -2358,10 +4150,28 @@
         <v>7</v>
       </c>
       <c r="E90" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>142</v>
+      </c>
+      <c r="H90" t="s">
+        <v>146</v>
+      </c>
+      <c r="I90" t="s">
+        <v>174</v>
+      </c>
+      <c r="J90" t="s">
+        <v>151</v>
+      </c>
+      <c r="K90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>58</v>
       </c>
@@ -2375,10 +4185,28 @@
         <v>7</v>
       </c>
       <c r="E91" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91" t="s">
+        <v>142</v>
+      </c>
+      <c r="H91" t="s">
+        <v>146</v>
+      </c>
+      <c r="I91" t="s">
+        <v>174</v>
+      </c>
+      <c r="J91" t="s">
+        <v>151</v>
+      </c>
+      <c r="K91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>58</v>
       </c>
@@ -2392,10 +4220,28 @@
         <v>7</v>
       </c>
       <c r="E92" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
+        <v>142</v>
+      </c>
+      <c r="H92" t="s">
+        <v>146</v>
+      </c>
+      <c r="I92" t="s">
+        <v>174</v>
+      </c>
+      <c r="J92" t="s">
+        <v>151</v>
+      </c>
+      <c r="K92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>59</v>
       </c>
@@ -2409,10 +4255,28 @@
         <v>7</v>
       </c>
       <c r="E93" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93" t="s">
+        <v>142</v>
+      </c>
+      <c r="H93" t="s">
+        <v>146</v>
+      </c>
+      <c r="I93" t="s">
+        <v>175</v>
+      </c>
+      <c r="J93" t="s">
+        <v>143</v>
+      </c>
+      <c r="K93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>60</v>
       </c>
@@ -2426,10 +4290,28 @@
         <v>7</v>
       </c>
       <c r="E94" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94" t="s">
+        <v>142</v>
+      </c>
+      <c r="H94" t="s">
+        <v>146</v>
+      </c>
+      <c r="I94" t="s">
+        <v>165</v>
+      </c>
+      <c r="J94" t="s">
+        <v>151</v>
+      </c>
+      <c r="K94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>61</v>
       </c>
@@ -2443,10 +4325,28 @@
         <v>7</v>
       </c>
       <c r="E95" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>142</v>
+      </c>
+      <c r="H95" t="s">
+        <v>146</v>
+      </c>
+      <c r="I95" t="s">
+        <v>152</v>
+      </c>
+      <c r="J95" t="s">
+        <v>151</v>
+      </c>
+      <c r="K95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>61</v>
       </c>
@@ -2460,10 +4360,28 @@
         <v>7</v>
       </c>
       <c r="E96" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96" t="s">
+        <v>142</v>
+      </c>
+      <c r="H96" t="s">
+        <v>146</v>
+      </c>
+      <c r="I96" t="s">
+        <v>153</v>
+      </c>
+      <c r="J96" t="s">
+        <v>151</v>
+      </c>
+      <c r="K96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>61</v>
       </c>
@@ -2477,10 +4395,28 @@
         <v>7</v>
       </c>
       <c r="E97" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97" t="s">
+        <v>142</v>
+      </c>
+      <c r="H97" t="s">
+        <v>146</v>
+      </c>
+      <c r="I97" t="s">
+        <v>152</v>
+      </c>
+      <c r="J97" t="s">
+        <v>151</v>
+      </c>
+      <c r="K97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>62</v>
       </c>
@@ -2494,10 +4430,28 @@
         <v>7</v>
       </c>
       <c r="E98" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98" t="s">
+        <v>149</v>
+      </c>
+      <c r="H98" t="s">
+        <v>169</v>
+      </c>
+      <c r="I98" t="s">
+        <v>171</v>
+      </c>
+      <c r="J98" t="s">
+        <v>169</v>
+      </c>
+      <c r="K98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>62</v>
       </c>
@@ -2511,10 +4465,28 @@
         <v>7</v>
       </c>
       <c r="E99" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99" t="s">
+        <v>142</v>
+      </c>
+      <c r="H99" t="s">
+        <v>146</v>
+      </c>
+      <c r="I99" t="s">
+        <v>172</v>
+      </c>
+      <c r="J99" t="s">
+        <v>158</v>
+      </c>
+      <c r="K99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>63</v>
       </c>
@@ -2528,10 +4500,28 @@
         <v>7</v>
       </c>
       <c r="E100" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100" t="s">
+        <v>142</v>
+      </c>
+      <c r="H100" t="s">
+        <v>146</v>
+      </c>
+      <c r="I100" t="s">
+        <v>192</v>
+      </c>
+      <c r="J100" t="s">
+        <v>194</v>
+      </c>
+      <c r="K100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>64</v>
       </c>
@@ -2545,10 +4535,28 @@
         <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101" t="s">
+        <v>142</v>
+      </c>
+      <c r="H101" t="s">
+        <v>146</v>
+      </c>
+      <c r="I101" t="s">
+        <v>152</v>
+      </c>
+      <c r="J101" t="s">
+        <v>151</v>
+      </c>
+      <c r="K101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>64</v>
       </c>
@@ -2562,10 +4570,28 @@
         <v>7</v>
       </c>
       <c r="E102" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
+        <v>142</v>
+      </c>
+      <c r="H102" t="s">
+        <v>146</v>
+      </c>
+      <c r="I102" t="s">
+        <v>152</v>
+      </c>
+      <c r="J102" t="s">
+        <v>151</v>
+      </c>
+      <c r="K102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>65</v>
       </c>
@@ -2579,10 +4605,28 @@
         <v>7</v>
       </c>
       <c r="E103" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103" t="s">
+        <v>142</v>
+      </c>
+      <c r="H103" t="s">
+        <v>146</v>
+      </c>
+      <c r="I103" t="s">
+        <v>173</v>
+      </c>
+      <c r="J103" t="s">
+        <v>151</v>
+      </c>
+      <c r="K103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>66</v>
       </c>
@@ -2596,10 +4640,28 @@
         <v>7</v>
       </c>
       <c r="E104" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104" t="s">
+        <v>142</v>
+      </c>
+      <c r="H104" t="s">
+        <v>146</v>
+      </c>
+      <c r="I104" t="s">
+        <v>177</v>
+      </c>
+      <c r="J104" t="s">
+        <v>143</v>
+      </c>
+      <c r="K104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>66</v>
       </c>
@@ -2613,10 +4675,28 @@
         <v>7</v>
       </c>
       <c r="E105" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105" t="s">
+        <v>142</v>
+      </c>
+      <c r="H105" t="s">
+        <v>146</v>
+      </c>
+      <c r="I105" t="s">
+        <v>177</v>
+      </c>
+      <c r="J105" t="s">
+        <v>143</v>
+      </c>
+      <c r="K105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>66</v>
       </c>
@@ -2629,11 +4709,29 @@
       <c r="D106" t="s">
         <v>7</v>
       </c>
-      <c r="E106" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E106" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106" t="s">
+        <v>142</v>
+      </c>
+      <c r="H106" t="s">
+        <v>146</v>
+      </c>
+      <c r="I106" t="s">
+        <v>177</v>
+      </c>
+      <c r="J106" t="s">
+        <v>143</v>
+      </c>
+      <c r="K106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>66</v>
       </c>
@@ -2646,11 +4744,29 @@
       <c r="D107" t="s">
         <v>7</v>
       </c>
-      <c r="E107" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E107" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107" t="s">
+        <v>142</v>
+      </c>
+      <c r="H107" t="s">
+        <v>146</v>
+      </c>
+      <c r="I107" t="s">
+        <v>177</v>
+      </c>
+      <c r="J107" t="s">
+        <v>143</v>
+      </c>
+      <c r="K107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>67</v>
       </c>
@@ -2664,10 +4780,28 @@
         <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108" t="s">
+        <v>142</v>
+      </c>
+      <c r="H108" t="s">
+        <v>146</v>
+      </c>
+      <c r="I108" t="s">
+        <v>179</v>
+      </c>
+      <c r="J108" t="s">
+        <v>178</v>
+      </c>
+      <c r="K108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>68</v>
       </c>
@@ -2681,10 +4815,28 @@
         <v>7</v>
       </c>
       <c r="E109" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109" t="s">
+        <v>142</v>
+      </c>
+      <c r="H109" t="s">
+        <v>146</v>
+      </c>
+      <c r="I109" t="s">
+        <v>154</v>
+      </c>
+      <c r="J109" t="s">
+        <v>193</v>
+      </c>
+      <c r="K109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>69</v>
       </c>
@@ -2698,10 +4850,28 @@
         <v>7</v>
       </c>
       <c r="E110" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110" t="s">
+        <v>142</v>
+      </c>
+      <c r="H110" t="s">
+        <v>146</v>
+      </c>
+      <c r="I110" t="s">
+        <v>189</v>
+      </c>
+      <c r="J110" t="s">
+        <v>143</v>
+      </c>
+      <c r="K110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>70</v>
       </c>
@@ -2715,7 +4885,25 @@
         <v>7</v>
       </c>
       <c r="E111" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111" t="s">
+        <v>142</v>
+      </c>
+      <c r="H111" t="s">
+        <v>146</v>
+      </c>
+      <c r="I111" t="s">
+        <v>180</v>
+      </c>
+      <c r="J111" t="s">
+        <v>180</v>
+      </c>
+      <c r="K111" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/acs_nano/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/acs_nano/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/acs_nano/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3EC423-A0DA-AC47-A8FE-7EF63006BCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA495E9C-1CFA-EE4D-82B0-A7855DCFCCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="31900" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="195">
   <si>
     <t>DOI</t>
   </si>
@@ -478,9 +478,6 @@
     <t>Colony count</t>
   </si>
   <si>
-    <t>Plaque count</t>
-  </si>
-  <si>
     <t>Fluorescence</t>
   </si>
   <si>
@@ -520,18 +517,12 @@
     <t>Energy</t>
   </si>
   <si>
-    <t>Transcript count</t>
-  </si>
-  <si>
     <t>Percentage</t>
   </si>
   <si>
     <t>Cell viability</t>
   </si>
   <si>
-    <t>Oligomerization</t>
-  </si>
-  <si>
     <t>Equilibrium constant</t>
   </si>
   <si>
@@ -541,27 +532,15 @@
     <t>Gene count</t>
   </si>
   <si>
-    <t>Permeate concentration</t>
-  </si>
-  <si>
     <t>EC50</t>
   </si>
   <si>
-    <t>Blood chemistry concentration</t>
-  </si>
-  <si>
     <t>Rate</t>
   </si>
   <si>
-    <t>Permeation rate</t>
-  </si>
-  <si>
     <t>Protein abundance</t>
   </si>
   <si>
-    <t>Protein percentage</t>
-  </si>
-  <si>
     <t>DNA count</t>
   </si>
   <si>
@@ -583,9 +562,6 @@
     <t>Stiffness</t>
   </si>
   <si>
-    <t>DNA concentration</t>
-  </si>
-  <si>
     <t>IC50</t>
   </si>
   <si>
@@ -620,6 +596,15 @@
   </si>
   <si>
     <t>Conductivity</t>
+  </si>
+  <si>
+    <t>RNA count</t>
+  </si>
+  <si>
+    <t>Biofluid biochemical concentration</t>
+  </si>
+  <si>
+    <t>Protein amount</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="183" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="C95" zoomScale="259" workbookViewId="0">
+      <selection activeCell="I113" sqref="I113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1069,7 +1054,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1081,7 +1066,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F2" t="s">
         <v>141</v>
@@ -1090,13 +1075,13 @@
         <v>145</v>
       </c>
       <c r="H2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="J2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1122,13 +1107,13 @@
         <v>145</v>
       </c>
       <c r="H3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="I3" t="s">
         <v>142</v>
       </c>
       <c r="J3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1154,13 +1139,13 @@
         <v>145</v>
       </c>
       <c r="H4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="I4" t="s">
         <v>142</v>
       </c>
       <c r="J4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1186,13 +1171,13 @@
         <v>145</v>
       </c>
       <c r="H5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="I5" t="s">
         <v>147</v>
       </c>
       <c r="J5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1218,13 +1203,13 @@
         <v>145</v>
       </c>
       <c r="H6" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="I6" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="J6" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1250,13 +1235,13 @@
         <v>145</v>
       </c>
       <c r="H7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="I7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="J7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1282,13 +1267,13 @@
         <v>145</v>
       </c>
       <c r="H8" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="I8" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="J8" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1320,7 +1305,7 @@
         <v>146</v>
       </c>
       <c r="J9" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1352,7 +1337,7 @@
         <v>149</v>
       </c>
       <c r="J10" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1378,13 +1363,13 @@
         <v>145</v>
       </c>
       <c r="H11" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="I11" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="J11" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1410,13 +1395,13 @@
         <v>145</v>
       </c>
       <c r="H12" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="I12" t="s">
         <v>142</v>
       </c>
       <c r="J12" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1439,16 +1424,16 @@
         <v>148</v>
       </c>
       <c r="G13" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H13" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="I13" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J13" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1474,13 +1459,13 @@
         <v>145</v>
       </c>
       <c r="H14" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="I14" t="s">
         <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1506,13 +1491,13 @@
         <v>145</v>
       </c>
       <c r="H15" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="I15" t="s">
         <v>150</v>
       </c>
       <c r="J15" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1538,13 +1523,13 @@
         <v>145</v>
       </c>
       <c r="H16" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I16" t="s">
         <v>150</v>
       </c>
       <c r="J16" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1576,7 +1561,7 @@
         <v>150</v>
       </c>
       <c r="J17" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1602,13 +1587,13 @@
         <v>145</v>
       </c>
       <c r="H18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I18" t="s">
         <v>142</v>
       </c>
       <c r="J18" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1640,7 +1625,7 @@
         <v>150</v>
       </c>
       <c r="J19" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1672,7 +1657,7 @@
         <v>150</v>
       </c>
       <c r="J20" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1704,7 +1689,7 @@
         <v>150</v>
       </c>
       <c r="J21" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1736,7 +1721,7 @@
         <v>150</v>
       </c>
       <c r="J22" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1762,13 +1747,13 @@
         <v>145</v>
       </c>
       <c r="H23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J23" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1800,7 +1785,7 @@
         <v>150</v>
       </c>
       <c r="J24" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1826,13 +1811,13 @@
         <v>145</v>
       </c>
       <c r="H25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I25" t="s">
         <v>150</v>
       </c>
       <c r="J25" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1858,13 +1843,13 @@
         <v>145</v>
       </c>
       <c r="H26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J26" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1896,7 +1881,7 @@
         <v>150</v>
       </c>
       <c r="J27" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1928,7 +1913,7 @@
         <v>150</v>
       </c>
       <c r="J28" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -1945,7 +1930,7 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F29" t="s">
         <v>141</v>
@@ -1954,13 +1939,13 @@
         <v>145</v>
       </c>
       <c r="H29" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I29" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="J29" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1986,13 +1971,13 @@
         <v>145</v>
       </c>
       <c r="H30" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="I30" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="J30" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -2018,13 +2003,13 @@
         <v>145</v>
       </c>
       <c r="H31" t="s">
+        <v>155</v>
+      </c>
+      <c r="I31" t="s">
         <v>156</v>
       </c>
-      <c r="I31" t="s">
-        <v>157</v>
-      </c>
       <c r="J31" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -2056,7 +2041,7 @@
         <v>149</v>
       </c>
       <c r="J32" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -2082,13 +2067,13 @@
         <v>145</v>
       </c>
       <c r="H33" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="I33" t="s">
         <v>150</v>
       </c>
       <c r="J33" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -2114,13 +2099,13 @@
         <v>145</v>
       </c>
       <c r="H34" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="I34" t="s">
         <v>150</v>
       </c>
       <c r="J34" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -2152,7 +2137,7 @@
         <v>150</v>
       </c>
       <c r="J35" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -2184,7 +2169,7 @@
         <v>150</v>
       </c>
       <c r="J36" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -2207,16 +2192,16 @@
         <v>148</v>
       </c>
       <c r="G37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H37" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J37" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -2248,7 +2233,7 @@
         <v>150</v>
       </c>
       <c r="J38" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -2280,7 +2265,7 @@
         <v>150</v>
       </c>
       <c r="J39" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -2312,7 +2297,7 @@
         <v>150</v>
       </c>
       <c r="J40" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -2344,7 +2329,7 @@
         <v>150</v>
       </c>
       <c r="J41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -2367,16 +2352,16 @@
         <v>148</v>
       </c>
       <c r="G42" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I42" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J42" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -2402,13 +2387,13 @@
         <v>145</v>
       </c>
       <c r="H43" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="I43" t="s">
         <v>150</v>
       </c>
       <c r="J43" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -2434,13 +2419,13 @@
         <v>145</v>
       </c>
       <c r="H44" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I44" t="s">
         <v>150</v>
       </c>
       <c r="J44" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -2466,13 +2451,13 @@
         <v>145</v>
       </c>
       <c r="H45" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="I45" t="s">
         <v>150</v>
       </c>
       <c r="J45" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -2498,13 +2483,13 @@
         <v>145</v>
       </c>
       <c r="H46" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I46" t="s">
         <v>150</v>
       </c>
       <c r="J46" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -2530,13 +2515,13 @@
         <v>145</v>
       </c>
       <c r="H47" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="I47" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="J47" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -2562,13 +2547,13 @@
         <v>145</v>
       </c>
       <c r="H48" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I48" t="s">
         <v>142</v>
       </c>
       <c r="J48" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -2591,16 +2576,16 @@
         <v>148</v>
       </c>
       <c r="G49" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I49" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J49" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -2626,13 +2611,13 @@
         <v>145</v>
       </c>
       <c r="H50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I50" t="s">
         <v>142</v>
       </c>
       <c r="J50" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -2658,13 +2643,13 @@
         <v>145</v>
       </c>
       <c r="H51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I51" t="s">
         <v>142</v>
       </c>
       <c r="J51" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -2690,13 +2675,13 @@
         <v>145</v>
       </c>
       <c r="H52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I52" t="s">
         <v>142</v>
       </c>
       <c r="J52" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -2722,13 +2707,13 @@
         <v>145</v>
       </c>
       <c r="H53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I53" t="s">
         <v>142</v>
       </c>
       <c r="J53" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -2754,13 +2739,13 @@
         <v>145</v>
       </c>
       <c r="H54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I54" t="s">
         <v>142</v>
       </c>
       <c r="J54" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -2786,13 +2771,13 @@
         <v>145</v>
       </c>
       <c r="H55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I55" t="s">
         <v>142</v>
       </c>
       <c r="J55" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -2818,13 +2803,13 @@
         <v>145</v>
       </c>
       <c r="H56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I56" t="s">
         <v>142</v>
       </c>
       <c r="J56" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -2850,13 +2835,13 @@
         <v>145</v>
       </c>
       <c r="H57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I57" t="s">
         <v>142</v>
       </c>
       <c r="J57" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -2882,13 +2867,13 @@
         <v>145</v>
       </c>
       <c r="H58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I58" t="s">
         <v>142</v>
       </c>
       <c r="J58" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -2914,13 +2899,13 @@
         <v>145</v>
       </c>
       <c r="H59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I59" t="s">
         <v>142</v>
       </c>
       <c r="J59" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -2946,13 +2931,13 @@
         <v>145</v>
       </c>
       <c r="H60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I60" t="s">
         <v>142</v>
       </c>
       <c r="J60" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -2978,13 +2963,13 @@
         <v>145</v>
       </c>
       <c r="H61" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="I61" t="s">
         <v>150</v>
       </c>
       <c r="J61" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -3016,7 +3001,7 @@
         <v>150</v>
       </c>
       <c r="J62" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -3048,7 +3033,7 @@
         <v>108</v>
       </c>
       <c r="J63" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -3080,7 +3065,7 @@
         <v>108</v>
       </c>
       <c r="J64" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -3112,7 +3097,7 @@
         <v>108</v>
       </c>
       <c r="J65" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -3138,13 +3123,13 @@
         <v>145</v>
       </c>
       <c r="H66" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="I66" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="J66" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -3170,13 +3155,13 @@
         <v>145</v>
       </c>
       <c r="H67" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="I67" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="J67" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -3208,7 +3193,7 @@
         <v>150</v>
       </c>
       <c r="J68" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -3240,7 +3225,7 @@
         <v>150</v>
       </c>
       <c r="J69" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -3266,13 +3251,13 @@
         <v>145</v>
       </c>
       <c r="H70" t="s">
+        <v>155</v>
+      </c>
+      <c r="I70" t="s">
         <v>156</v>
       </c>
-      <c r="I70" t="s">
-        <v>157</v>
-      </c>
       <c r="J70" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -3298,13 +3283,13 @@
         <v>145</v>
       </c>
       <c r="H71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J71" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -3330,13 +3315,13 @@
         <v>145</v>
       </c>
       <c r="H72" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I72" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J72" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -3362,13 +3347,13 @@
         <v>149</v>
       </c>
       <c r="H73" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="I73" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J73" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -3394,13 +3379,13 @@
         <v>145</v>
       </c>
       <c r="H74" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I74" t="s">
         <v>146</v>
       </c>
       <c r="J74" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -3426,13 +3411,13 @@
         <v>145</v>
       </c>
       <c r="H75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I75" t="s">
         <v>146</v>
       </c>
       <c r="J75" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -3458,13 +3443,13 @@
         <v>145</v>
       </c>
       <c r="H76" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I76" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J76" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -3490,13 +3475,13 @@
         <v>145</v>
       </c>
       <c r="H77" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I77" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J77" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -3522,13 +3507,13 @@
         <v>145</v>
       </c>
       <c r="H78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J78" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -3554,13 +3539,13 @@
         <v>145</v>
       </c>
       <c r="H79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J79" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -3586,13 +3571,13 @@
         <v>145</v>
       </c>
       <c r="H80" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I80" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J80" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -3618,13 +3603,13 @@
         <v>145</v>
       </c>
       <c r="H81" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I81" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J81" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
@@ -3650,13 +3635,13 @@
         <v>145</v>
       </c>
       <c r="H82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I82" t="s">
         <v>150</v>
       </c>
       <c r="J82" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
@@ -3682,13 +3667,13 @@
         <v>145</v>
       </c>
       <c r="H83" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I83" t="s">
         <v>142</v>
       </c>
       <c r="J83" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
@@ -3711,16 +3696,16 @@
         <v>148</v>
       </c>
       <c r="G84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H84" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="I84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J84" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
@@ -3746,13 +3731,13 @@
         <v>145</v>
       </c>
       <c r="H85" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I85" t="s">
         <v>150</v>
       </c>
       <c r="J85" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
@@ -3778,13 +3763,13 @@
         <v>145</v>
       </c>
       <c r="H86" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I86" t="s">
         <v>150</v>
       </c>
       <c r="J86" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
@@ -3810,13 +3795,13 @@
         <v>145</v>
       </c>
       <c r="H87" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I87" t="s">
         <v>150</v>
       </c>
       <c r="J87" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
@@ -3842,13 +3827,13 @@
         <v>145</v>
       </c>
       <c r="H88" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I88" t="s">
         <v>150</v>
       </c>
       <c r="J88" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
@@ -3874,13 +3859,13 @@
         <v>145</v>
       </c>
       <c r="H89" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I89" t="s">
         <v>150</v>
       </c>
       <c r="J89" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
@@ -3906,13 +3891,13 @@
         <v>145</v>
       </c>
       <c r="H90" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I90" t="s">
         <v>150</v>
       </c>
       <c r="J90" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
@@ -3938,13 +3923,13 @@
         <v>145</v>
       </c>
       <c r="H91" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I91" t="s">
         <v>150</v>
       </c>
       <c r="J91" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
@@ -3970,13 +3955,13 @@
         <v>145</v>
       </c>
       <c r="H92" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I92" t="s">
         <v>150</v>
       </c>
       <c r="J92" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
@@ -4002,13 +3987,13 @@
         <v>145</v>
       </c>
       <c r="H93" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I93" t="s">
         <v>150</v>
       </c>
       <c r="J93" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
@@ -4034,13 +4019,13 @@
         <v>145</v>
       </c>
       <c r="H94" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="I94" t="s">
         <v>142</v>
       </c>
       <c r="J94" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
@@ -4066,13 +4051,13 @@
         <v>145</v>
       </c>
       <c r="H95" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I95" t="s">
         <v>150</v>
       </c>
       <c r="J95" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
@@ -4104,7 +4089,7 @@
         <v>150</v>
       </c>
       <c r="J96" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
@@ -4130,13 +4115,13 @@
         <v>145</v>
       </c>
       <c r="H97" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I97" t="s">
         <v>150</v>
       </c>
       <c r="J97" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
@@ -4168,7 +4153,7 @@
         <v>150</v>
       </c>
       <c r="J98" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
@@ -4191,16 +4176,16 @@
         <v>148</v>
       </c>
       <c r="G99" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H99" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I99" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J99" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
@@ -4226,13 +4211,13 @@
         <v>145</v>
       </c>
       <c r="H100" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J100" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
@@ -4258,13 +4243,13 @@
         <v>145</v>
       </c>
       <c r="H101" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="I101" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="J101" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
@@ -4296,7 +4281,7 @@
         <v>150</v>
       </c>
       <c r="J102" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
@@ -4328,7 +4313,7 @@
         <v>150</v>
       </c>
       <c r="J103" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
@@ -4354,13 +4339,13 @@
         <v>145</v>
       </c>
       <c r="H104" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I104" t="s">
         <v>150</v>
       </c>
       <c r="J104" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
@@ -4386,13 +4371,13 @@
         <v>145</v>
       </c>
       <c r="H105" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="I105" t="s">
         <v>142</v>
       </c>
       <c r="J105" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
@@ -4418,13 +4403,13 @@
         <v>145</v>
       </c>
       <c r="H106" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="I106" t="s">
         <v>142</v>
       </c>
       <c r="J106" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
@@ -4450,13 +4435,13 @@
         <v>145</v>
       </c>
       <c r="H107" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="I107" t="s">
         <v>142</v>
       </c>
       <c r="J107" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
@@ -4482,13 +4467,13 @@
         <v>145</v>
       </c>
       <c r="H108" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="I108" t="s">
         <v>142</v>
       </c>
       <c r="J108" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
@@ -4514,13 +4499,13 @@
         <v>145</v>
       </c>
       <c r="H109" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I109" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J109" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
@@ -4546,13 +4531,13 @@
         <v>145</v>
       </c>
       <c r="H110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I110" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J110" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
@@ -4578,13 +4563,13 @@
         <v>145</v>
       </c>
       <c r="H111" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="I111" t="s">
         <v>142</v>
       </c>
       <c r="J111" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
@@ -4610,13 +4595,13 @@
         <v>145</v>
       </c>
       <c r="H112" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="I112" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="J112" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/acs_nano/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/acs_nano/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/acs_nano/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA495E9C-1CFA-EE4D-82B0-A7855DCFCCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BCEEE8-3BB1-BC46-9D50-97EE6AF21A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="196">
   <si>
     <t>DOI</t>
   </si>
@@ -605,6 +605,9 @@
   </si>
   <si>
     <t>Protein amount</t>
+  </si>
+  <si>
+    <t>Statistics</t>
   </si>
 </sst>
 </file>
@@ -1005,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C95" zoomScale="259" workbookViewId="0">
-      <selection activeCell="I113" sqref="I113"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3030,7 +3033,7 @@
         <v>108</v>
       </c>
       <c r="I63" t="s">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="J63" t="s">
         <v>188</v>
@@ -3062,7 +3065,7 @@
         <v>108</v>
       </c>
       <c r="I64" t="s">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="J64" t="s">
         <v>188</v>
@@ -3094,7 +3097,7 @@
         <v>108</v>
       </c>
       <c r="I65" t="s">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="J65" t="s">
         <v>188</v>

--- a/data/misused_bar_graph_figures/acs_nano/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/acs_nano/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/acs_nano/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BCEEE8-3BB1-BC46-9D50-97EE6AF21A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1144A7-A2D4-7041-9892-26B05FE3BEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="308">
   <si>
     <t>DOI</t>
   </si>
@@ -608,6 +608,342 @@
   </si>
   <si>
     <t>Statistics</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c10225_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c09892_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c08869_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c08487_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c08064_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c08064_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c08064_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c08064_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c07767_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c07538_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c07538_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c06733_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c06552_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c06552_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c06518_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c06518_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c06518_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c05268_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c05149_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c04578_log_fig9</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c04578_log_fig8</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c04578_log_fig7</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c04578_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c04578_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c04578_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c04578_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c04578_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c04578_log_fig10</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c04578_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c04112_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c03959_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c03910_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c03910_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c03910_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c03910_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c03910_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c03910_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c03761_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c03761_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c03028_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c02704_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c02704_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c02532_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c02304_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c02304_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c02268_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c02268_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c02251_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c02251_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c02251_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c02099_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c01917_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c01829_log_fig9</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c01829_log_fig8</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c01829_log_fig7</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c01829_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c01829_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c01829_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c01829_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c01829_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c01829_log_fig11</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c01829_log_fig10</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c01829_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c01408_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c01408_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c01176_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c01124_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c01124_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c01124_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c01124_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c00991_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c00981_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c00981_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c00981_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c00981_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c00600_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c00600_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c00600_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c00578_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c00578_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c00345_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c00155_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c00032_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.2c12747_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.2c12233_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.2c12233_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.2c12229_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.2c12154_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.2c12151_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.2c12027_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.2c11564_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.2c11550_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.2c11550_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.2c11550_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.2c11550_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.2c11550_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.2c11510_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.2c11241_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.2c11241_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.2c11159_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.2c10970_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.2c10501_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.2c10371_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.2c10094_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.2c08451_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.2c08451_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.2c08451_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.2c08434_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.2c08153_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.2c08153_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.2c07436_log_fig1</t>
+  </si>
+  <si>
+    <t>Fig Index</t>
   </si>
 </sst>
 </file>
@@ -688,7 +1024,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -704,6 +1040,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1006,332 +1345,360 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J112"/>
+  <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" t="s">
         <v>189</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="F2" t="s">
-        <v>141</v>
-      </c>
       <c r="G2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H2" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="I2" t="s">
         <v>191</v>
       </c>
       <c r="J2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>72</v>
       </c>
-      <c r="F3" t="s">
-        <v>141</v>
-      </c>
       <c r="G3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" t="s">
         <v>175</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>142</v>
       </c>
-      <c r="J3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="K3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>73</v>
       </c>
-      <c r="F4" t="s">
-        <v>141</v>
-      </c>
       <c r="G4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" t="s">
         <v>175</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>142</v>
       </c>
-      <c r="J4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="K4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>74</v>
       </c>
-      <c r="F5" t="s">
-        <v>141</v>
-      </c>
       <c r="G5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I5" t="s">
         <v>176</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>147</v>
       </c>
-      <c r="J5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="K5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>75</v>
       </c>
-      <c r="F6" t="s">
-        <v>141</v>
-      </c>
       <c r="G6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I6" t="s">
         <v>177</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>178</v>
       </c>
-      <c r="J6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="K6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
       <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>75</v>
       </c>
-      <c r="F7" t="s">
-        <v>141</v>
-      </c>
       <c r="G7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I7" t="s">
         <v>177</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>178</v>
       </c>
-      <c r="J7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="K7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
       <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
         <v>75</v>
       </c>
-      <c r="F8" t="s">
-        <v>141</v>
-      </c>
       <c r="G8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I8" t="s">
         <v>177</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>178</v>
       </c>
-      <c r="J8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="K8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
         <v>76</v>
       </c>
-      <c r="F9" t="s">
-        <v>141</v>
-      </c>
       <c r="G9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I9" t="s">
         <v>146</v>
       </c>
       <c r="J9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+        <v>146</v>
+      </c>
+      <c r="K9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
         <v>77</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>148</v>
-      </c>
-      <c r="G10" t="s">
-        <v>149</v>
       </c>
       <c r="H10" t="s">
         <v>149</v>
@@ -1340,702 +1707,768 @@
         <v>149</v>
       </c>
       <c r="J10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>78</v>
       </c>
-      <c r="F11" t="s">
-        <v>141</v>
-      </c>
       <c r="G11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H11" t="s">
+        <v>145</v>
+      </c>
+      <c r="I11" t="s">
         <v>182</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>181</v>
       </c>
-      <c r="J11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="K11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>79</v>
       </c>
-      <c r="F12" t="s">
-        <v>141</v>
-      </c>
       <c r="G12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H12" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" t="s">
         <v>175</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>142</v>
       </c>
-      <c r="J12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="K12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>80</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>148</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>174</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>182</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>183</v>
       </c>
-      <c r="J13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="K13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
         <v>81</v>
       </c>
-      <c r="F14" t="s">
-        <v>141</v>
-      </c>
       <c r="G14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H14" t="s">
+        <v>145</v>
+      </c>
+      <c r="I14" t="s">
         <v>173</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>150</v>
       </c>
-      <c r="J14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="K14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
       <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>8</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
       <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
         <v>82</v>
       </c>
-      <c r="F15" t="s">
-        <v>141</v>
-      </c>
       <c r="G15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H15" t="s">
+        <v>145</v>
+      </c>
+      <c r="I15" t="s">
         <v>173</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>150</v>
       </c>
-      <c r="J15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="K15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
         <v>83</v>
       </c>
-      <c r="F16" t="s">
-        <v>141</v>
-      </c>
       <c r="G16" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H16" t="s">
+        <v>145</v>
+      </c>
+      <c r="I16" t="s">
         <v>168</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>150</v>
       </c>
-      <c r="J16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="K16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
         <v>84</v>
       </c>
-      <c r="F17" t="s">
-        <v>141</v>
-      </c>
       <c r="G17" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H17" t="s">
+        <v>145</v>
+      </c>
+      <c r="I17" t="s">
         <v>151</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>150</v>
       </c>
-      <c r="J17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="K17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
       <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>8</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
       <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
         <v>85</v>
       </c>
-      <c r="F18" t="s">
-        <v>141</v>
-      </c>
       <c r="G18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H18" t="s">
+        <v>145</v>
+      </c>
+      <c r="I18" t="s">
         <v>154</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>142</v>
       </c>
-      <c r="J18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="K18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
       <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
       <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
         <v>84</v>
       </c>
-      <c r="F19" t="s">
-        <v>141</v>
-      </c>
       <c r="G19" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H19" t="s">
+        <v>145</v>
+      </c>
+      <c r="I19" t="s">
         <v>151</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>150</v>
       </c>
-      <c r="J19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="K19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
       <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>20</v>
       </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
       <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>84</v>
       </c>
-      <c r="F20" t="s">
-        <v>141</v>
-      </c>
       <c r="G20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H20" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" t="s">
         <v>151</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>150</v>
       </c>
-      <c r="J20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="K20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
       <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
       <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
         <v>84</v>
       </c>
-      <c r="F21" t="s">
-        <v>141</v>
-      </c>
       <c r="G21" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H21" t="s">
+        <v>145</v>
+      </c>
+      <c r="I21" t="s">
         <v>151</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>150</v>
       </c>
-      <c r="J21" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="K21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>86</v>
       </c>
-      <c r="F22" t="s">
-        <v>141</v>
-      </c>
       <c r="G22" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H22" t="s">
+        <v>145</v>
+      </c>
+      <c r="I22" t="s">
         <v>151</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>150</v>
       </c>
-      <c r="J22" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="K22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
         <v>87</v>
       </c>
-      <c r="F23" t="s">
-        <v>141</v>
-      </c>
       <c r="G23" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H23" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="I23" t="s">
         <v>164</v>
       </c>
       <c r="J23" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+        <v>164</v>
+      </c>
+      <c r="K23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
         <v>88</v>
       </c>
-      <c r="F24" t="s">
-        <v>141</v>
-      </c>
       <c r="G24" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H24" t="s">
+        <v>145</v>
+      </c>
+      <c r="I24" t="s">
         <v>151</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>150</v>
       </c>
-      <c r="J24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="K24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
         <v>89</v>
       </c>
-      <c r="F25" t="s">
-        <v>141</v>
-      </c>
       <c r="G25" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H25" t="s">
+        <v>145</v>
+      </c>
+      <c r="I25" t="s">
         <v>163</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>150</v>
       </c>
-      <c r="J25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="K25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
         <v>90</v>
       </c>
-      <c r="F26" t="s">
-        <v>141</v>
-      </c>
       <c r="G26" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H26" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="I26" t="s">
         <v>164</v>
       </c>
       <c r="J26" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+        <v>164</v>
+      </c>
+      <c r="K26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
         <v>84</v>
       </c>
-      <c r="F27" t="s">
-        <v>141</v>
-      </c>
       <c r="G27" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H27" t="s">
+        <v>145</v>
+      </c>
+      <c r="I27" t="s">
         <v>151</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>150</v>
       </c>
-      <c r="J27" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="K27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
       <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
         <v>8</v>
       </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
       <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
         <v>84</v>
       </c>
-      <c r="F28" t="s">
-        <v>141</v>
-      </c>
       <c r="G28" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H28" t="s">
+        <v>145</v>
+      </c>
+      <c r="I28" t="s">
         <v>151</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>150</v>
       </c>
-      <c r="J28" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="K28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
         <v>186</v>
       </c>
-      <c r="F29" t="s">
-        <v>141</v>
-      </c>
       <c r="G29" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H29" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="I29" t="s">
         <v>187</v>
       </c>
       <c r="J29" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+        <v>187</v>
+      </c>
+      <c r="K29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
         <v>91</v>
       </c>
-      <c r="F30" t="s">
-        <v>141</v>
-      </c>
       <c r="G30" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H30" t="s">
+        <v>145</v>
+      </c>
+      <c r="I30" t="s">
         <v>182</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>185</v>
       </c>
-      <c r="J30" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="K30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
         <v>92</v>
       </c>
-      <c r="F31" t="s">
-        <v>141</v>
-      </c>
       <c r="G31" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H31" t="s">
+        <v>145</v>
+      </c>
+      <c r="I31" t="s">
         <v>155</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>156</v>
       </c>
-      <c r="J31" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="K31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
         <v>93</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>148</v>
-      </c>
-      <c r="G32" t="s">
-        <v>149</v>
       </c>
       <c r="H32" t="s">
         <v>149</v>
@@ -2044,1662 +2477,1818 @@
         <v>149</v>
       </c>
       <c r="J32" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+        <v>149</v>
+      </c>
+      <c r="K32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
         <v>94</v>
       </c>
-      <c r="F33" t="s">
-        <v>141</v>
-      </c>
       <c r="G33" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H33" t="s">
+        <v>145</v>
+      </c>
+      <c r="I33" t="s">
         <v>192</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>150</v>
       </c>
-      <c r="J33" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="K33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B34" t="s">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
       <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
         <v>8</v>
       </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
       <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
         <v>94</v>
       </c>
-      <c r="F34" t="s">
-        <v>141</v>
-      </c>
       <c r="G34" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H34" t="s">
+        <v>145</v>
+      </c>
+      <c r="I34" t="s">
         <v>192</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>150</v>
       </c>
-      <c r="J34" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="K34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B35" t="s">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
         <v>95</v>
       </c>
-      <c r="F35" t="s">
-        <v>141</v>
-      </c>
       <c r="G35" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H35" t="s">
+        <v>145</v>
+      </c>
+      <c r="I35" t="s">
         <v>151</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>150</v>
       </c>
-      <c r="J35" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="K35" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B36" t="s">
         <v>33</v>
       </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
       <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
         <v>8</v>
       </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
       <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
         <v>95</v>
       </c>
-      <c r="F36" t="s">
-        <v>141</v>
-      </c>
       <c r="G36" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H36" t="s">
+        <v>145</v>
+      </c>
+      <c r="I36" t="s">
         <v>151</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>150</v>
       </c>
-      <c r="J36" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="K36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B37" t="s">
         <v>33</v>
       </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
       <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
         <v>11</v>
       </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
       <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
         <v>96</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>148</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>165</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>166</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>165</v>
       </c>
-      <c r="J37" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="K37" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B38" t="s">
         <v>34</v>
       </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
         <v>97</v>
       </c>
-      <c r="F38" t="s">
-        <v>141</v>
-      </c>
       <c r="G38" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H38" t="s">
+        <v>145</v>
+      </c>
+      <c r="I38" t="s">
         <v>151</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>150</v>
       </c>
-      <c r="J38" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="K38" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B39" t="s">
         <v>34</v>
       </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
       <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
         <v>8</v>
       </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
       <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
         <v>97</v>
       </c>
-      <c r="F39" t="s">
-        <v>141</v>
-      </c>
       <c r="G39" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H39" t="s">
+        <v>145</v>
+      </c>
+      <c r="I39" t="s">
         <v>151</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>150</v>
       </c>
-      <c r="J39" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="K39" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B40" t="s">
         <v>34</v>
       </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
       <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
         <v>11</v>
       </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
       <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
         <v>97</v>
       </c>
-      <c r="F40" t="s">
-        <v>141</v>
-      </c>
       <c r="G40" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H40" t="s">
+        <v>145</v>
+      </c>
+      <c r="I40" t="s">
         <v>151</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>150</v>
       </c>
-      <c r="J40" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="K40" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B41" t="s">
         <v>34</v>
       </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
       <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
         <v>20</v>
       </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
       <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
         <v>97</v>
       </c>
-      <c r="F41" t="s">
-        <v>141</v>
-      </c>
       <c r="G41" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H41" t="s">
+        <v>145</v>
+      </c>
+      <c r="I41" t="s">
         <v>151</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>150</v>
       </c>
-      <c r="J41" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="K41" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B42" t="s">
         <v>35</v>
       </c>
-      <c r="B42" t="s">
-        <v>5</v>
-      </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
         <v>98</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>148</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>174</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>152</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>183</v>
       </c>
-      <c r="J42" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="K42" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B43" t="s">
         <v>36</v>
       </c>
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
         <v>99</v>
       </c>
-      <c r="F43" t="s">
-        <v>141</v>
-      </c>
       <c r="G43" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H43" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I43" t="s">
         <v>150</v>
       </c>
       <c r="J43" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+        <v>150</v>
+      </c>
+      <c r="K43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B44" t="s">
         <v>36</v>
       </c>
-      <c r="B44" t="s">
-        <v>5</v>
-      </c>
       <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
         <v>8</v>
       </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
       <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
         <v>100</v>
       </c>
-      <c r="F44" t="s">
-        <v>141</v>
-      </c>
       <c r="G44" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H44" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I44" t="s">
         <v>150</v>
       </c>
       <c r="J44" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+        <v>150</v>
+      </c>
+      <c r="K44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B45" t="s">
         <v>36</v>
       </c>
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
       <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
         <v>11</v>
       </c>
-      <c r="D45" t="s">
-        <v>7</v>
-      </c>
       <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
         <v>99</v>
       </c>
-      <c r="F45" t="s">
-        <v>141</v>
-      </c>
       <c r="G45" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H45" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I45" t="s">
         <v>150</v>
       </c>
       <c r="J45" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+        <v>150</v>
+      </c>
+      <c r="K45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B46" t="s">
         <v>36</v>
       </c>
-      <c r="B46" t="s">
-        <v>5</v>
-      </c>
       <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
         <v>20</v>
       </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
       <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
         <v>100</v>
       </c>
-      <c r="F46" t="s">
-        <v>141</v>
-      </c>
       <c r="G46" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H46" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I46" t="s">
         <v>150</v>
       </c>
       <c r="J46" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+        <v>150</v>
+      </c>
+      <c r="K46" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B47" t="s">
         <v>37</v>
       </c>
-      <c r="B47" t="s">
-        <v>5</v>
-      </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
         <v>101</v>
       </c>
-      <c r="F47" t="s">
-        <v>141</v>
-      </c>
       <c r="G47" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H47" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="I47" t="s">
         <v>179</v>
       </c>
       <c r="J47" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+        <v>179</v>
+      </c>
+      <c r="K47" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B48" t="s">
         <v>38</v>
       </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
         <v>102</v>
       </c>
-      <c r="F48" t="s">
-        <v>141</v>
-      </c>
       <c r="G48" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H48" t="s">
+        <v>145</v>
+      </c>
+      <c r="I48" t="s">
         <v>180</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>142</v>
       </c>
-      <c r="J48" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="K48" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B49" t="s">
         <v>38</v>
       </c>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
       <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
         <v>8</v>
       </c>
-      <c r="D49" t="s">
-        <v>7</v>
-      </c>
       <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
         <v>103</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>148</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>174</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>152</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>183</v>
       </c>
-      <c r="J49" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="K49" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B50" t="s">
         <v>39</v>
       </c>
-      <c r="B50" t="s">
-        <v>5</v>
-      </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
         <v>104</v>
       </c>
-      <c r="F50" t="s">
-        <v>141</v>
-      </c>
       <c r="G50" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H50" t="s">
+        <v>145</v>
+      </c>
+      <c r="I50" t="s">
         <v>153</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>142</v>
       </c>
-      <c r="J50" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="K50" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B51" t="s">
         <v>39</v>
       </c>
-      <c r="B51" t="s">
-        <v>5</v>
-      </c>
       <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
         <v>40</v>
       </c>
-      <c r="D51" t="s">
-        <v>7</v>
-      </c>
       <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
         <v>104</v>
       </c>
-      <c r="F51" t="s">
-        <v>141</v>
-      </c>
       <c r="G51" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H51" t="s">
+        <v>145</v>
+      </c>
+      <c r="I51" t="s">
         <v>153</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>142</v>
       </c>
-      <c r="J51" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="K51" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B52" t="s">
         <v>39</v>
       </c>
-      <c r="B52" t="s">
-        <v>5</v>
-      </c>
       <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
         <v>41</v>
       </c>
-      <c r="D52" t="s">
-        <v>7</v>
-      </c>
       <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
         <v>104</v>
       </c>
-      <c r="F52" t="s">
-        <v>141</v>
-      </c>
       <c r="G52" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H52" t="s">
+        <v>145</v>
+      </c>
+      <c r="I52" t="s">
         <v>153</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>142</v>
       </c>
-      <c r="J52" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="K52" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B53" t="s">
         <v>39</v>
       </c>
-      <c r="B53" t="s">
-        <v>5</v>
-      </c>
       <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
         <v>8</v>
       </c>
-      <c r="D53" t="s">
-        <v>7</v>
-      </c>
       <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" t="s">
         <v>104</v>
       </c>
-      <c r="F53" t="s">
-        <v>141</v>
-      </c>
       <c r="G53" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H53" t="s">
+        <v>145</v>
+      </c>
+      <c r="I53" t="s">
         <v>153</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>142</v>
       </c>
-      <c r="J53" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="K53" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B54" t="s">
         <v>39</v>
       </c>
-      <c r="B54" t="s">
-        <v>5</v>
-      </c>
       <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
         <v>11</v>
       </c>
-      <c r="D54" t="s">
-        <v>7</v>
-      </c>
       <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
         <v>104</v>
       </c>
-      <c r="F54" t="s">
-        <v>141</v>
-      </c>
       <c r="G54" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H54" t="s">
+        <v>145</v>
+      </c>
+      <c r="I54" t="s">
         <v>153</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>142</v>
       </c>
-      <c r="J54" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="K54" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B55" t="s">
         <v>39</v>
       </c>
-      <c r="B55" t="s">
-        <v>5</v>
-      </c>
       <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
         <v>20</v>
       </c>
-      <c r="D55" t="s">
-        <v>7</v>
-      </c>
       <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
         <v>104</v>
       </c>
-      <c r="F55" t="s">
-        <v>141</v>
-      </c>
       <c r="G55" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H55" t="s">
+        <v>145</v>
+      </c>
+      <c r="I55" t="s">
         <v>153</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>142</v>
       </c>
-      <c r="J55" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="K55" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B56" t="s">
         <v>39</v>
       </c>
-      <c r="B56" t="s">
-        <v>5</v>
-      </c>
       <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
         <v>21</v>
       </c>
-      <c r="D56" t="s">
-        <v>7</v>
-      </c>
       <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
         <v>105</v>
       </c>
-      <c r="F56" t="s">
-        <v>141</v>
-      </c>
       <c r="G56" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H56" t="s">
+        <v>145</v>
+      </c>
+      <c r="I56" t="s">
         <v>153</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>142</v>
       </c>
-      <c r="J56" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="K56" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B57" t="s">
         <v>39</v>
       </c>
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
       <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
         <v>42</v>
       </c>
-      <c r="D57" t="s">
-        <v>7</v>
-      </c>
       <c r="E57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" t="s">
         <v>105</v>
       </c>
-      <c r="F57" t="s">
-        <v>141</v>
-      </c>
       <c r="G57" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H57" t="s">
+        <v>145</v>
+      </c>
+      <c r="I57" t="s">
         <v>153</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>142</v>
       </c>
-      <c r="J57" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="K57" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B58" t="s">
         <v>39</v>
       </c>
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
       <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
         <v>43</v>
       </c>
-      <c r="D58" t="s">
-        <v>7</v>
-      </c>
       <c r="E58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" t="s">
         <v>105</v>
       </c>
-      <c r="F58" t="s">
-        <v>141</v>
-      </c>
       <c r="G58" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H58" t="s">
+        <v>145</v>
+      </c>
+      <c r="I58" t="s">
         <v>153</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>142</v>
       </c>
-      <c r="J58" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="K58" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B59" t="s">
         <v>39</v>
       </c>
-      <c r="B59" t="s">
-        <v>5</v>
-      </c>
       <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
         <v>44</v>
       </c>
-      <c r="D59" t="s">
-        <v>7</v>
-      </c>
       <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" t="s">
         <v>105</v>
       </c>
-      <c r="F59" t="s">
-        <v>141</v>
-      </c>
       <c r="G59" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H59" t="s">
+        <v>145</v>
+      </c>
+      <c r="I59" t="s">
         <v>153</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>142</v>
       </c>
-      <c r="J59" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="K59" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B60" t="s">
         <v>39</v>
       </c>
-      <c r="B60" t="s">
-        <v>5</v>
-      </c>
       <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
         <v>45</v>
       </c>
-      <c r="D60" t="s">
-        <v>7</v>
-      </c>
       <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
         <v>105</v>
       </c>
-      <c r="F60" t="s">
-        <v>141</v>
-      </c>
       <c r="G60" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H60" t="s">
+        <v>145</v>
+      </c>
+      <c r="I60" t="s">
         <v>153</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>142</v>
       </c>
-      <c r="J60" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="K60" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B61" t="s">
         <v>46</v>
       </c>
-      <c r="B61" t="s">
-        <v>5</v>
-      </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
         <v>106</v>
       </c>
-      <c r="F61" t="s">
-        <v>141</v>
-      </c>
       <c r="G61" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H61" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I61" t="s">
         <v>150</v>
       </c>
       <c r="J61" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+        <v>150</v>
+      </c>
+      <c r="K61" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B62" t="s">
         <v>47</v>
       </c>
-      <c r="B62" t="s">
-        <v>5</v>
-      </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" t="s">
         <v>107</v>
       </c>
-      <c r="F62" t="s">
-        <v>141</v>
-      </c>
       <c r="G62" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H62" t="s">
+        <v>145</v>
+      </c>
+      <c r="I62" t="s">
         <v>151</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>150</v>
       </c>
-      <c r="J62" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="K62" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B63" t="s">
         <v>48</v>
       </c>
-      <c r="B63" t="s">
-        <v>5</v>
-      </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" t="s">
         <v>108</v>
       </c>
-      <c r="F63" t="s">
-        <v>141</v>
-      </c>
       <c r="G63" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H63" t="s">
+        <v>145</v>
+      </c>
+      <c r="I63" t="s">
         <v>108</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>195</v>
       </c>
-      <c r="J63" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="K63" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B64" t="s">
         <v>48</v>
       </c>
-      <c r="B64" t="s">
-        <v>5</v>
-      </c>
       <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
         <v>8</v>
       </c>
-      <c r="D64" t="s">
-        <v>7</v>
-      </c>
       <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" t="s">
         <v>108</v>
       </c>
-      <c r="F64" t="s">
-        <v>141</v>
-      </c>
       <c r="G64" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H64" t="s">
+        <v>145</v>
+      </c>
+      <c r="I64" t="s">
         <v>108</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>195</v>
       </c>
-      <c r="J64" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="K64" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B65" t="s">
         <v>48</v>
       </c>
-      <c r="B65" t="s">
-        <v>5</v>
-      </c>
       <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
         <v>11</v>
       </c>
-      <c r="D65" t="s">
-        <v>7</v>
-      </c>
       <c r="E65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" t="s">
         <v>108</v>
       </c>
-      <c r="F65" t="s">
-        <v>141</v>
-      </c>
       <c r="G65" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H65" t="s">
+        <v>145</v>
+      </c>
+      <c r="I65" t="s">
         <v>108</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>195</v>
       </c>
-      <c r="J65" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="K65" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B66" t="s">
         <v>49</v>
       </c>
-      <c r="B66" t="s">
-        <v>5</v>
-      </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" t="s">
         <v>109</v>
       </c>
-      <c r="F66" t="s">
-        <v>141</v>
-      </c>
       <c r="G66" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H66" t="s">
+        <v>145</v>
+      </c>
+      <c r="I66" t="s">
         <v>182</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>181</v>
       </c>
-      <c r="J66" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="K66" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B67" t="s">
         <v>49</v>
       </c>
-      <c r="B67" t="s">
-        <v>5</v>
-      </c>
       <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
         <v>8</v>
       </c>
-      <c r="D67" t="s">
-        <v>7</v>
-      </c>
       <c r="E67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" t="s">
         <v>109</v>
       </c>
-      <c r="F67" t="s">
-        <v>141</v>
-      </c>
       <c r="G67" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H67" t="s">
+        <v>145</v>
+      </c>
+      <c r="I67" t="s">
         <v>182</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>181</v>
       </c>
-      <c r="J67" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="K67" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B68" t="s">
         <v>50</v>
       </c>
-      <c r="B68" t="s">
-        <v>5</v>
-      </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" t="s">
         <v>110</v>
       </c>
-      <c r="F68" t="s">
-        <v>141</v>
-      </c>
       <c r="G68" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H68" t="s">
+        <v>145</v>
+      </c>
+      <c r="I68" t="s">
         <v>151</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>150</v>
       </c>
-      <c r="J68" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="K68" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B69" t="s">
         <v>50</v>
       </c>
-      <c r="B69" t="s">
-        <v>5</v>
-      </c>
       <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
         <v>8</v>
       </c>
-      <c r="D69" t="s">
-        <v>7</v>
-      </c>
       <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" t="s">
         <v>111</v>
       </c>
-      <c r="F69" t="s">
-        <v>141</v>
-      </c>
       <c r="G69" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H69" t="s">
+        <v>145</v>
+      </c>
+      <c r="I69" t="s">
         <v>151</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>150</v>
       </c>
-      <c r="J69" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="K69" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B70" t="s">
         <v>51</v>
       </c>
-      <c r="B70" t="s">
-        <v>5</v>
-      </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" t="s">
         <v>112</v>
       </c>
-      <c r="F70" t="s">
-        <v>141</v>
-      </c>
       <c r="G70" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H70" t="s">
+        <v>145</v>
+      </c>
+      <c r="I70" t="s">
         <v>155</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>156</v>
       </c>
-      <c r="J70" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="K70" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B71" t="s">
         <v>52</v>
       </c>
-      <c r="B71" t="s">
-        <v>5</v>
-      </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
         <v>113</v>
       </c>
-      <c r="F71" t="s">
-        <v>141</v>
-      </c>
       <c r="G71" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H71" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I71" t="s">
         <v>157</v>
       </c>
       <c r="J71" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+        <v>157</v>
+      </c>
+      <c r="K71" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B72" t="s">
         <v>52</v>
       </c>
-      <c r="B72" t="s">
-        <v>5</v>
-      </c>
       <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
         <v>8</v>
       </c>
-      <c r="D72" t="s">
-        <v>7</v>
-      </c>
       <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" t="s">
         <v>113</v>
       </c>
-      <c r="F72" t="s">
-        <v>141</v>
-      </c>
       <c r="G72" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H72" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I72" t="s">
         <v>157</v>
       </c>
       <c r="J72" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+        <v>157</v>
+      </c>
+      <c r="K72" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B73" t="s">
         <v>53</v>
       </c>
-      <c r="B73" t="s">
-        <v>5</v>
-      </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" t="s">
         <v>114</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>148</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>149</v>
-      </c>
-      <c r="H73" t="s">
-        <v>158</v>
       </c>
       <c r="I73" t="s">
         <v>158</v>
       </c>
       <c r="J73" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+        <v>158</v>
+      </c>
+      <c r="K73" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B74" t="s">
         <v>54</v>
       </c>
-      <c r="B74" t="s">
-        <v>5</v>
-      </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" t="s">
         <v>115</v>
       </c>
-      <c r="F74" t="s">
-        <v>141</v>
-      </c>
       <c r="G74" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H74" t="s">
+        <v>145</v>
+      </c>
+      <c r="I74" t="s">
         <v>159</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>146</v>
       </c>
-      <c r="J74" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="K74" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B75" t="s">
         <v>54</v>
       </c>
-      <c r="B75" t="s">
-        <v>5</v>
-      </c>
       <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
         <v>8</v>
       </c>
-      <c r="D75" t="s">
-        <v>7</v>
-      </c>
       <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" t="s">
         <v>115</v>
       </c>
-      <c r="F75" t="s">
-        <v>141</v>
-      </c>
       <c r="G75" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H75" t="s">
+        <v>145</v>
+      </c>
+      <c r="I75" t="s">
         <v>159</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>146</v>
       </c>
-      <c r="J75" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="K75" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B76" t="s">
         <v>55</v>
       </c>
-      <c r="B76" t="s">
-        <v>5</v>
-      </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" t="s">
         <v>116</v>
       </c>
-      <c r="F76" t="s">
-        <v>141</v>
-      </c>
       <c r="G76" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H76" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="I76" t="s">
         <v>162</v>
       </c>
       <c r="J76" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+        <v>162</v>
+      </c>
+      <c r="K76" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B77" t="s">
         <v>55</v>
       </c>
-      <c r="B77" t="s">
-        <v>5</v>
-      </c>
       <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
         <v>8</v>
       </c>
-      <c r="D77" t="s">
-        <v>7</v>
-      </c>
       <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" t="s">
         <v>117</v>
       </c>
-      <c r="F77" t="s">
-        <v>141</v>
-      </c>
       <c r="G77" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H77" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="I77" t="s">
         <v>160</v>
       </c>
       <c r="J77" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+        <v>160</v>
+      </c>
+      <c r="K77" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B78" t="s">
         <v>55</v>
       </c>
-      <c r="B78" t="s">
-        <v>5</v>
-      </c>
       <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
         <v>11</v>
       </c>
-      <c r="D78" t="s">
-        <v>7</v>
-      </c>
       <c r="E78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" t="s">
         <v>118</v>
       </c>
-      <c r="F78" t="s">
-        <v>141</v>
-      </c>
       <c r="G78" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H78" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="I78" t="s">
         <v>161</v>
       </c>
       <c r="J78" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+        <v>161</v>
+      </c>
+      <c r="K78" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B79" t="s">
         <v>55</v>
       </c>
-      <c r="B79" t="s">
-        <v>5</v>
-      </c>
       <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
         <v>20</v>
       </c>
-      <c r="D79" t="s">
-        <v>7</v>
-      </c>
       <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" t="s">
         <v>116</v>
       </c>
-      <c r="F79" t="s">
-        <v>141</v>
-      </c>
       <c r="G79" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H79" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="I79" t="s">
         <v>162</v>
       </c>
       <c r="J79" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+        <v>162</v>
+      </c>
+      <c r="K79" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B80" t="s">
         <v>55</v>
       </c>
-      <c r="B80" t="s">
-        <v>5</v>
-      </c>
       <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
         <v>21</v>
       </c>
-      <c r="D80" t="s">
-        <v>7</v>
-      </c>
       <c r="E80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" t="s">
         <v>117</v>
       </c>
-      <c r="F80" t="s">
-        <v>141</v>
-      </c>
       <c r="G80" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H80" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="I80" t="s">
         <v>160</v>
       </c>
       <c r="J80" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+        <v>160</v>
+      </c>
+      <c r="K80" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B81" t="s">
         <v>55</v>
       </c>
-      <c r="B81" t="s">
-        <v>5</v>
-      </c>
       <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
         <v>42</v>
       </c>
-      <c r="D81" t="s">
-        <v>7</v>
-      </c>
       <c r="E81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" t="s">
         <v>118</v>
       </c>
-      <c r="F81" t="s">
-        <v>141</v>
-      </c>
       <c r="G81" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H81" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="I81" t="s">
         <v>161</v>
       </c>
       <c r="J81" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+        <v>161</v>
+      </c>
+      <c r="K81" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B82" t="s">
         <v>56</v>
       </c>
-      <c r="B82" t="s">
-        <v>5</v>
-      </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" t="s">
         <v>119</v>
       </c>
-      <c r="F82" t="s">
-        <v>141</v>
-      </c>
       <c r="G82" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H82" t="s">
+        <v>145</v>
+      </c>
+      <c r="I82" t="s">
         <v>163</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>150</v>
       </c>
-      <c r="J82" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="K82" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B83" t="s">
         <v>57</v>
       </c>
-      <c r="B83" t="s">
-        <v>5</v>
-      </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E83" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" t="s">
         <v>120</v>
       </c>
-      <c r="F83" t="s">
-        <v>141</v>
-      </c>
       <c r="G83" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H83" t="s">
+        <v>145</v>
+      </c>
+      <c r="I83" t="s">
         <v>170</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>142</v>
       </c>
-      <c r="J83" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="K83" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B84" t="s">
         <v>58</v>
       </c>
-      <c r="B84" t="s">
-        <v>5</v>
-      </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" t="s">
         <v>121</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>148</v>
-      </c>
-      <c r="G84" t="s">
-        <v>165</v>
       </c>
       <c r="H84" t="s">
         <v>165</v>
@@ -3708,478 +4297,523 @@
         <v>165</v>
       </c>
       <c r="J84" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+        <v>165</v>
+      </c>
+      <c r="K84" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B85" t="s">
         <v>58</v>
       </c>
-      <c r="B85" t="s">
-        <v>5</v>
-      </c>
       <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
         <v>40</v>
       </c>
-      <c r="D85" t="s">
-        <v>7</v>
-      </c>
       <c r="E85" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" t="s">
         <v>122</v>
       </c>
-      <c r="F85" t="s">
-        <v>141</v>
-      </c>
       <c r="G85" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H85" t="s">
+        <v>145</v>
+      </c>
+      <c r="I85" t="s">
         <v>169</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>150</v>
       </c>
-      <c r="J85" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="K85" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B86" t="s">
         <v>58</v>
       </c>
-      <c r="B86" t="s">
-        <v>5</v>
-      </c>
       <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
         <v>8</v>
       </c>
-      <c r="D86" t="s">
-        <v>7</v>
-      </c>
       <c r="E86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" t="s">
         <v>122</v>
       </c>
-      <c r="F86" t="s">
-        <v>141</v>
-      </c>
       <c r="G86" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H86" t="s">
+        <v>145</v>
+      </c>
+      <c r="I86" t="s">
         <v>169</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>150</v>
       </c>
-      <c r="J86" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="K86" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B87" t="s">
         <v>58</v>
       </c>
-      <c r="B87" t="s">
-        <v>5</v>
-      </c>
       <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
         <v>11</v>
       </c>
-      <c r="D87" t="s">
-        <v>7</v>
-      </c>
       <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" t="s">
         <v>122</v>
       </c>
-      <c r="F87" t="s">
-        <v>141</v>
-      </c>
       <c r="G87" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H87" t="s">
+        <v>145</v>
+      </c>
+      <c r="I87" t="s">
         <v>169</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>150</v>
       </c>
-      <c r="J87" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="K87" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B88" t="s">
         <v>58</v>
       </c>
-      <c r="B88" t="s">
-        <v>5</v>
-      </c>
       <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" t="s">
         <v>20</v>
       </c>
-      <c r="D88" t="s">
-        <v>7</v>
-      </c>
       <c r="E88" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" t="s">
         <v>122</v>
       </c>
-      <c r="F88" t="s">
-        <v>141</v>
-      </c>
       <c r="G88" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H88" t="s">
+        <v>145</v>
+      </c>
+      <c r="I88" t="s">
         <v>169</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>150</v>
       </c>
-      <c r="J88" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="K88" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B89" t="s">
         <v>58</v>
       </c>
-      <c r="B89" t="s">
-        <v>5</v>
-      </c>
       <c r="C89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" t="s">
         <v>21</v>
       </c>
-      <c r="D89" t="s">
-        <v>7</v>
-      </c>
       <c r="E89" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" t="s">
         <v>122</v>
       </c>
-      <c r="F89" t="s">
-        <v>141</v>
-      </c>
       <c r="G89" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H89" t="s">
+        <v>145</v>
+      </c>
+      <c r="I89" t="s">
         <v>169</v>
       </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
         <v>150</v>
       </c>
-      <c r="J89" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="K89" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B90" t="s">
         <v>58</v>
       </c>
-      <c r="B90" t="s">
-        <v>5</v>
-      </c>
       <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" t="s">
         <v>42</v>
       </c>
-      <c r="D90" t="s">
-        <v>7</v>
-      </c>
       <c r="E90" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" t="s">
         <v>122</v>
       </c>
-      <c r="F90" t="s">
-        <v>141</v>
-      </c>
       <c r="G90" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H90" t="s">
+        <v>145</v>
+      </c>
+      <c r="I90" t="s">
         <v>169</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>150</v>
       </c>
-      <c r="J90" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="K90" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B91" t="s">
         <v>58</v>
       </c>
-      <c r="B91" t="s">
-        <v>5</v>
-      </c>
       <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
         <v>43</v>
       </c>
-      <c r="D91" t="s">
-        <v>7</v>
-      </c>
       <c r="E91" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" t="s">
         <v>122</v>
       </c>
-      <c r="F91" t="s">
-        <v>141</v>
-      </c>
       <c r="G91" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H91" t="s">
+        <v>145</v>
+      </c>
+      <c r="I91" t="s">
         <v>169</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>150</v>
       </c>
-      <c r="J91" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="K91" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B92" t="s">
         <v>58</v>
       </c>
-      <c r="B92" t="s">
-        <v>5</v>
-      </c>
       <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" t="s">
         <v>44</v>
       </c>
-      <c r="D92" t="s">
-        <v>7</v>
-      </c>
       <c r="E92" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" t="s">
         <v>122</v>
       </c>
-      <c r="F92" t="s">
-        <v>141</v>
-      </c>
       <c r="G92" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H92" t="s">
+        <v>145</v>
+      </c>
+      <c r="I92" t="s">
         <v>169</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>150</v>
       </c>
-      <c r="J92" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="K92" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B93" t="s">
         <v>58</v>
       </c>
-      <c r="B93" t="s">
-        <v>5</v>
-      </c>
       <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" t="s">
         <v>45</v>
       </c>
-      <c r="D93" t="s">
-        <v>7</v>
-      </c>
       <c r="E93" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" t="s">
         <v>122</v>
       </c>
-      <c r="F93" t="s">
-        <v>141</v>
-      </c>
       <c r="G93" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H93" t="s">
+        <v>145</v>
+      </c>
+      <c r="I93" t="s">
         <v>169</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>150</v>
       </c>
-      <c r="J93" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="K93" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B94" t="s">
         <v>59</v>
       </c>
-      <c r="B94" t="s">
-        <v>5</v>
-      </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E94" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" t="s">
         <v>123</v>
       </c>
-      <c r="F94" t="s">
-        <v>141</v>
-      </c>
       <c r="G94" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H94" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I94" t="s">
         <v>142</v>
       </c>
       <c r="J94" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+        <v>142</v>
+      </c>
+      <c r="K94" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B95" t="s">
         <v>60</v>
       </c>
-      <c r="B95" t="s">
-        <v>5</v>
-      </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E95" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" t="s">
         <v>124</v>
       </c>
-      <c r="F95" t="s">
-        <v>141</v>
-      </c>
       <c r="G95" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H95" t="s">
+        <v>145</v>
+      </c>
+      <c r="I95" t="s">
         <v>163</v>
       </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
         <v>150</v>
       </c>
-      <c r="J95" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="K95" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B96" t="s">
         <v>61</v>
       </c>
-      <c r="B96" t="s">
-        <v>5</v>
-      </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E96" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" t="s">
         <v>125</v>
       </c>
-      <c r="F96" t="s">
-        <v>141</v>
-      </c>
       <c r="G96" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H96" t="s">
+        <v>145</v>
+      </c>
+      <c r="I96" t="s">
         <v>151</v>
       </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>150</v>
       </c>
-      <c r="J96" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="K96" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B97" t="s">
         <v>61</v>
       </c>
-      <c r="B97" t="s">
-        <v>5</v>
-      </c>
       <c r="C97" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" t="s">
         <v>8</v>
       </c>
-      <c r="D97" t="s">
-        <v>7</v>
-      </c>
       <c r="E97" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" t="s">
         <v>126</v>
       </c>
-      <c r="F97" t="s">
-        <v>141</v>
-      </c>
       <c r="G97" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H97" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I97" t="s">
         <v>150</v>
       </c>
       <c r="J97" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+        <v>150</v>
+      </c>
+      <c r="K97" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B98" t="s">
         <v>61</v>
       </c>
-      <c r="B98" t="s">
-        <v>5</v>
-      </c>
       <c r="C98" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" t="s">
         <v>11</v>
       </c>
-      <c r="D98" t="s">
-        <v>7</v>
-      </c>
       <c r="E98" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" t="s">
         <v>125</v>
       </c>
-      <c r="F98" t="s">
-        <v>141</v>
-      </c>
       <c r="G98" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H98" t="s">
+        <v>145</v>
+      </c>
+      <c r="I98" t="s">
         <v>151</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>150</v>
       </c>
-      <c r="J98" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="K98" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B99" t="s">
         <v>62</v>
       </c>
-      <c r="B99" t="s">
-        <v>5</v>
-      </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E99" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" t="s">
         <v>127</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>148</v>
-      </c>
-      <c r="G99" t="s">
-        <v>165</v>
       </c>
       <c r="H99" t="s">
         <v>165</v>
@@ -4188,422 +4822,464 @@
         <v>165</v>
       </c>
       <c r="J99" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+        <v>165</v>
+      </c>
+      <c r="K99" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B100" t="s">
         <v>62</v>
       </c>
-      <c r="B100" t="s">
-        <v>5</v>
-      </c>
       <c r="C100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s">
         <v>8</v>
       </c>
-      <c r="D100" t="s">
-        <v>7</v>
-      </c>
       <c r="E100" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100" t="s">
         <v>128</v>
       </c>
-      <c r="F100" t="s">
-        <v>141</v>
-      </c>
       <c r="G100" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H100" t="s">
+        <v>145</v>
+      </c>
+      <c r="I100" t="s">
         <v>167</v>
       </c>
-      <c r="I100" t="s">
+      <c r="J100" t="s">
         <v>156</v>
       </c>
-      <c r="J100" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="K100" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B101" t="s">
         <v>63</v>
       </c>
-      <c r="B101" t="s">
-        <v>5</v>
-      </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E101" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" t="s">
         <v>129</v>
       </c>
-      <c r="F101" t="s">
-        <v>141</v>
-      </c>
       <c r="G101" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H101" t="s">
+        <v>145</v>
+      </c>
+      <c r="I101" t="s">
         <v>182</v>
       </c>
-      <c r="I101" t="s">
+      <c r="J101" t="s">
         <v>184</v>
       </c>
-      <c r="J101" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="K101" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B102" t="s">
         <v>64</v>
       </c>
-      <c r="B102" t="s">
-        <v>5</v>
-      </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E102" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" t="s">
         <v>130</v>
       </c>
-      <c r="F102" t="s">
-        <v>141</v>
-      </c>
       <c r="G102" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H102" t="s">
+        <v>145</v>
+      </c>
+      <c r="I102" t="s">
         <v>151</v>
       </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
         <v>150</v>
       </c>
-      <c r="J102" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="K102" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B103" t="s">
         <v>64</v>
       </c>
-      <c r="B103" t="s">
-        <v>5</v>
-      </c>
       <c r="C103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" t="s">
         <v>8</v>
       </c>
-      <c r="D103" t="s">
-        <v>7</v>
-      </c>
       <c r="E103" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" t="s">
         <v>130</v>
       </c>
-      <c r="F103" t="s">
-        <v>141</v>
-      </c>
       <c r="G103" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H103" t="s">
+        <v>145</v>
+      </c>
+      <c r="I103" t="s">
         <v>151</v>
       </c>
-      <c r="I103" t="s">
+      <c r="J103" t="s">
         <v>150</v>
       </c>
-      <c r="J103" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="K103" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B104" t="s">
         <v>65</v>
       </c>
-      <c r="B104" t="s">
-        <v>5</v>
-      </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E104" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" t="s">
         <v>131</v>
       </c>
-      <c r="F104" t="s">
-        <v>141</v>
-      </c>
       <c r="G104" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H104" t="s">
+        <v>145</v>
+      </c>
+      <c r="I104" t="s">
         <v>168</v>
       </c>
-      <c r="I104" t="s">
+      <c r="J104" t="s">
         <v>150</v>
       </c>
-      <c r="J104" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="K104" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B105" t="s">
         <v>66</v>
       </c>
-      <c r="B105" t="s">
-        <v>5</v>
-      </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E105" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105" t="s">
         <v>132</v>
       </c>
-      <c r="F105" t="s">
-        <v>141</v>
-      </c>
       <c r="G105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H105" t="s">
+        <v>145</v>
+      </c>
+      <c r="I105" t="s">
         <v>193</v>
       </c>
-      <c r="I105" t="s">
+      <c r="J105" t="s">
         <v>142</v>
       </c>
-      <c r="J105" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="K105" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B106" t="s">
         <v>66</v>
       </c>
-      <c r="B106" t="s">
-        <v>5</v>
-      </c>
       <c r="C106" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" t="s">
         <v>8</v>
       </c>
-      <c r="D106" t="s">
-        <v>7</v>
-      </c>
       <c r="E106" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106" t="s">
         <v>133</v>
       </c>
-      <c r="F106" t="s">
-        <v>141</v>
-      </c>
       <c r="G106" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H106" t="s">
+        <v>145</v>
+      </c>
+      <c r="I106" t="s">
         <v>193</v>
       </c>
-      <c r="I106" t="s">
+      <c r="J106" t="s">
         <v>142</v>
       </c>
-      <c r="J106" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="K106" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B107" t="s">
         <v>66</v>
       </c>
-      <c r="B107" t="s">
-        <v>5</v>
-      </c>
       <c r="C107" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" t="s">
         <v>11</v>
       </c>
-      <c r="D107" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107" s="1" t="s">
+      <c r="E107" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F107" t="s">
-        <v>141</v>
-      </c>
       <c r="G107" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H107" t="s">
+        <v>145</v>
+      </c>
+      <c r="I107" t="s">
         <v>193</v>
       </c>
-      <c r="I107" t="s">
+      <c r="J107" t="s">
         <v>142</v>
       </c>
-      <c r="J107" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="K107" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B108" t="s">
         <v>66</v>
       </c>
-      <c r="B108" t="s">
-        <v>5</v>
-      </c>
       <c r="C108" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" t="s">
         <v>20</v>
       </c>
-      <c r="D108" t="s">
-        <v>7</v>
-      </c>
-      <c r="E108" s="1" t="s">
+      <c r="E108" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F108" t="s">
-        <v>141</v>
-      </c>
       <c r="G108" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H108" t="s">
+        <v>145</v>
+      </c>
+      <c r="I108" t="s">
         <v>193</v>
       </c>
-      <c r="I108" t="s">
+      <c r="J108" t="s">
         <v>142</v>
       </c>
-      <c r="J108" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="K108" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B109" t="s">
         <v>67</v>
       </c>
-      <c r="B109" t="s">
-        <v>5</v>
-      </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D109" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E109" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" t="s">
         <v>134</v>
       </c>
-      <c r="F109" t="s">
-        <v>141</v>
-      </c>
       <c r="G109" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H109" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="I109" t="s">
         <v>171</v>
       </c>
       <c r="J109" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+        <v>171</v>
+      </c>
+      <c r="K109" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B110" t="s">
         <v>68</v>
       </c>
-      <c r="B110" t="s">
-        <v>5</v>
-      </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E110" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" t="s">
         <v>135</v>
       </c>
-      <c r="F110" t="s">
-        <v>141</v>
-      </c>
       <c r="G110" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H110" t="s">
+        <v>145</v>
+      </c>
+      <c r="I110" t="s">
         <v>152</v>
       </c>
-      <c r="I110" t="s">
+      <c r="J110" t="s">
         <v>183</v>
       </c>
-      <c r="J110" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="K110" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B111" t="s">
         <v>69</v>
       </c>
-      <c r="B111" t="s">
-        <v>5</v>
-      </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E111" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" t="s">
         <v>136</v>
       </c>
-      <c r="F111" t="s">
-        <v>141</v>
-      </c>
       <c r="G111" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H111" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I111" t="s">
         <v>142</v>
       </c>
       <c r="J111" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+        <v>142</v>
+      </c>
+      <c r="K111" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B112" t="s">
         <v>70</v>
       </c>
-      <c r="B112" t="s">
-        <v>5</v>
-      </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E112" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" t="s">
         <v>137</v>
       </c>
-      <c r="F112" t="s">
-        <v>141</v>
-      </c>
       <c r="G112" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H112" t="s">
+        <v>145</v>
+      </c>
+      <c r="I112" t="s">
         <v>172</v>
       </c>
-      <c r="I112" t="s">
+      <c r="J112" t="s">
         <v>194</v>
       </c>
-      <c r="J112" t="s">
+      <c r="K112" t="s">
         <v>188</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/acs_nano/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/acs_nano/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/acs_nano/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1144A7-A2D4-7041-9892-26B05FE3BEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38506622-7D4A-134D-B832-9C5F9C2B56FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="305">
   <si>
     <t>DOI</t>
   </si>
@@ -496,12 +496,6 @@
     <t>Impedance</t>
   </si>
   <si>
-    <t>Selectivity</t>
-  </si>
-  <si>
-    <t>Storage and loss modulus</t>
-  </si>
-  <si>
     <t>Shear strength</t>
   </si>
   <si>
@@ -538,9 +532,6 @@
     <t>Rate</t>
   </si>
   <si>
-    <t>Protein abundance</t>
-  </si>
-  <si>
     <t>DNA count</t>
   </si>
   <si>
@@ -553,9 +544,6 @@
     <t>Particle diameter</t>
   </si>
   <si>
-    <t>Tissue exposure</t>
-  </si>
-  <si>
     <t>Mass</t>
   </si>
   <si>
@@ -944,6 +932,9 @@
   </si>
   <si>
     <t>Fig Index</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -1347,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="F53" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1365,7 +1356,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1400,10 +1391,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1415,7 +1406,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G2" t="s">
         <v>141</v>
@@ -1424,18 +1415,18 @@
         <v>145</v>
       </c>
       <c r="I2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J2" t="s">
-        <v>191</v>
+        <v>304</v>
       </c>
       <c r="K2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1459,18 +1450,18 @@
         <v>145</v>
       </c>
       <c r="I3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J3" t="s">
         <v>142</v>
       </c>
       <c r="K3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1494,18 +1485,18 @@
         <v>145</v>
       </c>
       <c r="I4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J4" t="s">
         <v>142</v>
       </c>
       <c r="K4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1529,18 +1520,18 @@
         <v>145</v>
       </c>
       <c r="I5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J5" t="s">
         <v>147</v>
       </c>
       <c r="K5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1564,18 +1555,18 @@
         <v>145</v>
       </c>
       <c r="I6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1599,18 +1590,18 @@
         <v>145</v>
       </c>
       <c r="I7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -1634,18 +1625,18 @@
         <v>145</v>
       </c>
       <c r="I8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1675,12 +1666,12 @@
         <v>146</v>
       </c>
       <c r="K9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1710,12 +1701,12 @@
         <v>149</v>
       </c>
       <c r="K10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1739,18 +1730,18 @@
         <v>145</v>
       </c>
       <c r="I11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J11" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K11" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1774,18 +1765,18 @@
         <v>145</v>
       </c>
       <c r="I12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J12" t="s">
         <v>142</v>
       </c>
       <c r="K12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -1806,21 +1797,21 @@
         <v>148</v>
       </c>
       <c r="H13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I13" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1844,18 +1835,18 @@
         <v>145</v>
       </c>
       <c r="I14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J14" t="s">
         <v>150</v>
       </c>
       <c r="K14" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -1879,18 +1870,18 @@
         <v>145</v>
       </c>
       <c r="I15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J15" t="s">
         <v>150</v>
       </c>
       <c r="K15" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1914,18 +1905,18 @@
         <v>145</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J16" t="s">
         <v>150</v>
       </c>
       <c r="K16" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -1955,12 +1946,12 @@
         <v>150</v>
       </c>
       <c r="K17" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1990,12 +1981,12 @@
         <v>142</v>
       </c>
       <c r="K18" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -2025,12 +2016,12 @@
         <v>150</v>
       </c>
       <c r="K19" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -2060,12 +2051,12 @@
         <v>150</v>
       </c>
       <c r="K20" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -2095,12 +2086,12 @@
         <v>150</v>
       </c>
       <c r="K21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -2130,12 +2121,12 @@
         <v>150</v>
       </c>
       <c r="K22" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -2159,18 +2150,18 @@
         <v>145</v>
       </c>
       <c r="I23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K23" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -2200,12 +2191,12 @@
         <v>150</v>
       </c>
       <c r="K24" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -2229,18 +2220,18 @@
         <v>145</v>
       </c>
       <c r="I25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J25" t="s">
         <v>150</v>
       </c>
       <c r="K25" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -2264,18 +2255,18 @@
         <v>145</v>
       </c>
       <c r="I26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K26" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -2305,12 +2296,12 @@
         <v>150</v>
       </c>
       <c r="K27" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -2340,12 +2331,12 @@
         <v>150</v>
       </c>
       <c r="K28" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
@@ -2360,7 +2351,7 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G29" t="s">
         <v>141</v>
@@ -2369,18 +2360,18 @@
         <v>145</v>
       </c>
       <c r="I29" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J29" t="s">
-        <v>187</v>
+        <v>304</v>
       </c>
       <c r="K29" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
@@ -2404,18 +2395,18 @@
         <v>145</v>
       </c>
       <c r="I30" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J30" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
@@ -2445,12 +2436,12 @@
         <v>156</v>
       </c>
       <c r="K31" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
@@ -2480,12 +2471,12 @@
         <v>149</v>
       </c>
       <c r="K32" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
@@ -2509,18 +2500,18 @@
         <v>145</v>
       </c>
       <c r="I33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J33" t="s">
         <v>150</v>
       </c>
       <c r="K33" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
@@ -2544,18 +2535,18 @@
         <v>145</v>
       </c>
       <c r="I34" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J34" t="s">
         <v>150</v>
       </c>
       <c r="K34" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -2585,12 +2576,12 @@
         <v>150</v>
       </c>
       <c r="K35" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
@@ -2620,12 +2611,12 @@
         <v>150</v>
       </c>
       <c r="K36" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B37" t="s">
         <v>33</v>
@@ -2646,21 +2637,21 @@
         <v>148</v>
       </c>
       <c r="H37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I37" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K37" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
@@ -2690,12 +2681,12 @@
         <v>150</v>
       </c>
       <c r="K38" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B39" t="s">
         <v>34</v>
@@ -2725,12 +2716,12 @@
         <v>150</v>
       </c>
       <c r="K39" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B40" t="s">
         <v>34</v>
@@ -2760,12 +2751,12 @@
         <v>150</v>
       </c>
       <c r="K40" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B41" t="s">
         <v>34</v>
@@ -2795,12 +2786,12 @@
         <v>150</v>
       </c>
       <c r="K41" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B42" t="s">
         <v>35</v>
@@ -2821,21 +2812,21 @@
         <v>148</v>
       </c>
       <c r="H42" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I42" t="s">
         <v>152</v>
       </c>
       <c r="J42" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K42" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B43" t="s">
         <v>36</v>
@@ -2865,12 +2856,12 @@
         <v>150</v>
       </c>
       <c r="K43" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B44" t="s">
         <v>36</v>
@@ -2900,12 +2891,12 @@
         <v>150</v>
       </c>
       <c r="K44" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B45" t="s">
         <v>36</v>
@@ -2935,12 +2926,12 @@
         <v>150</v>
       </c>
       <c r="K45" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B46" t="s">
         <v>36</v>
@@ -2970,12 +2961,12 @@
         <v>150</v>
       </c>
       <c r="K46" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B47" t="s">
         <v>37</v>
@@ -2999,18 +2990,18 @@
         <v>145</v>
       </c>
       <c r="I47" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J47" t="s">
-        <v>179</v>
+        <v>304</v>
       </c>
       <c r="K47" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B48" t="s">
         <v>38</v>
@@ -3034,18 +3025,18 @@
         <v>145</v>
       </c>
       <c r="I48" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J48" t="s">
         <v>142</v>
       </c>
       <c r="K48" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B49" t="s">
         <v>38</v>
@@ -3066,21 +3057,21 @@
         <v>148</v>
       </c>
       <c r="H49" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I49" t="s">
         <v>152</v>
       </c>
       <c r="J49" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K49" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B50" t="s">
         <v>39</v>
@@ -3110,12 +3101,12 @@
         <v>142</v>
       </c>
       <c r="K50" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B51" t="s">
         <v>39</v>
@@ -3145,12 +3136,12 @@
         <v>142</v>
       </c>
       <c r="K51" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B52" t="s">
         <v>39</v>
@@ -3180,12 +3171,12 @@
         <v>142</v>
       </c>
       <c r="K52" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B53" t="s">
         <v>39</v>
@@ -3215,12 +3206,12 @@
         <v>142</v>
       </c>
       <c r="K53" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B54" t="s">
         <v>39</v>
@@ -3250,12 +3241,12 @@
         <v>142</v>
       </c>
       <c r="K54" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B55" t="s">
         <v>39</v>
@@ -3285,12 +3276,12 @@
         <v>142</v>
       </c>
       <c r="K55" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B56" t="s">
         <v>39</v>
@@ -3320,12 +3311,12 @@
         <v>142</v>
       </c>
       <c r="K56" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B57" t="s">
         <v>39</v>
@@ -3355,12 +3346,12 @@
         <v>142</v>
       </c>
       <c r="K57" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B58" t="s">
         <v>39</v>
@@ -3390,12 +3381,12 @@
         <v>142</v>
       </c>
       <c r="K58" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B59" t="s">
         <v>39</v>
@@ -3425,12 +3416,12 @@
         <v>142</v>
       </c>
       <c r="K59" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B60" t="s">
         <v>39</v>
@@ -3460,12 +3451,12 @@
         <v>142</v>
       </c>
       <c r="K60" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B61" t="s">
         <v>46</v>
@@ -3495,12 +3486,12 @@
         <v>150</v>
       </c>
       <c r="K61" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B62" t="s">
         <v>47</v>
@@ -3530,12 +3521,12 @@
         <v>150</v>
       </c>
       <c r="K62" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B63" t="s">
         <v>48</v>
@@ -3562,15 +3553,15 @@
         <v>108</v>
       </c>
       <c r="J63" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K63" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B64" t="s">
         <v>48</v>
@@ -3597,15 +3588,15 @@
         <v>108</v>
       </c>
       <c r="J64" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K64" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B65" t="s">
         <v>48</v>
@@ -3632,15 +3623,15 @@
         <v>108</v>
       </c>
       <c r="J65" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K65" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B66" t="s">
         <v>49</v>
@@ -3664,18 +3655,18 @@
         <v>145</v>
       </c>
       <c r="I66" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J66" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K66" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B67" t="s">
         <v>49</v>
@@ -3699,18 +3690,18 @@
         <v>145</v>
       </c>
       <c r="I67" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J67" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K67" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B68" t="s">
         <v>50</v>
@@ -3740,12 +3731,12 @@
         <v>150</v>
       </c>
       <c r="K68" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B69" t="s">
         <v>50</v>
@@ -3775,12 +3766,12 @@
         <v>150</v>
       </c>
       <c r="K69" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B70" t="s">
         <v>51</v>
@@ -3810,12 +3801,12 @@
         <v>156</v>
       </c>
       <c r="K70" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B71" t="s">
         <v>52</v>
@@ -3842,15 +3833,15 @@
         <v>157</v>
       </c>
       <c r="J71" t="s">
-        <v>157</v>
+        <v>304</v>
       </c>
       <c r="K71" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B72" t="s">
         <v>52</v>
@@ -3877,15 +3868,15 @@
         <v>157</v>
       </c>
       <c r="J72" t="s">
-        <v>157</v>
+        <v>304</v>
       </c>
       <c r="K72" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B73" t="s">
         <v>53</v>
@@ -3909,18 +3900,18 @@
         <v>149</v>
       </c>
       <c r="I73" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="J73" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="K73" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B74" t="s">
         <v>54</v>
@@ -3944,18 +3935,18 @@
         <v>145</v>
       </c>
       <c r="I74" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="J74" t="s">
-        <v>146</v>
+        <v>304</v>
       </c>
       <c r="K74" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B75" t="s">
         <v>54</v>
@@ -3979,18 +3970,18 @@
         <v>145</v>
       </c>
       <c r="I75" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="J75" t="s">
-        <v>146</v>
+        <v>304</v>
       </c>
       <c r="K75" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B76" t="s">
         <v>55</v>
@@ -4014,18 +4005,18 @@
         <v>145</v>
       </c>
       <c r="I76" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J76" t="s">
-        <v>162</v>
+        <v>304</v>
       </c>
       <c r="K76" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B77" t="s">
         <v>55</v>
@@ -4049,18 +4040,18 @@
         <v>145</v>
       </c>
       <c r="I77" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J77" t="s">
-        <v>160</v>
+        <v>304</v>
       </c>
       <c r="K77" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B78" t="s">
         <v>55</v>
@@ -4084,18 +4075,18 @@
         <v>145</v>
       </c>
       <c r="I78" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J78" t="s">
-        <v>161</v>
+        <v>304</v>
       </c>
       <c r="K78" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B79" t="s">
         <v>55</v>
@@ -4119,18 +4110,18 @@
         <v>145</v>
       </c>
       <c r="I79" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J79" t="s">
-        <v>162</v>
+        <v>304</v>
       </c>
       <c r="K79" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B80" t="s">
         <v>55</v>
@@ -4154,18 +4145,18 @@
         <v>145</v>
       </c>
       <c r="I80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J80" t="s">
-        <v>160</v>
+        <v>304</v>
       </c>
       <c r="K80" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B81" t="s">
         <v>55</v>
@@ -4189,18 +4180,18 @@
         <v>145</v>
       </c>
       <c r="I81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J81" t="s">
-        <v>161</v>
+        <v>304</v>
       </c>
       <c r="K81" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B82" t="s">
         <v>56</v>
@@ -4224,18 +4215,18 @@
         <v>145</v>
       </c>
       <c r="I82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J82" t="s">
         <v>150</v>
       </c>
       <c r="K82" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B83" t="s">
         <v>57</v>
@@ -4259,18 +4250,18 @@
         <v>145</v>
       </c>
       <c r="I83" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J83" t="s">
         <v>142</v>
       </c>
       <c r="K83" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B84" t="s">
         <v>58</v>
@@ -4291,21 +4282,21 @@
         <v>148</v>
       </c>
       <c r="H84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K84" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B85" t="s">
         <v>58</v>
@@ -4329,18 +4320,18 @@
         <v>145</v>
       </c>
       <c r="I85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J85" t="s">
         <v>150</v>
       </c>
       <c r="K85" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B86" t="s">
         <v>58</v>
@@ -4364,18 +4355,18 @@
         <v>145</v>
       </c>
       <c r="I86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J86" t="s">
         <v>150</v>
       </c>
       <c r="K86" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B87" t="s">
         <v>58</v>
@@ -4399,18 +4390,18 @@
         <v>145</v>
       </c>
       <c r="I87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J87" t="s">
         <v>150</v>
       </c>
       <c r="K87" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B88" t="s">
         <v>58</v>
@@ -4434,18 +4425,18 @@
         <v>145</v>
       </c>
       <c r="I88" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J88" t="s">
         <v>150</v>
       </c>
       <c r="K88" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B89" t="s">
         <v>58</v>
@@ -4469,18 +4460,18 @@
         <v>145</v>
       </c>
       <c r="I89" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J89" t="s">
         <v>150</v>
       </c>
       <c r="K89" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B90" t="s">
         <v>58</v>
@@ -4504,18 +4495,18 @@
         <v>145</v>
       </c>
       <c r="I90" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J90" t="s">
         <v>150</v>
       </c>
       <c r="K90" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B91" t="s">
         <v>58</v>
@@ -4539,18 +4530,18 @@
         <v>145</v>
       </c>
       <c r="I91" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J91" t="s">
         <v>150</v>
       </c>
       <c r="K91" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B92" t="s">
         <v>58</v>
@@ -4574,18 +4565,18 @@
         <v>145</v>
       </c>
       <c r="I92" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J92" t="s">
         <v>150</v>
       </c>
       <c r="K92" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B93" t="s">
         <v>58</v>
@@ -4609,18 +4600,18 @@
         <v>145</v>
       </c>
       <c r="I93" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J93" t="s">
         <v>150</v>
       </c>
       <c r="K93" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B94" t="s">
         <v>59</v>
@@ -4650,12 +4641,12 @@
         <v>142</v>
       </c>
       <c r="K94" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B95" t="s">
         <v>60</v>
@@ -4679,18 +4670,18 @@
         <v>145</v>
       </c>
       <c r="I95" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J95" t="s">
         <v>150</v>
       </c>
       <c r="K95" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B96" t="s">
         <v>61</v>
@@ -4720,12 +4711,12 @@
         <v>150</v>
       </c>
       <c r="K96" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B97" t="s">
         <v>61</v>
@@ -4755,12 +4746,12 @@
         <v>150</v>
       </c>
       <c r="K97" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B98" t="s">
         <v>61</v>
@@ -4790,12 +4781,12 @@
         <v>150</v>
       </c>
       <c r="K98" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B99" t="s">
         <v>62</v>
@@ -4816,21 +4807,21 @@
         <v>148</v>
       </c>
       <c r="H99" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I99" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J99" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K99" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B100" t="s">
         <v>62</v>
@@ -4854,18 +4845,18 @@
         <v>145</v>
       </c>
       <c r="I100" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J100" t="s">
         <v>156</v>
       </c>
       <c r="K100" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B101" t="s">
         <v>63</v>
@@ -4889,18 +4880,18 @@
         <v>145</v>
       </c>
       <c r="I101" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J101" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K101" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B102" t="s">
         <v>64</v>
@@ -4930,12 +4921,12 @@
         <v>150</v>
       </c>
       <c r="K102" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B103" t="s">
         <v>64</v>
@@ -4965,12 +4956,12 @@
         <v>150</v>
       </c>
       <c r="K103" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B104" t="s">
         <v>65</v>
@@ -4994,18 +4985,18 @@
         <v>145</v>
       </c>
       <c r="I104" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J104" t="s">
         <v>150</v>
       </c>
       <c r="K104" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B105" t="s">
         <v>66</v>
@@ -5029,18 +5020,18 @@
         <v>145</v>
       </c>
       <c r="I105" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J105" t="s">
         <v>142</v>
       </c>
       <c r="K105" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B106" t="s">
         <v>66</v>
@@ -5064,18 +5055,18 @@
         <v>145</v>
       </c>
       <c r="I106" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J106" t="s">
         <v>142</v>
       </c>
       <c r="K106" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B107" t="s">
         <v>66</v>
@@ -5099,18 +5090,18 @@
         <v>145</v>
       </c>
       <c r="I107" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J107" t="s">
         <v>142</v>
       </c>
       <c r="K107" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B108" t="s">
         <v>66</v>
@@ -5134,18 +5125,18 @@
         <v>145</v>
       </c>
       <c r="I108" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J108" t="s">
         <v>142</v>
       </c>
       <c r="K108" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B109" t="s">
         <v>67</v>
@@ -5169,18 +5160,18 @@
         <v>145</v>
       </c>
       <c r="I109" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J109" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K109" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B110" t="s">
         <v>68</v>
@@ -5207,15 +5198,15 @@
         <v>152</v>
       </c>
       <c r="J110" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K110" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B111" t="s">
         <v>69</v>
@@ -5245,12 +5236,12 @@
         <v>142</v>
       </c>
       <c r="K111" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B112" t="s">
         <v>70</v>
@@ -5268,19 +5259,19 @@
         <v>137</v>
       </c>
       <c r="G112" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="H112" t="s">
         <v>145</v>
       </c>
       <c r="I112" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="J112" t="s">
-        <v>194</v>
+        <v>304</v>
       </c>
       <c r="K112" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/acs_nano/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/acs_nano/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/acs_nano/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38506622-7D4A-134D-B832-9C5F9C2B56FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CEF440-00AA-9A44-9AB5-3B59FDD7A887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1338,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F53" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I73" sqref="I73"/>
+    <sheetView tabSelected="1" topLeftCell="G88" zoomScale="187" workbookViewId="0">
+      <selection activeCell="K110" sqref="K110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1730,10 +1730,10 @@
         <v>145</v>
       </c>
       <c r="I11" t="s">
+        <v>177</v>
+      </c>
+      <c r="J11" t="s">
         <v>178</v>
-      </c>
-      <c r="J11" t="s">
-        <v>177</v>
       </c>
       <c r="K11" t="s">
         <v>184</v>
@@ -1800,10 +1800,10 @@
         <v>171</v>
       </c>
       <c r="I13" t="s">
+        <v>179</v>
+      </c>
+      <c r="J13" t="s">
         <v>178</v>
-      </c>
-      <c r="J13" t="s">
-        <v>179</v>
       </c>
       <c r="K13" t="s">
         <v>184</v>
@@ -2395,10 +2395,10 @@
         <v>145</v>
       </c>
       <c r="I30" t="s">
+        <v>181</v>
+      </c>
+      <c r="J30" t="s">
         <v>178</v>
-      </c>
-      <c r="J30" t="s">
-        <v>181</v>
       </c>
       <c r="K30" t="s">
         <v>184</v>
@@ -2815,10 +2815,10 @@
         <v>171</v>
       </c>
       <c r="I42" t="s">
+        <v>179</v>
+      </c>
+      <c r="J42" t="s">
         <v>152</v>
-      </c>
-      <c r="J42" t="s">
-        <v>179</v>
       </c>
       <c r="K42" t="s">
         <v>184</v>
@@ -3060,10 +3060,10 @@
         <v>171</v>
       </c>
       <c r="I49" t="s">
+        <v>179</v>
+      </c>
+      <c r="J49" t="s">
         <v>152</v>
-      </c>
-      <c r="J49" t="s">
-        <v>179</v>
       </c>
       <c r="K49" t="s">
         <v>184</v>
@@ -3655,10 +3655,10 @@
         <v>145</v>
       </c>
       <c r="I66" t="s">
+        <v>177</v>
+      </c>
+      <c r="J66" t="s">
         <v>178</v>
-      </c>
-      <c r="J66" t="s">
-        <v>177</v>
       </c>
       <c r="K66" t="s">
         <v>184</v>
@@ -3690,10 +3690,10 @@
         <v>145</v>
       </c>
       <c r="I67" t="s">
+        <v>177</v>
+      </c>
+      <c r="J67" t="s">
         <v>178</v>
-      </c>
-      <c r="J67" t="s">
-        <v>177</v>
       </c>
       <c r="K67" t="s">
         <v>184</v>
@@ -5195,10 +5195,10 @@
         <v>145</v>
       </c>
       <c r="I110" t="s">
+        <v>179</v>
+      </c>
+      <c r="J110" t="s">
         <v>152</v>
-      </c>
-      <c r="J110" t="s">
-        <v>179</v>
       </c>
       <c r="K110" t="s">
         <v>184</v>

--- a/data/misused_bar_graph_figures/acs_nano/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/acs_nano/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/acs_nano/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CEF440-00AA-9A44-9AB5-3B59FDD7A887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB147A7-4882-874F-ABE0-FA51CBC4172E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="285">
   <si>
     <t>DOI</t>
   </si>
@@ -460,9 +460,6 @@
     <t>Measured value</t>
   </si>
   <si>
-    <t>Modulus</t>
-  </si>
-  <si>
     <t>Length</t>
   </si>
   <si>
@@ -487,72 +484,27 @@
     <t>Cytokine concentration</t>
   </si>
   <si>
-    <t>Rate constant</t>
-  </si>
-  <si>
     <t>Constant</t>
   </si>
   <si>
-    <t>Impedance</t>
-  </si>
-  <si>
-    <t>Shear strength</t>
-  </si>
-  <si>
-    <t>Tensile strength</t>
-  </si>
-  <si>
-    <t>Interfacial toughness</t>
-  </si>
-  <si>
     <t>Cell count</t>
   </si>
   <si>
-    <t>Energy</t>
-  </si>
-  <si>
     <t>Percentage</t>
   </si>
   <si>
     <t>Cell viability</t>
   </si>
   <si>
-    <t>Equilibrium constant</t>
-  </si>
-  <si>
-    <t>Frequency</t>
-  </si>
-  <si>
-    <t>Gene count</t>
-  </si>
-  <si>
-    <t>EC50</t>
-  </si>
-  <si>
-    <t>Rate</t>
-  </si>
-  <si>
-    <t>DNA count</t>
-  </si>
-  <si>
     <t>Calculated value</t>
   </si>
   <si>
-    <t>Protein concentration</t>
-  </si>
-  <si>
     <t>Particle diameter</t>
   </si>
   <si>
     <t>Mass</t>
   </si>
   <si>
-    <t>Stiffness</t>
-  </si>
-  <si>
-    <t>IC50</t>
-  </si>
-  <si>
     <t>Radiant flux</t>
   </si>
   <si>
@@ -571,9 +523,6 @@
     <t>Water vapor permeability (g m-1 s-1 Pa-1)</t>
   </si>
   <si>
-    <t>Permeability</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -583,18 +532,6 @@
     <t>Conductivity (S/cm)</t>
   </si>
   <si>
-    <t>Conductivity</t>
-  </si>
-  <si>
-    <t>RNA count</t>
-  </si>
-  <si>
-    <t>Biofluid biochemical concentration</t>
-  </si>
-  <si>
-    <t>Protein amount</t>
-  </si>
-  <si>
     <t>Statistics</t>
   </si>
   <si>
@@ -935,6 +872,9 @@
   </si>
   <si>
     <t>Others</t>
+  </si>
+  <si>
+    <t>Characteristic concentration</t>
   </si>
 </sst>
 </file>
@@ -1338,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G88" zoomScale="187" workbookViewId="0">
-      <selection activeCell="K110" sqref="K110"/>
+    <sheetView tabSelected="1" topLeftCell="G19" zoomScale="187" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1356,7 +1296,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1391,10 +1331,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1406,7 +1346,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="G2" t="s">
         <v>141</v>
@@ -1415,18 +1355,18 @@
         <v>145</v>
       </c>
       <c r="I2" t="s">
-        <v>187</v>
+        <v>283</v>
       </c>
       <c r="J2" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="K2" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1450,18 +1390,18 @@
         <v>145</v>
       </c>
       <c r="I3" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="J3" t="s">
         <v>142</v>
       </c>
       <c r="K3" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1485,18 +1425,18 @@
         <v>145</v>
       </c>
       <c r="I4" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="J4" t="s">
         <v>142</v>
       </c>
       <c r="K4" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1520,18 +1460,18 @@
         <v>145</v>
       </c>
       <c r="I5" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="J5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K5" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1555,18 +1495,18 @@
         <v>145</v>
       </c>
       <c r="I6" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="J6" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="K6" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1590,18 +1530,18 @@
         <v>145</v>
       </c>
       <c r="I7" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="J7" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="K7" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -1625,18 +1565,18 @@
         <v>145</v>
       </c>
       <c r="I8" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="J8" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="K8" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1660,18 +1600,18 @@
         <v>145</v>
       </c>
       <c r="I9" t="s">
-        <v>146</v>
+        <v>283</v>
       </c>
       <c r="J9" t="s">
-        <v>146</v>
+        <v>283</v>
       </c>
       <c r="K9" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1689,24 +1629,24 @@
         <v>77</v>
       </c>
       <c r="G10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" t="s">
         <v>148</v>
       </c>
-      <c r="H10" t="s">
-        <v>149</v>
-      </c>
       <c r="I10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K10" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1730,18 +1670,18 @@
         <v>145</v>
       </c>
       <c r="I11" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="J11" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="K11" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1765,18 +1705,18 @@
         <v>145</v>
       </c>
       <c r="I12" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="J12" t="s">
         <v>142</v>
       </c>
       <c r="K12" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -1794,24 +1734,24 @@
         <v>80</v>
       </c>
       <c r="G13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H13" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="I13" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="J13" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="K13" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1835,18 +1775,18 @@
         <v>145</v>
       </c>
       <c r="I14" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="J14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K14" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -1870,18 +1810,18 @@
         <v>145</v>
       </c>
       <c r="I15" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="J15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1905,18 +1845,18 @@
         <v>145</v>
       </c>
       <c r="I16" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K16" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -1940,18 +1880,18 @@
         <v>145</v>
       </c>
       <c r="I17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K17" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1975,18 +1915,18 @@
         <v>145</v>
       </c>
       <c r="I18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J18" t="s">
         <v>142</v>
       </c>
       <c r="K18" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -2010,18 +1950,18 @@
         <v>145</v>
       </c>
       <c r="I19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K19" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -2045,18 +1985,18 @@
         <v>145</v>
       </c>
       <c r="I20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K20" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -2080,18 +2020,18 @@
         <v>145</v>
       </c>
       <c r="I21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K21" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -2115,18 +2055,18 @@
         <v>145</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K22" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -2150,18 +2090,18 @@
         <v>145</v>
       </c>
       <c r="I23" t="s">
-        <v>162</v>
+        <v>283</v>
       </c>
       <c r="J23" t="s">
-        <v>162</v>
+        <v>283</v>
       </c>
       <c r="K23" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -2185,18 +2125,18 @@
         <v>145</v>
       </c>
       <c r="I24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K24" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -2220,18 +2160,18 @@
         <v>145</v>
       </c>
       <c r="I25" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="J25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K25" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -2255,18 +2195,18 @@
         <v>145</v>
       </c>
       <c r="I26" t="s">
-        <v>162</v>
+        <v>283</v>
       </c>
       <c r="J26" t="s">
-        <v>162</v>
+        <v>283</v>
       </c>
       <c r="K26" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -2290,18 +2230,18 @@
         <v>145</v>
       </c>
       <c r="I27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K27" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -2325,18 +2265,18 @@
         <v>145</v>
       </c>
       <c r="I28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K28" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
@@ -2351,7 +2291,7 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="G29" t="s">
         <v>141</v>
@@ -2360,18 +2300,18 @@
         <v>145</v>
       </c>
       <c r="I29" t="s">
-        <v>183</v>
+        <v>283</v>
       </c>
       <c r="J29" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="K29" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
@@ -2395,18 +2335,18 @@
         <v>145</v>
       </c>
       <c r="I30" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="J30" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="K30" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
@@ -2430,18 +2370,18 @@
         <v>145</v>
       </c>
       <c r="I31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K31" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
@@ -2459,24 +2399,24 @@
         <v>93</v>
       </c>
       <c r="G32" t="s">
+        <v>147</v>
+      </c>
+      <c r="H32" t="s">
         <v>148</v>
       </c>
-      <c r="H32" t="s">
-        <v>149</v>
-      </c>
       <c r="I32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K32" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
@@ -2500,18 +2440,18 @@
         <v>145</v>
       </c>
       <c r="I33" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="J33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K33" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
@@ -2535,18 +2475,18 @@
         <v>145</v>
       </c>
       <c r="I34" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="J34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K34" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -2570,18 +2510,18 @@
         <v>145</v>
       </c>
       <c r="I35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K35" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
@@ -2605,18 +2545,18 @@
         <v>145</v>
       </c>
       <c r="I36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K36" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="B37" t="s">
         <v>33</v>
@@ -2634,24 +2574,24 @@
         <v>96</v>
       </c>
       <c r="G37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H37" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I37" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="J37" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K37" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
@@ -2675,18 +2615,18 @@
         <v>145</v>
       </c>
       <c r="I38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K38" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="B39" t="s">
         <v>34</v>
@@ -2710,18 +2650,18 @@
         <v>145</v>
       </c>
       <c r="I39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K39" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="B40" t="s">
         <v>34</v>
@@ -2745,18 +2685,18 @@
         <v>145</v>
       </c>
       <c r="I40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K40" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="B41" t="s">
         <v>34</v>
@@ -2780,18 +2720,18 @@
         <v>145</v>
       </c>
       <c r="I41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K41" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="B42" t="s">
         <v>35</v>
@@ -2809,24 +2749,24 @@
         <v>98</v>
       </c>
       <c r="G42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H42" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="I42" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="J42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K42" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="B43" t="s">
         <v>36</v>
@@ -2850,18 +2790,18 @@
         <v>145</v>
       </c>
       <c r="I43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K43" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B44" t="s">
         <v>36</v>
@@ -2885,18 +2825,18 @@
         <v>145</v>
       </c>
       <c r="I44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K44" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="B45" t="s">
         <v>36</v>
@@ -2920,18 +2860,18 @@
         <v>145</v>
       </c>
       <c r="I45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K45" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="B46" t="s">
         <v>36</v>
@@ -2955,18 +2895,18 @@
         <v>145</v>
       </c>
       <c r="I46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K46" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="B47" t="s">
         <v>37</v>
@@ -2990,18 +2930,18 @@
         <v>145</v>
       </c>
       <c r="I47" t="s">
-        <v>175</v>
+        <v>283</v>
       </c>
       <c r="J47" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="K47" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="B48" t="s">
         <v>38</v>
@@ -3025,18 +2965,18 @@
         <v>145</v>
       </c>
       <c r="I48" t="s">
-        <v>176</v>
+        <v>284</v>
       </c>
       <c r="J48" t="s">
         <v>142</v>
       </c>
       <c r="K48" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="B49" t="s">
         <v>38</v>
@@ -3054,24 +2994,24 @@
         <v>103</v>
       </c>
       <c r="G49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H49" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="I49" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="J49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K49" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="B50" t="s">
         <v>39</v>
@@ -3095,18 +3035,18 @@
         <v>145</v>
       </c>
       <c r="I50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J50" t="s">
         <v>142</v>
       </c>
       <c r="K50" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="B51" t="s">
         <v>39</v>
@@ -3130,18 +3070,18 @@
         <v>145</v>
       </c>
       <c r="I51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J51" t="s">
         <v>142</v>
       </c>
       <c r="K51" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="B52" t="s">
         <v>39</v>
@@ -3165,18 +3105,18 @@
         <v>145</v>
       </c>
       <c r="I52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J52" t="s">
         <v>142</v>
       </c>
       <c r="K52" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="B53" t="s">
         <v>39</v>
@@ -3200,18 +3140,18 @@
         <v>145</v>
       </c>
       <c r="I53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J53" t="s">
         <v>142</v>
       </c>
       <c r="K53" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="B54" t="s">
         <v>39</v>
@@ -3235,18 +3175,18 @@
         <v>145</v>
       </c>
       <c r="I54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J54" t="s">
         <v>142</v>
       </c>
       <c r="K54" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="B55" t="s">
         <v>39</v>
@@ -3270,18 +3210,18 @@
         <v>145</v>
       </c>
       <c r="I55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J55" t="s">
         <v>142</v>
       </c>
       <c r="K55" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="B56" t="s">
         <v>39</v>
@@ -3305,18 +3245,18 @@
         <v>145</v>
       </c>
       <c r="I56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J56" t="s">
         <v>142</v>
       </c>
       <c r="K56" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="B57" t="s">
         <v>39</v>
@@ -3340,18 +3280,18 @@
         <v>145</v>
       </c>
       <c r="I57" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J57" t="s">
         <v>142</v>
       </c>
       <c r="K57" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="B58" t="s">
         <v>39</v>
@@ -3375,18 +3315,18 @@
         <v>145</v>
       </c>
       <c r="I58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J58" t="s">
         <v>142</v>
       </c>
       <c r="K58" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="B59" t="s">
         <v>39</v>
@@ -3410,18 +3350,18 @@
         <v>145</v>
       </c>
       <c r="I59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J59" t="s">
         <v>142</v>
       </c>
       <c r="K59" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="B60" t="s">
         <v>39</v>
@@ -3445,18 +3385,18 @@
         <v>145</v>
       </c>
       <c r="I60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J60" t="s">
         <v>142</v>
       </c>
       <c r="K60" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="B61" t="s">
         <v>46</v>
@@ -3480,18 +3420,18 @@
         <v>145</v>
       </c>
       <c r="I61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K61" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="B62" t="s">
         <v>47</v>
@@ -3515,18 +3455,18 @@
         <v>145</v>
       </c>
       <c r="I62" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K62" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="B63" t="s">
         <v>48</v>
@@ -3553,15 +3493,15 @@
         <v>108</v>
       </c>
       <c r="J63" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="K63" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="B64" t="s">
         <v>48</v>
@@ -3588,15 +3528,15 @@
         <v>108</v>
       </c>
       <c r="J64" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="K64" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="B65" t="s">
         <v>48</v>
@@ -3623,15 +3563,15 @@
         <v>108</v>
       </c>
       <c r="J65" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="K65" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="B66" t="s">
         <v>49</v>
@@ -3655,18 +3595,18 @@
         <v>145</v>
       </c>
       <c r="I66" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="J66" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="K66" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="B67" t="s">
         <v>49</v>
@@ -3690,18 +3630,18 @@
         <v>145</v>
       </c>
       <c r="I67" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="J67" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="K67" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="B68" t="s">
         <v>50</v>
@@ -3725,18 +3665,18 @@
         <v>145</v>
       </c>
       <c r="I68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K68" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="B69" t="s">
         <v>50</v>
@@ -3760,18 +3700,18 @@
         <v>145</v>
       </c>
       <c r="I69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J69" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K69" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="B70" t="s">
         <v>51</v>
@@ -3795,18 +3735,18 @@
         <v>145</v>
       </c>
       <c r="I70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J70" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K70" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="B71" t="s">
         <v>52</v>
@@ -3830,18 +3770,18 @@
         <v>145</v>
       </c>
       <c r="I71" t="s">
-        <v>157</v>
+        <v>283</v>
       </c>
       <c r="J71" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="K71" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="B72" t="s">
         <v>52</v>
@@ -3865,18 +3805,18 @@
         <v>145</v>
       </c>
       <c r="I72" t="s">
-        <v>157</v>
+        <v>283</v>
       </c>
       <c r="J72" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="K72" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="B73" t="s">
         <v>53</v>
@@ -3894,24 +3834,24 @@
         <v>114</v>
       </c>
       <c r="G73" t="s">
+        <v>147</v>
+      </c>
+      <c r="H73" t="s">
         <v>148</v>
       </c>
-      <c r="H73" t="s">
-        <v>149</v>
-      </c>
       <c r="I73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K73" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="B74" t="s">
         <v>54</v>
@@ -3935,18 +3875,18 @@
         <v>145</v>
       </c>
       <c r="I74" t="s">
-        <v>146</v>
+        <v>283</v>
       </c>
       <c r="J74" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="K74" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="B75" t="s">
         <v>54</v>
@@ -3970,18 +3910,18 @@
         <v>145</v>
       </c>
       <c r="I75" t="s">
-        <v>146</v>
+        <v>283</v>
       </c>
       <c r="J75" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="K75" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="B76" t="s">
         <v>55</v>
@@ -4005,18 +3945,18 @@
         <v>145</v>
       </c>
       <c r="I76" t="s">
-        <v>160</v>
+        <v>283</v>
       </c>
       <c r="J76" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="K76" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="B77" t="s">
         <v>55</v>
@@ -4040,18 +3980,18 @@
         <v>145</v>
       </c>
       <c r="I77" t="s">
-        <v>158</v>
+        <v>283</v>
       </c>
       <c r="J77" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="K77" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="B78" t="s">
         <v>55</v>
@@ -4075,18 +4015,18 @@
         <v>145</v>
       </c>
       <c r="I78" t="s">
-        <v>159</v>
+        <v>283</v>
       </c>
       <c r="J78" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="K78" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="B79" t="s">
         <v>55</v>
@@ -4110,18 +4050,18 @@
         <v>145</v>
       </c>
       <c r="I79" t="s">
-        <v>160</v>
+        <v>283</v>
       </c>
       <c r="J79" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="K79" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="B80" t="s">
         <v>55</v>
@@ -4145,18 +4085,18 @@
         <v>145</v>
       </c>
       <c r="I80" t="s">
-        <v>158</v>
+        <v>283</v>
       </c>
       <c r="J80" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="K80" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="B81" t="s">
         <v>55</v>
@@ -4180,18 +4120,18 @@
         <v>145</v>
       </c>
       <c r="I81" t="s">
-        <v>159</v>
+        <v>283</v>
       </c>
       <c r="J81" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="K81" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="B82" t="s">
         <v>56</v>
@@ -4215,18 +4155,18 @@
         <v>145</v>
       </c>
       <c r="I82" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="J82" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K82" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="B83" t="s">
         <v>57</v>
@@ -4250,18 +4190,18 @@
         <v>145</v>
       </c>
       <c r="I83" t="s">
-        <v>168</v>
+        <v>284</v>
       </c>
       <c r="J83" t="s">
         <v>142</v>
       </c>
       <c r="K83" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="B84" t="s">
         <v>58</v>
@@ -4279,24 +4219,24 @@
         <v>121</v>
       </c>
       <c r="G84" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H84" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I84" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="J84" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K84" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="B85" t="s">
         <v>58</v>
@@ -4320,18 +4260,18 @@
         <v>145</v>
       </c>
       <c r="I85" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="J85" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K85" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="B86" t="s">
         <v>58</v>
@@ -4355,18 +4295,18 @@
         <v>145</v>
       </c>
       <c r="I86" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="J86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K86" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="B87" t="s">
         <v>58</v>
@@ -4390,18 +4330,18 @@
         <v>145</v>
       </c>
       <c r="I87" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="J87" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K87" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="B88" t="s">
         <v>58</v>
@@ -4425,18 +4365,18 @@
         <v>145</v>
       </c>
       <c r="I88" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="J88" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K88" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="B89" t="s">
         <v>58</v>
@@ -4460,18 +4400,18 @@
         <v>145</v>
       </c>
       <c r="I89" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="J89" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K89" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="B90" t="s">
         <v>58</v>
@@ -4495,18 +4435,18 @@
         <v>145</v>
       </c>
       <c r="I90" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="J90" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K90" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="B91" t="s">
         <v>58</v>
@@ -4530,18 +4470,18 @@
         <v>145</v>
       </c>
       <c r="I91" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="J91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K91" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="B92" t="s">
         <v>58</v>
@@ -4565,18 +4505,18 @@
         <v>145</v>
       </c>
       <c r="I92" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="J92" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K92" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="B93" t="s">
         <v>58</v>
@@ -4600,18 +4540,18 @@
         <v>145</v>
       </c>
       <c r="I93" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="J93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K93" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="B94" t="s">
         <v>59</v>
@@ -4641,12 +4581,12 @@
         <v>142</v>
       </c>
       <c r="K94" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="B95" t="s">
         <v>60</v>
@@ -4670,18 +4610,18 @@
         <v>145</v>
       </c>
       <c r="I95" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="J95" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K95" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="B96" t="s">
         <v>61</v>
@@ -4705,18 +4645,18 @@
         <v>145</v>
       </c>
       <c r="I96" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J96" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K96" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="B97" t="s">
         <v>61</v>
@@ -4740,18 +4680,18 @@
         <v>145</v>
       </c>
       <c r="I97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K97" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="B98" t="s">
         <v>61</v>
@@ -4775,18 +4715,18 @@
         <v>145</v>
       </c>
       <c r="I98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J98" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K98" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="B99" t="s">
         <v>62</v>
@@ -4804,24 +4744,24 @@
         <v>127</v>
       </c>
       <c r="G99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H99" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I99" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="J99" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K99" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="B100" t="s">
         <v>62</v>
@@ -4845,18 +4785,18 @@
         <v>145</v>
       </c>
       <c r="I100" t="s">
-        <v>165</v>
+        <v>284</v>
       </c>
       <c r="J100" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="K100" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="B101" t="s">
         <v>63</v>
@@ -4880,18 +4820,18 @@
         <v>145</v>
       </c>
       <c r="I101" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="J101" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K101" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="B102" t="s">
         <v>64</v>
@@ -4915,18 +4855,18 @@
         <v>145</v>
       </c>
       <c r="I102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K102" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="B103" t="s">
         <v>64</v>
@@ -4950,18 +4890,18 @@
         <v>145</v>
       </c>
       <c r="I103" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K103" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="B104" t="s">
         <v>65</v>
@@ -4985,18 +4925,18 @@
         <v>145</v>
       </c>
       <c r="I104" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="J104" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K104" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="B105" t="s">
         <v>66</v>
@@ -5020,18 +4960,18 @@
         <v>145</v>
       </c>
       <c r="I105" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="J105" t="s">
         <v>142</v>
       </c>
       <c r="K105" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="B106" t="s">
         <v>66</v>
@@ -5055,18 +4995,18 @@
         <v>145</v>
       </c>
       <c r="I106" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="J106" t="s">
         <v>142</v>
       </c>
       <c r="K106" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="B107" t="s">
         <v>66</v>
@@ -5090,18 +5030,18 @@
         <v>145</v>
       </c>
       <c r="I107" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="J107" t="s">
         <v>142</v>
       </c>
       <c r="K107" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="B108" t="s">
         <v>66</v>
@@ -5125,18 +5065,18 @@
         <v>145</v>
       </c>
       <c r="I108" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="J108" t="s">
         <v>142</v>
       </c>
       <c r="K108" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="B109" t="s">
         <v>67</v>
@@ -5160,18 +5100,18 @@
         <v>145</v>
       </c>
       <c r="I109" t="s">
-        <v>169</v>
+        <v>283</v>
       </c>
       <c r="J109" t="s">
-        <v>169</v>
+        <v>283</v>
       </c>
       <c r="K109" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="B110" t="s">
         <v>68</v>
@@ -5195,18 +5135,18 @@
         <v>145</v>
       </c>
       <c r="I110" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="J110" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K110" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="B111" t="s">
         <v>69</v>
@@ -5236,12 +5176,12 @@
         <v>142</v>
       </c>
       <c r="K111" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="B112" t="s">
         <v>70</v>
@@ -5259,19 +5199,19 @@
         <v>137</v>
       </c>
       <c r="G112" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H112" t="s">
         <v>145</v>
       </c>
       <c r="I112" t="s">
-        <v>190</v>
+        <v>283</v>
       </c>
       <c r="J112" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="K112" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/acs_nano/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/acs_nano/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/acs_nano/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB147A7-4882-874F-ABE0-FA51CBC4172E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA4A3CB-1CBD-4A44-8861-D4A68739CBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="284">
   <si>
     <t>DOI</t>
   </si>
@@ -470,9 +470,6 @@
   </si>
   <si>
     <t>Count</t>
-  </si>
-  <si>
-    <t>Colony count</t>
   </si>
   <si>
     <t>Fluorescence</t>
@@ -1278,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G19" zoomScale="187" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="F54" zoomScale="187" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1296,7 +1293,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1331,23 +1328,23 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>169</v>
-      </c>
       <c r="G2" t="s">
         <v>141</v>
       </c>
@@ -1355,18 +1352,18 @@
         <v>145</v>
       </c>
       <c r="I2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1396,12 +1393,12 @@
         <v>142</v>
       </c>
       <c r="K3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1431,12 +1428,12 @@
         <v>142</v>
       </c>
       <c r="K4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1460,18 +1457,18 @@
         <v>145</v>
       </c>
       <c r="I5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J5" t="s">
         <v>146</v>
       </c>
       <c r="K5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1495,18 +1492,18 @@
         <v>145</v>
       </c>
       <c r="I6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1530,18 +1527,18 @@
         <v>145</v>
       </c>
       <c r="I7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -1565,18 +1562,18 @@
         <v>145</v>
       </c>
       <c r="I8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1600,18 +1597,18 @@
         <v>145</v>
       </c>
       <c r="I9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1641,12 +1638,12 @@
         <v>148</v>
       </c>
       <c r="K10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1670,18 +1667,18 @@
         <v>145</v>
       </c>
       <c r="I11" t="s">
+        <v>160</v>
+      </c>
+      <c r="J11" t="s">
         <v>161</v>
       </c>
-      <c r="J11" t="s">
-        <v>162</v>
-      </c>
       <c r="K11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1711,12 +1708,12 @@
         <v>142</v>
       </c>
       <c r="K12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -1737,21 +1734,21 @@
         <v>147</v>
       </c>
       <c r="H13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1781,12 +1778,12 @@
         <v>149</v>
       </c>
       <c r="K14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -1816,12 +1813,12 @@
         <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1851,12 +1848,12 @@
         <v>149</v>
       </c>
       <c r="K16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -1880,18 +1877,18 @@
         <v>145</v>
       </c>
       <c r="I17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1915,18 +1912,18 @@
         <v>145</v>
       </c>
       <c r="I18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J18" t="s">
         <v>142</v>
       </c>
       <c r="K18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1950,18 +1947,18 @@
         <v>145</v>
       </c>
       <c r="I19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J19" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1985,18 +1982,18 @@
         <v>145</v>
       </c>
       <c r="I20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J20" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -2020,18 +2017,18 @@
         <v>145</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J21" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -2055,18 +2052,18 @@
         <v>145</v>
       </c>
       <c r="I22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J22" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -2090,18 +2087,18 @@
         <v>145</v>
       </c>
       <c r="I23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -2125,18 +2122,18 @@
         <v>145</v>
       </c>
       <c r="I24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J24" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -2160,18 +2157,18 @@
         <v>145</v>
       </c>
       <c r="I25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J25" t="s">
         <v>149</v>
       </c>
       <c r="K25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -2195,18 +2192,18 @@
         <v>145</v>
       </c>
       <c r="I26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -2230,18 +2227,18 @@
         <v>145</v>
       </c>
       <c r="I27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J27" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -2265,18 +2262,18 @@
         <v>145</v>
       </c>
       <c r="I28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J28" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
@@ -2291,7 +2288,7 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G29" t="s">
         <v>141</v>
@@ -2300,18 +2297,18 @@
         <v>145</v>
       </c>
       <c r="I29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
@@ -2335,18 +2332,18 @@
         <v>145</v>
       </c>
       <c r="I30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
@@ -2370,18 +2367,18 @@
         <v>145</v>
       </c>
       <c r="I31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
@@ -2411,12 +2408,12 @@
         <v>148</v>
       </c>
       <c r="K32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
@@ -2446,12 +2443,12 @@
         <v>149</v>
       </c>
       <c r="K33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
@@ -2481,12 +2478,12 @@
         <v>149</v>
       </c>
       <c r="K34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -2510,18 +2507,18 @@
         <v>145</v>
       </c>
       <c r="I35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J35" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
@@ -2545,18 +2542,18 @@
         <v>145</v>
       </c>
       <c r="I36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J36" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B37" t="s">
         <v>33</v>
@@ -2577,21 +2574,21 @@
         <v>147</v>
       </c>
       <c r="H37" t="s">
+        <v>155</v>
+      </c>
+      <c r="I37" t="s">
         <v>156</v>
       </c>
-      <c r="I37" t="s">
-        <v>157</v>
-      </c>
       <c r="J37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
@@ -2615,18 +2612,18 @@
         <v>145</v>
       </c>
       <c r="I38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J38" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B39" t="s">
         <v>34</v>
@@ -2650,18 +2647,18 @@
         <v>145</v>
       </c>
       <c r="I39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J39" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B40" t="s">
         <v>34</v>
@@ -2685,18 +2682,18 @@
         <v>145</v>
       </c>
       <c r="I40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J40" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B41" t="s">
         <v>34</v>
@@ -2720,18 +2717,18 @@
         <v>145</v>
       </c>
       <c r="I41" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J41" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B42" t="s">
         <v>35</v>
@@ -2752,21 +2749,21 @@
         <v>147</v>
       </c>
       <c r="H42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B43" t="s">
         <v>36</v>
@@ -2796,12 +2793,12 @@
         <v>149</v>
       </c>
       <c r="K43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B44" t="s">
         <v>36</v>
@@ -2831,12 +2828,12 @@
         <v>149</v>
       </c>
       <c r="K44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B45" t="s">
         <v>36</v>
@@ -2866,12 +2863,12 @@
         <v>149</v>
       </c>
       <c r="K45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B46" t="s">
         <v>36</v>
@@ -2901,12 +2898,12 @@
         <v>149</v>
       </c>
       <c r="K46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B47" t="s">
         <v>37</v>
@@ -2930,18 +2927,18 @@
         <v>145</v>
       </c>
       <c r="I47" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J47" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B48" t="s">
         <v>38</v>
@@ -2965,18 +2962,18 @@
         <v>145</v>
       </c>
       <c r="I48" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J48" t="s">
         <v>142</v>
       </c>
       <c r="K48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B49" t="s">
         <v>38</v>
@@ -2997,21 +2994,21 @@
         <v>147</v>
       </c>
       <c r="H49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I49" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B50" t="s">
         <v>39</v>
@@ -3035,18 +3032,18 @@
         <v>145</v>
       </c>
       <c r="I50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J50" t="s">
         <v>142</v>
       </c>
       <c r="K50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B51" t="s">
         <v>39</v>
@@ -3070,18 +3067,18 @@
         <v>145</v>
       </c>
       <c r="I51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J51" t="s">
         <v>142</v>
       </c>
       <c r="K51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B52" t="s">
         <v>39</v>
@@ -3105,18 +3102,18 @@
         <v>145</v>
       </c>
       <c r="I52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J52" t="s">
         <v>142</v>
       </c>
       <c r="K52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B53" t="s">
         <v>39</v>
@@ -3140,18 +3137,18 @@
         <v>145</v>
       </c>
       <c r="I53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J53" t="s">
         <v>142</v>
       </c>
       <c r="K53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B54" t="s">
         <v>39</v>
@@ -3175,18 +3172,18 @@
         <v>145</v>
       </c>
       <c r="I54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J54" t="s">
         <v>142</v>
       </c>
       <c r="K54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B55" t="s">
         <v>39</v>
@@ -3210,18 +3207,18 @@
         <v>145</v>
       </c>
       <c r="I55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J55" t="s">
         <v>142</v>
       </c>
       <c r="K55" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B56" t="s">
         <v>39</v>
@@ -3245,18 +3242,18 @@
         <v>145</v>
       </c>
       <c r="I56" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J56" t="s">
         <v>142</v>
       </c>
       <c r="K56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B57" t="s">
         <v>39</v>
@@ -3280,18 +3277,18 @@
         <v>145</v>
       </c>
       <c r="I57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J57" t="s">
         <v>142</v>
       </c>
       <c r="K57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B58" t="s">
         <v>39</v>
@@ -3315,18 +3312,18 @@
         <v>145</v>
       </c>
       <c r="I58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J58" t="s">
         <v>142</v>
       </c>
       <c r="K58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B59" t="s">
         <v>39</v>
@@ -3350,18 +3347,18 @@
         <v>145</v>
       </c>
       <c r="I59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J59" t="s">
         <v>142</v>
       </c>
       <c r="K59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B60" t="s">
         <v>39</v>
@@ -3385,18 +3382,18 @@
         <v>145</v>
       </c>
       <c r="I60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J60" t="s">
         <v>142</v>
       </c>
       <c r="K60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B61" t="s">
         <v>46</v>
@@ -3426,12 +3423,12 @@
         <v>149</v>
       </c>
       <c r="K61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B62" t="s">
         <v>47</v>
@@ -3455,18 +3452,18 @@
         <v>145</v>
       </c>
       <c r="I62" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J62" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B63" t="s">
         <v>48</v>
@@ -3493,15 +3490,15 @@
         <v>108</v>
       </c>
       <c r="J63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B64" t="s">
         <v>48</v>
@@ -3528,15 +3525,15 @@
         <v>108</v>
       </c>
       <c r="J64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B65" t="s">
         <v>48</v>
@@ -3563,15 +3560,15 @@
         <v>108</v>
       </c>
       <c r="J65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B66" t="s">
         <v>49</v>
@@ -3595,18 +3592,18 @@
         <v>145</v>
       </c>
       <c r="I66" t="s">
+        <v>160</v>
+      </c>
+      <c r="J66" t="s">
         <v>161</v>
       </c>
-      <c r="J66" t="s">
-        <v>162</v>
-      </c>
       <c r="K66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B67" t="s">
         <v>49</v>
@@ -3630,18 +3627,18 @@
         <v>145</v>
       </c>
       <c r="I67" t="s">
+        <v>160</v>
+      </c>
+      <c r="J67" t="s">
         <v>161</v>
       </c>
-      <c r="J67" t="s">
-        <v>162</v>
-      </c>
       <c r="K67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B68" t="s">
         <v>50</v>
@@ -3665,18 +3662,18 @@
         <v>145</v>
       </c>
       <c r="I68" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J68" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K68" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B69" t="s">
         <v>50</v>
@@ -3700,18 +3697,18 @@
         <v>145</v>
       </c>
       <c r="I69" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J69" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K69" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B70" t="s">
         <v>51</v>
@@ -3735,18 +3732,18 @@
         <v>145</v>
       </c>
       <c r="I70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K70" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B71" t="s">
         <v>52</v>
@@ -3770,18 +3767,18 @@
         <v>145</v>
       </c>
       <c r="I71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K71" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B72" t="s">
         <v>52</v>
@@ -3805,18 +3802,18 @@
         <v>145</v>
       </c>
       <c r="I72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K72" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B73" t="s">
         <v>53</v>
@@ -3846,12 +3843,12 @@
         <v>148</v>
       </c>
       <c r="K73" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B74" t="s">
         <v>54</v>
@@ -3875,18 +3872,18 @@
         <v>145</v>
       </c>
       <c r="I74" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J74" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K74" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B75" t="s">
         <v>54</v>
@@ -3910,18 +3907,18 @@
         <v>145</v>
       </c>
       <c r="I75" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J75" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B76" t="s">
         <v>55</v>
@@ -3945,18 +3942,18 @@
         <v>145</v>
       </c>
       <c r="I76" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J76" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K76" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B77" t="s">
         <v>55</v>
@@ -3980,18 +3977,18 @@
         <v>145</v>
       </c>
       <c r="I77" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J77" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K77" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B78" t="s">
         <v>55</v>
@@ -4015,18 +4012,18 @@
         <v>145</v>
       </c>
       <c r="I78" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J78" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K78" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B79" t="s">
         <v>55</v>
@@ -4050,18 +4047,18 @@
         <v>145</v>
       </c>
       <c r="I79" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J79" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K79" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B80" t="s">
         <v>55</v>
@@ -4085,18 +4082,18 @@
         <v>145</v>
       </c>
       <c r="I80" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J80" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K80" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B81" t="s">
         <v>55</v>
@@ -4120,18 +4117,18 @@
         <v>145</v>
       </c>
       <c r="I81" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J81" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K81" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B82" t="s">
         <v>56</v>
@@ -4155,18 +4152,18 @@
         <v>145</v>
       </c>
       <c r="I82" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J82" t="s">
         <v>149</v>
       </c>
       <c r="K82" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B83" t="s">
         <v>57</v>
@@ -4190,18 +4187,18 @@
         <v>145</v>
       </c>
       <c r="I83" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J83" t="s">
         <v>142</v>
       </c>
       <c r="K83" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B84" t="s">
         <v>58</v>
@@ -4222,21 +4219,21 @@
         <v>147</v>
       </c>
       <c r="H84" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I84" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J84" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K84" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B85" t="s">
         <v>58</v>
@@ -4266,12 +4263,12 @@
         <v>149</v>
       </c>
       <c r="K85" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B86" t="s">
         <v>58</v>
@@ -4301,12 +4298,12 @@
         <v>149</v>
       </c>
       <c r="K86" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B87" t="s">
         <v>58</v>
@@ -4336,12 +4333,12 @@
         <v>149</v>
       </c>
       <c r="K87" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B88" t="s">
         <v>58</v>
@@ -4371,12 +4368,12 @@
         <v>149</v>
       </c>
       <c r="K88" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B89" t="s">
         <v>58</v>
@@ -4406,12 +4403,12 @@
         <v>149</v>
       </c>
       <c r="K89" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B90" t="s">
         <v>58</v>
@@ -4441,12 +4438,12 @@
         <v>149</v>
       </c>
       <c r="K90" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B91" t="s">
         <v>58</v>
@@ -4476,12 +4473,12 @@
         <v>149</v>
       </c>
       <c r="K91" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B92" t="s">
         <v>58</v>
@@ -4511,12 +4508,12 @@
         <v>149</v>
       </c>
       <c r="K92" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B93" t="s">
         <v>58</v>
@@ -4546,12 +4543,12 @@
         <v>149</v>
       </c>
       <c r="K93" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B94" t="s">
         <v>59</v>
@@ -4581,12 +4578,12 @@
         <v>142</v>
       </c>
       <c r="K94" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B95" t="s">
         <v>60</v>
@@ -4610,18 +4607,18 @@
         <v>145</v>
       </c>
       <c r="I95" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J95" t="s">
         <v>149</v>
       </c>
       <c r="K95" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B96" t="s">
         <v>61</v>
@@ -4645,18 +4642,18 @@
         <v>145</v>
       </c>
       <c r="I96" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J96" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K96" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B97" t="s">
         <v>61</v>
@@ -4686,12 +4683,12 @@
         <v>149</v>
       </c>
       <c r="K97" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B98" t="s">
         <v>61</v>
@@ -4715,18 +4712,18 @@
         <v>145</v>
       </c>
       <c r="I98" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J98" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K98" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B99" t="s">
         <v>62</v>
@@ -4747,21 +4744,21 @@
         <v>147</v>
       </c>
       <c r="H99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K99" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B100" t="s">
         <v>62</v>
@@ -4785,18 +4782,18 @@
         <v>145</v>
       </c>
       <c r="I100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J100" t="s">
         <v>142</v>
       </c>
       <c r="K100" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B101" t="s">
         <v>63</v>
@@ -4820,18 +4817,18 @@
         <v>145</v>
       </c>
       <c r="I101" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B102" t="s">
         <v>64</v>
@@ -4855,18 +4852,18 @@
         <v>145</v>
       </c>
       <c r="I102" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J102" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K102" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B103" t="s">
         <v>64</v>
@@ -4890,18 +4887,18 @@
         <v>145</v>
       </c>
       <c r="I103" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J103" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K103" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B104" t="s">
         <v>65</v>
@@ -4931,12 +4928,12 @@
         <v>149</v>
       </c>
       <c r="K104" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B105" t="s">
         <v>66</v>
@@ -4966,12 +4963,12 @@
         <v>142</v>
       </c>
       <c r="K105" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B106" t="s">
         <v>66</v>
@@ -5001,12 +4998,12 @@
         <v>142</v>
       </c>
       <c r="K106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B107" t="s">
         <v>66</v>
@@ -5036,12 +5033,12 @@
         <v>142</v>
       </c>
       <c r="K107" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B108" t="s">
         <v>66</v>
@@ -5071,12 +5068,12 @@
         <v>142</v>
       </c>
       <c r="K108" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B109" t="s">
         <v>67</v>
@@ -5100,18 +5097,18 @@
         <v>145</v>
       </c>
       <c r="I109" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J109" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B110" t="s">
         <v>68</v>
@@ -5135,18 +5132,18 @@
         <v>145</v>
       </c>
       <c r="I110" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J110" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B111" t="s">
         <v>69</v>
@@ -5176,12 +5173,12 @@
         <v>142</v>
       </c>
       <c r="K111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B112" t="s">
         <v>70</v>
@@ -5205,13 +5202,13 @@
         <v>145</v>
       </c>
       <c r="I112" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J112" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K112" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/acs_nano/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/acs_nano/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/acs_nano/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA4A3CB-1CBD-4A44-8861-D4A68739CBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB583CBF-4F37-AD41-A353-2BFB6E534FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="740" windowWidth="14300" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="287">
   <si>
     <t>DOI</t>
   </si>
@@ -872,6 +872,15 @@
   </si>
   <si>
     <t>Characteristic concentration</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c00958</t>
+  </si>
+  <si>
+    <t>IL-10 mRNA relative expression</t>
+  </si>
+  <si>
+    <t>10.1021:acsnano.3c00958_log_fig1</t>
   </si>
 </sst>
 </file>
@@ -1273,10 +1282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K112"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F54" zoomScale="187" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="187" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2588,10 +2597,10 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>284</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2602,20 +2611,20 @@
       <c r="E38" t="s">
         <v>7</v>
       </c>
-      <c r="F38" t="s">
-        <v>97</v>
+      <c r="F38" s="6" t="s">
+        <v>285</v>
       </c>
       <c r="G38" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H38" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I38" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J38" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="K38" t="s">
         <v>166</v>
@@ -2623,7 +2632,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B39" t="s">
         <v>34</v>
@@ -2632,7 +2641,7 @@
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
@@ -2658,7 +2667,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B40" t="s">
         <v>34</v>
@@ -2667,7 +2676,7 @@
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
@@ -2693,7 +2702,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B41" t="s">
         <v>34</v>
@@ -2702,7 +2711,7 @@
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
         <v>7</v>
@@ -2728,34 +2737,34 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E42" t="s">
         <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G42" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H42" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I42" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="J42" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="K42" t="s">
         <v>166</v>
@@ -2763,10 +2772,10 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2778,19 +2787,19 @@
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G43" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H43" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="I43" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J43" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K43" t="s">
         <v>166</v>
@@ -2798,7 +2807,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B44" t="s">
         <v>36</v>
@@ -2807,13 +2816,13 @@
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G44" t="s">
         <v>141</v>
@@ -2833,7 +2842,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B45" t="s">
         <v>36</v>
@@ -2842,13 +2851,13 @@
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E45" t="s">
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G45" t="s">
         <v>141</v>
@@ -2868,7 +2877,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B46" t="s">
         <v>36</v>
@@ -2877,13 +2886,13 @@
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G46" t="s">
         <v>141</v>
@@ -2903,22 +2912,22 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E47" t="s">
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G47" t="s">
         <v>141</v>
@@ -2927,10 +2936,10 @@
         <v>145</v>
       </c>
       <c r="I47" t="s">
-        <v>282</v>
+        <v>149</v>
       </c>
       <c r="J47" t="s">
-        <v>282</v>
+        <v>149</v>
       </c>
       <c r="K47" t="s">
         <v>166</v>
@@ -2938,10 +2947,10 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2953,7 +2962,7 @@
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G48" t="s">
         <v>141</v>
@@ -2962,10 +2971,10 @@
         <v>145</v>
       </c>
       <c r="I48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J48" t="s">
-        <v>142</v>
+        <v>282</v>
       </c>
       <c r="K48" t="s">
         <v>166</v>
@@ -2973,7 +2982,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B49" t="s">
         <v>38</v>
@@ -2982,25 +2991,25 @@
         <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G49" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H49" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I49" t="s">
-        <v>162</v>
+        <v>283</v>
       </c>
       <c r="J49" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="K49" t="s">
         <v>166</v>
@@ -3008,34 +3017,34 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E50" t="s">
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G50" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H50" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="I50" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="J50" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K50" t="s">
         <v>166</v>
@@ -3043,7 +3052,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B51" t="s">
         <v>39</v>
@@ -3052,7 +3061,7 @@
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E51" t="s">
         <v>7</v>
@@ -3078,7 +3087,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B52" t="s">
         <v>39</v>
@@ -3087,7 +3096,7 @@
         <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E52" t="s">
         <v>7</v>
@@ -3113,7 +3122,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B53" t="s">
         <v>39</v>
@@ -3122,7 +3131,7 @@
         <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E53" t="s">
         <v>7</v>
@@ -3148,7 +3157,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B54" t="s">
         <v>39</v>
@@ -3157,7 +3166,7 @@
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E54" t="s">
         <v>7</v>
@@ -3183,7 +3192,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B55" t="s">
         <v>39</v>
@@ -3192,7 +3201,7 @@
         <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
         <v>7</v>
@@ -3218,7 +3227,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B56" t="s">
         <v>39</v>
@@ -3227,13 +3236,13 @@
         <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E56" t="s">
         <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G56" t="s">
         <v>141</v>
@@ -3253,7 +3262,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B57" t="s">
         <v>39</v>
@@ -3262,7 +3271,7 @@
         <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E57" t="s">
         <v>7</v>
@@ -3288,7 +3297,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B58" t="s">
         <v>39</v>
@@ -3297,7 +3306,7 @@
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E58" t="s">
         <v>7</v>
@@ -3323,7 +3332,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B59" t="s">
         <v>39</v>
@@ -3332,7 +3341,7 @@
         <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E59" t="s">
         <v>7</v>
@@ -3358,7 +3367,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B60" t="s">
         <v>39</v>
@@ -3367,7 +3376,7 @@
         <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E60" t="s">
         <v>7</v>
@@ -3393,22 +3402,22 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B61" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E61" t="s">
         <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G61" t="s">
         <v>141</v>
@@ -3417,10 +3426,10 @@
         <v>145</v>
       </c>
       <c r="I61" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J61" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K61" t="s">
         <v>166</v>
@@ -3428,10 +3437,10 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3443,7 +3452,7 @@
         <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G62" t="s">
         <v>141</v>
@@ -3452,10 +3461,10 @@
         <v>145</v>
       </c>
       <c r="I62" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J62" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="K62" t="s">
         <v>166</v>
@@ -3463,10 +3472,10 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3478,7 +3487,7 @@
         <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G63" t="s">
         <v>141</v>
@@ -3487,10 +3496,10 @@
         <v>145</v>
       </c>
       <c r="I63" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="J63" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="K63" t="s">
         <v>166</v>
@@ -3498,7 +3507,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B64" t="s">
         <v>48</v>
@@ -3507,7 +3516,7 @@
         <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E64" t="s">
         <v>7</v>
@@ -3533,7 +3542,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B65" t="s">
         <v>48</v>
@@ -3542,7 +3551,7 @@
         <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E65" t="s">
         <v>7</v>
@@ -3568,22 +3577,22 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
         <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G66" t="s">
         <v>141</v>
@@ -3592,10 +3601,10 @@
         <v>145</v>
       </c>
       <c r="I66" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="J66" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="K66" t="s">
         <v>166</v>
@@ -3603,7 +3612,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B67" t="s">
         <v>49</v>
@@ -3612,7 +3621,7 @@
         <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E67" t="s">
         <v>7</v>
@@ -3638,22 +3647,22 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E68" t="s">
         <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G68" t="s">
         <v>141</v>
@@ -3662,10 +3671,10 @@
         <v>145</v>
       </c>
       <c r="I68" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="J68" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="K68" t="s">
         <v>166</v>
@@ -3673,7 +3682,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B69" t="s">
         <v>50</v>
@@ -3682,13 +3691,13 @@
         <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E69" t="s">
         <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G69" t="s">
         <v>141</v>
@@ -3708,22 +3717,22 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E70" t="s">
         <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G70" t="s">
         <v>141</v>
@@ -3732,10 +3741,10 @@
         <v>145</v>
       </c>
       <c r="I70" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J70" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="K70" t="s">
         <v>166</v>
@@ -3743,10 +3752,10 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3758,7 +3767,7 @@
         <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G71" t="s">
         <v>141</v>
@@ -3767,10 +3776,10 @@
         <v>145</v>
       </c>
       <c r="I71" t="s">
-        <v>282</v>
+        <v>153</v>
       </c>
       <c r="J71" t="s">
-        <v>282</v>
+        <v>153</v>
       </c>
       <c r="K71" t="s">
         <v>166</v>
@@ -3778,7 +3787,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B72" t="s">
         <v>52</v>
@@ -3787,7 +3796,7 @@
         <v>5</v>
       </c>
       <c r="D72" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E72" t="s">
         <v>7</v>
@@ -3813,34 +3822,34 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E73" t="s">
         <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G73" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H73" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I73" t="s">
-        <v>148</v>
+        <v>282</v>
       </c>
       <c r="J73" t="s">
-        <v>148</v>
+        <v>282</v>
       </c>
       <c r="K73" t="s">
         <v>166</v>
@@ -3848,10 +3857,10 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -3863,19 +3872,19 @@
         <v>7</v>
       </c>
       <c r="F74" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G74" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H74" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I74" t="s">
-        <v>282</v>
+        <v>148</v>
       </c>
       <c r="J74" t="s">
-        <v>282</v>
+        <v>148</v>
       </c>
       <c r="K74" t="s">
         <v>166</v>
@@ -3883,7 +3892,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B75" t="s">
         <v>54</v>
@@ -3892,7 +3901,7 @@
         <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E75" t="s">
         <v>7</v>
@@ -3918,22 +3927,22 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B76" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
       </c>
       <c r="D76" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E76" t="s">
         <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G76" t="s">
         <v>141</v>
@@ -3953,7 +3962,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B77" t="s">
         <v>55</v>
@@ -3962,13 +3971,13 @@
         <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E77" t="s">
         <v>7</v>
       </c>
       <c r="F77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G77" t="s">
         <v>141</v>
@@ -3988,7 +3997,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B78" t="s">
         <v>55</v>
@@ -3997,13 +4006,13 @@
         <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E78" t="s">
         <v>7</v>
       </c>
       <c r="F78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G78" t="s">
         <v>141</v>
@@ -4023,7 +4032,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B79" t="s">
         <v>55</v>
@@ -4032,13 +4041,13 @@
         <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
         <v>7</v>
       </c>
       <c r="F79" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G79" t="s">
         <v>141</v>
@@ -4058,7 +4067,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B80" t="s">
         <v>55</v>
@@ -4067,13 +4076,13 @@
         <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E80" t="s">
         <v>7</v>
       </c>
       <c r="F80" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G80" t="s">
         <v>141</v>
@@ -4093,7 +4102,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B81" t="s">
         <v>55</v>
@@ -4102,13 +4111,13 @@
         <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E81" t="s">
         <v>7</v>
       </c>
       <c r="F81" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G81" t="s">
         <v>141</v>
@@ -4128,22 +4137,22 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
       </c>
       <c r="D82" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E82" t="s">
         <v>7</v>
       </c>
       <c r="F82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G82" t="s">
         <v>141</v>
@@ -4152,10 +4161,10 @@
         <v>145</v>
       </c>
       <c r="I82" t="s">
-        <v>154</v>
+        <v>282</v>
       </c>
       <c r="J82" t="s">
-        <v>149</v>
+        <v>282</v>
       </c>
       <c r="K82" t="s">
         <v>166</v>
@@ -4163,10 +4172,10 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B83" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -4178,7 +4187,7 @@
         <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G83" t="s">
         <v>141</v>
@@ -4187,10 +4196,10 @@
         <v>145</v>
       </c>
       <c r="I83" t="s">
-        <v>283</v>
+        <v>154</v>
       </c>
       <c r="J83" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="K83" t="s">
         <v>166</v>
@@ -4198,10 +4207,10 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B84" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -4213,19 +4222,19 @@
         <v>7</v>
       </c>
       <c r="F84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G84" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H84" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="I84" t="s">
-        <v>155</v>
+        <v>283</v>
       </c>
       <c r="J84" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="K84" t="s">
         <v>166</v>
@@ -4233,7 +4242,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B85" t="s">
         <v>58</v>
@@ -4242,25 +4251,25 @@
         <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E85" t="s">
         <v>7</v>
       </c>
       <c r="F85" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G85" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H85" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="I85" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="J85" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K85" t="s">
         <v>166</v>
@@ -4268,7 +4277,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B86" t="s">
         <v>58</v>
@@ -4277,7 +4286,7 @@
         <v>5</v>
       </c>
       <c r="D86" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E86" t="s">
         <v>7</v>
@@ -4303,7 +4312,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B87" t="s">
         <v>58</v>
@@ -4312,7 +4321,7 @@
         <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E87" t="s">
         <v>7</v>
@@ -4338,7 +4347,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B88" t="s">
         <v>58</v>
@@ -4347,7 +4356,7 @@
         <v>5</v>
       </c>
       <c r="D88" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
         <v>7</v>
@@ -4373,7 +4382,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B89" t="s">
         <v>58</v>
@@ -4382,7 +4391,7 @@
         <v>5</v>
       </c>
       <c r="D89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E89" t="s">
         <v>7</v>
@@ -4408,7 +4417,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B90" t="s">
         <v>58</v>
@@ -4417,7 +4426,7 @@
         <v>5</v>
       </c>
       <c r="D90" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E90" t="s">
         <v>7</v>
@@ -4443,7 +4452,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B91" t="s">
         <v>58</v>
@@ -4452,7 +4461,7 @@
         <v>5</v>
       </c>
       <c r="D91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E91" t="s">
         <v>7</v>
@@ -4478,7 +4487,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B92" t="s">
         <v>58</v>
@@ -4487,7 +4496,7 @@
         <v>5</v>
       </c>
       <c r="D92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E92" t="s">
         <v>7</v>
@@ -4513,7 +4522,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B93" t="s">
         <v>58</v>
@@ -4522,7 +4531,7 @@
         <v>5</v>
       </c>
       <c r="D93" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E93" t="s">
         <v>7</v>
@@ -4548,22 +4557,22 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B94" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
       </c>
       <c r="D94" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E94" t="s">
         <v>7</v>
       </c>
       <c r="F94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G94" t="s">
         <v>141</v>
@@ -4572,10 +4581,10 @@
         <v>145</v>
       </c>
       <c r="I94" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="J94" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="K94" t="s">
         <v>166</v>
@@ -4583,10 +4592,10 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B95" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -4598,7 +4607,7 @@
         <v>7</v>
       </c>
       <c r="F95" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G95" t="s">
         <v>141</v>
@@ -4607,10 +4616,10 @@
         <v>145</v>
       </c>
       <c r="I95" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="J95" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K95" t="s">
         <v>166</v>
@@ -4618,10 +4627,10 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B96" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -4633,7 +4642,7 @@
         <v>7</v>
       </c>
       <c r="F96" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G96" t="s">
         <v>141</v>
@@ -4642,10 +4651,10 @@
         <v>145</v>
       </c>
       <c r="I96" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J96" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="K96" t="s">
         <v>166</v>
@@ -4653,7 +4662,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B97" t="s">
         <v>61</v>
@@ -4662,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="D97" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E97" t="s">
         <v>7</v>
       </c>
       <c r="F97" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G97" t="s">
         <v>141</v>
@@ -4677,10 +4686,10 @@
         <v>145</v>
       </c>
       <c r="I97" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J97" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K97" t="s">
         <v>166</v>
@@ -4688,7 +4697,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B98" t="s">
         <v>61</v>
@@ -4697,13 +4706,13 @@
         <v>5</v>
       </c>
       <c r="D98" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E98" t="s">
         <v>7</v>
       </c>
       <c r="F98" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G98" t="s">
         <v>141</v>
@@ -4712,10 +4721,10 @@
         <v>145</v>
       </c>
       <c r="I98" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J98" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="K98" t="s">
         <v>166</v>
@@ -4723,34 +4732,34 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B99" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
       </c>
       <c r="D99" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
         <v>7</v>
       </c>
       <c r="F99" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G99" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H99" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="I99" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J99" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="K99" t="s">
         <v>166</v>
@@ -4758,7 +4767,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B100" t="s">
         <v>62</v>
@@ -4767,25 +4776,25 @@
         <v>5</v>
       </c>
       <c r="D100" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E100" t="s">
         <v>7</v>
       </c>
       <c r="F100" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G100" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H100" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="I100" t="s">
-        <v>283</v>
+        <v>155</v>
       </c>
       <c r="J100" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="K100" t="s">
         <v>166</v>
@@ -4793,22 +4802,22 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B101" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
       </c>
       <c r="D101" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E101" t="s">
         <v>7</v>
       </c>
       <c r="F101" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G101" t="s">
         <v>141</v>
@@ -4817,10 +4826,10 @@
         <v>145</v>
       </c>
       <c r="I101" t="s">
-        <v>163</v>
+        <v>283</v>
       </c>
       <c r="J101" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="K101" t="s">
         <v>166</v>
@@ -4828,10 +4837,10 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -4843,7 +4852,7 @@
         <v>7</v>
       </c>
       <c r="F102" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G102" t="s">
         <v>141</v>
@@ -4852,10 +4861,10 @@
         <v>145</v>
       </c>
       <c r="I102" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="J102" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="K102" t="s">
         <v>166</v>
@@ -4863,7 +4872,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B103" t="s">
         <v>64</v>
@@ -4872,7 +4881,7 @@
         <v>5</v>
       </c>
       <c r="D103" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E103" t="s">
         <v>7</v>
@@ -4898,22 +4907,22 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
       </c>
       <c r="D104" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E104" t="s">
         <v>7</v>
       </c>
       <c r="F104" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G104" t="s">
         <v>141</v>
@@ -4922,10 +4931,10 @@
         <v>145</v>
       </c>
       <c r="I104" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J104" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K104" t="s">
         <v>166</v>
@@ -4933,10 +4942,10 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B105" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -4948,7 +4957,7 @@
         <v>7</v>
       </c>
       <c r="F105" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G105" t="s">
         <v>141</v>
@@ -4957,10 +4966,10 @@
         <v>145</v>
       </c>
       <c r="I105" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="J105" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="K105" t="s">
         <v>166</v>
@@ -4968,7 +4977,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B106" t="s">
         <v>66</v>
@@ -4977,13 +4986,13 @@
         <v>5</v>
       </c>
       <c r="D106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E106" t="s">
         <v>7</v>
       </c>
       <c r="F106" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G106" t="s">
         <v>141</v>
@@ -5003,7 +5012,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B107" t="s">
         <v>66</v>
@@ -5012,13 +5021,13 @@
         <v>5</v>
       </c>
       <c r="D107" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E107" t="s">
         <v>7</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>132</v>
+      <c r="F107" t="s">
+        <v>133</v>
       </c>
       <c r="G107" t="s">
         <v>141</v>
@@ -5038,7 +5047,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B108" t="s">
         <v>66</v>
@@ -5047,13 +5056,13 @@
         <v>5</v>
       </c>
       <c r="D108" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
         <v>7</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G108" t="s">
         <v>141</v>
@@ -5073,22 +5082,22 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B109" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
       </c>
       <c r="D109" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E109" t="s">
         <v>7</v>
       </c>
-      <c r="F109" t="s">
-        <v>134</v>
+      <c r="F109" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="G109" t="s">
         <v>141</v>
@@ -5097,10 +5106,10 @@
         <v>145</v>
       </c>
       <c r="I109" t="s">
-        <v>282</v>
+        <v>142</v>
       </c>
       <c r="J109" t="s">
-        <v>282</v>
+        <v>142</v>
       </c>
       <c r="K109" t="s">
         <v>166</v>
@@ -5108,10 +5117,10 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B110" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -5123,7 +5132,7 @@
         <v>7</v>
       </c>
       <c r="F110" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G110" t="s">
         <v>141</v>
@@ -5132,10 +5141,10 @@
         <v>145</v>
       </c>
       <c r="I110" t="s">
-        <v>162</v>
+        <v>282</v>
       </c>
       <c r="J110" t="s">
-        <v>150</v>
+        <v>282</v>
       </c>
       <c r="K110" t="s">
         <v>166</v>
@@ -5143,10 +5152,10 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B111" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -5158,7 +5167,7 @@
         <v>7</v>
       </c>
       <c r="F111" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G111" t="s">
         <v>141</v>
@@ -5167,10 +5176,10 @@
         <v>145</v>
       </c>
       <c r="I111" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="J111" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K111" t="s">
         <v>166</v>
@@ -5178,36 +5187,71 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B112" t="s">
+        <v>69</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" t="s">
+        <v>136</v>
+      </c>
+      <c r="G112" t="s">
+        <v>141</v>
+      </c>
+      <c r="H112" t="s">
+        <v>145</v>
+      </c>
+      <c r="I112" t="s">
+        <v>142</v>
+      </c>
+      <c r="J112" t="s">
+        <v>142</v>
+      </c>
+      <c r="K112" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
         <v>70</v>
       </c>
-      <c r="C112" t="s">
-        <v>5</v>
-      </c>
-      <c r="D112" t="s">
-        <v>6</v>
-      </c>
-      <c r="E112" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112" t="s">
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" t="s">
         <v>137</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G113" t="s">
         <v>147</v>
       </c>
-      <c r="H112" t="s">
-        <v>145</v>
-      </c>
-      <c r="I112" t="s">
+      <c r="H113" t="s">
+        <v>145</v>
+      </c>
+      <c r="I113" t="s">
         <v>282</v>
       </c>
-      <c r="J112" t="s">
+      <c r="J113" t="s">
         <v>282</v>
       </c>
-      <c r="K112" t="s">
+      <c r="K113" t="s">
         <v>166</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/acs_nano/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/acs_nano/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/acs_nano/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB583CBF-4F37-AD41-A353-2BFB6E534FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF4DC0D-95B8-374F-9C1E-60EB46EC3587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="740" windowWidth="14300" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="500" windowWidth="37600" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -235,9 +235,6 @@
     <t>10.1021:acsnano.3c10225</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Concentration by PM (ng/mL)</t>
   </si>
   <si>
@@ -451,12 +448,6 @@
     <t>Concentration</t>
   </si>
   <si>
-    <t>Physical quantity I</t>
-  </si>
-  <si>
-    <t>Physical quantity II</t>
-  </si>
-  <si>
     <t>Measured value</t>
   </si>
   <si>
@@ -881,6 +872,15 @@
   </si>
   <si>
     <t>10.1021:acsnano.3c00958_log_fig1</t>
+  </si>
+  <si>
+    <t>Measurand</t>
+  </si>
+  <si>
+    <t>Measurand Level I</t>
+  </si>
+  <si>
+    <t>Measurand Level II</t>
   </si>
 </sst>
 </file>
@@ -1284,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="187" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1302,7 +1302,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1317,30 +1317,30 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>71</v>
+        <v>284</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1352,27 +1352,27 @@
         <v>7</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1387,27 +1387,27 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1422,27 +1422,27 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1457,27 +1457,27 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1492,27 +1492,27 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1527,27 +1527,27 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -1562,27 +1562,27 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1597,27 +1597,27 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1632,27 +1632,27 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1667,27 +1667,27 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1702,27 +1702,27 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -1737,27 +1737,27 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1772,27 +1772,27 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -1807,27 +1807,27 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1842,27 +1842,27 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -1877,27 +1877,27 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1912,27 +1912,27 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1947,27 +1947,27 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1982,27 +1982,27 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -2017,27 +2017,27 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H21" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I21" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K21" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -2052,27 +2052,27 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K22" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -2087,27 +2087,27 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I23" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J23" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K23" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -2122,27 +2122,27 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H24" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K24" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -2157,27 +2157,27 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J25" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K25" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -2192,27 +2192,27 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H26" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I26" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J26" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K26" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -2227,27 +2227,27 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H27" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K27" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -2262,27 +2262,27 @@
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I28" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K28" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
@@ -2297,27 +2297,27 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I29" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J29" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K29" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
@@ -2332,27 +2332,27 @@
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I30" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J30" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K30" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
@@ -2367,27 +2367,27 @@
         <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H31" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I31" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J31" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K31" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
@@ -2402,27 +2402,27 @@
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K32" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
@@ -2437,27 +2437,27 @@
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H33" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K33" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
@@ -2472,27 +2472,27 @@
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H34" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I34" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J34" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K34" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -2507,27 +2507,27 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H35" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I35" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K35" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
@@ -2542,27 +2542,27 @@
         <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H36" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I36" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K36" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B37" t="s">
         <v>33</v>
@@ -2577,30 +2577,30 @@
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G37" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H37" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I37" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J37" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K37" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B38" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2612,27 +2612,27 @@
         <v>7</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G38" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H38" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I38" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J38" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B39" t="s">
         <v>34</v>
@@ -2647,27 +2647,27 @@
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H39" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I39" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K39" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B40" t="s">
         <v>34</v>
@@ -2682,27 +2682,27 @@
         <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H40" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I40" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K40" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B41" t="s">
         <v>34</v>
@@ -2717,27 +2717,27 @@
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H41" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I41" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K41" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B42" t="s">
         <v>34</v>
@@ -2752,27 +2752,27 @@
         <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H42" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I42" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K42" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B43" t="s">
         <v>35</v>
@@ -2787,27 +2787,27 @@
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G43" t="s">
+        <v>144</v>
+      </c>
+      <c r="H43" t="s">
+        <v>154</v>
+      </c>
+      <c r="I43" t="s">
+        <v>159</v>
+      </c>
+      <c r="J43" t="s">
         <v>147</v>
       </c>
-      <c r="H43" t="s">
-        <v>157</v>
-      </c>
-      <c r="I43" t="s">
-        <v>162</v>
-      </c>
-      <c r="J43" t="s">
-        <v>150</v>
-      </c>
       <c r="K43" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B44" t="s">
         <v>36</v>
@@ -2822,27 +2822,27 @@
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H44" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I44" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J44" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K44" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B45" t="s">
         <v>36</v>
@@ -2857,27 +2857,27 @@
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H45" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I45" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J45" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K45" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B46" t="s">
         <v>36</v>
@@ -2892,27 +2892,27 @@
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H46" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I46" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J46" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K46" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B47" t="s">
         <v>36</v>
@@ -2927,27 +2927,27 @@
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H47" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I47" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J47" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K47" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B48" t="s">
         <v>37</v>
@@ -2962,27 +2962,27 @@
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H48" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I48" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J48" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K48" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B49" t="s">
         <v>38</v>
@@ -2997,27 +2997,27 @@
         <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H49" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I49" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K49" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B50" t="s">
         <v>38</v>
@@ -3032,27 +3032,27 @@
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G50" t="s">
+        <v>144</v>
+      </c>
+      <c r="H50" t="s">
+        <v>154</v>
+      </c>
+      <c r="I50" t="s">
+        <v>159</v>
+      </c>
+      <c r="J50" t="s">
         <v>147</v>
       </c>
-      <c r="H50" t="s">
-        <v>157</v>
-      </c>
-      <c r="I50" t="s">
-        <v>162</v>
-      </c>
-      <c r="J50" t="s">
-        <v>150</v>
-      </c>
       <c r="K50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B51" t="s">
         <v>39</v>
@@ -3067,27 +3067,27 @@
         <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H51" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I51" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K51" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B52" t="s">
         <v>39</v>
@@ -3102,27 +3102,27 @@
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H52" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I52" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K52" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B53" t="s">
         <v>39</v>
@@ -3137,27 +3137,27 @@
         <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H53" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I53" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K53" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B54" t="s">
         <v>39</v>
@@ -3172,27 +3172,27 @@
         <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H54" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I54" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K54" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B55" t="s">
         <v>39</v>
@@ -3207,27 +3207,27 @@
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H55" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I55" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K55" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B56" t="s">
         <v>39</v>
@@ -3242,27 +3242,27 @@
         <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H56" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I56" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K56" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B57" t="s">
         <v>39</v>
@@ -3277,27 +3277,27 @@
         <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H57" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I57" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K57" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B58" t="s">
         <v>39</v>
@@ -3312,27 +3312,27 @@
         <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H58" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I58" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K58" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B59" t="s">
         <v>39</v>
@@ -3347,27 +3347,27 @@
         <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H59" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I59" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K59" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B60" t="s">
         <v>39</v>
@@ -3382,27 +3382,27 @@
         <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H60" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I60" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K60" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B61" t="s">
         <v>39</v>
@@ -3417,27 +3417,27 @@
         <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H61" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I61" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K61" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B62" t="s">
         <v>46</v>
@@ -3452,27 +3452,27 @@
         <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H62" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I62" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J62" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K62" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B63" t="s">
         <v>47</v>
@@ -3487,27 +3487,27 @@
         <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H63" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I63" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K63" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B64" t="s">
         <v>48</v>
@@ -3522,27 +3522,27 @@
         <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H64" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J64" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K64" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B65" t="s">
         <v>48</v>
@@ -3557,27 +3557,27 @@
         <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H65" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J65" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K65" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B66" t="s">
         <v>48</v>
@@ -3592,27 +3592,27 @@
         <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H66" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J66" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K66" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B67" t="s">
         <v>49</v>
@@ -3627,27 +3627,27 @@
         <v>7</v>
       </c>
       <c r="F67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H67" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I67" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J67" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K67" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B68" t="s">
         <v>49</v>
@@ -3662,27 +3662,27 @@
         <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G68" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H68" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I68" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J68" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K68" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B69" t="s">
         <v>50</v>
@@ -3697,27 +3697,27 @@
         <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H69" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I69" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K69" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B70" t="s">
         <v>50</v>
@@ -3732,27 +3732,27 @@
         <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G70" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H70" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I70" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K70" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B71" t="s">
         <v>51</v>
@@ -3767,27 +3767,27 @@
         <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H71" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I71" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J71" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K71" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B72" t="s">
         <v>52</v>
@@ -3802,27 +3802,27 @@
         <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G72" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H72" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K72" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B73" t="s">
         <v>52</v>
@@ -3837,27 +3837,27 @@
         <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G73" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H73" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I73" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J73" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K73" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B74" t="s">
         <v>53</v>
@@ -3872,27 +3872,27 @@
         <v>7</v>
       </c>
       <c r="F74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G74" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H74" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I74" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J74" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K74" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B75" t="s">
         <v>54</v>
@@ -3907,27 +3907,27 @@
         <v>7</v>
       </c>
       <c r="F75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G75" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H75" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I75" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J75" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K75" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B76" t="s">
         <v>54</v>
@@ -3942,27 +3942,27 @@
         <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G76" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H76" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I76" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J76" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K76" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B77" t="s">
         <v>55</v>
@@ -3977,27 +3977,27 @@
         <v>7</v>
       </c>
       <c r="F77" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H77" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I77" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J77" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K77" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B78" t="s">
         <v>55</v>
@@ -4012,27 +4012,27 @@
         <v>7</v>
       </c>
       <c r="F78" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G78" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H78" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I78" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J78" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K78" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B79" t="s">
         <v>55</v>
@@ -4047,27 +4047,27 @@
         <v>7</v>
       </c>
       <c r="F79" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G79" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H79" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I79" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J79" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K79" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B80" t="s">
         <v>55</v>
@@ -4082,27 +4082,27 @@
         <v>7</v>
       </c>
       <c r="F80" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G80" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H80" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I80" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J80" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K80" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B81" t="s">
         <v>55</v>
@@ -4117,27 +4117,27 @@
         <v>7</v>
       </c>
       <c r="F81" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G81" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H81" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I81" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J81" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K81" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B82" t="s">
         <v>55</v>
@@ -4152,27 +4152,27 @@
         <v>7</v>
       </c>
       <c r="F82" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G82" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H82" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I82" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J82" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K82" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B83" t="s">
         <v>56</v>
@@ -4187,27 +4187,27 @@
         <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G83" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H83" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I83" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J83" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K83" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B84" t="s">
         <v>57</v>
@@ -4222,27 +4222,27 @@
         <v>7</v>
       </c>
       <c r="F84" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H84" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I84" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J84" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K84" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B85" t="s">
         <v>58</v>
@@ -4257,27 +4257,27 @@
         <v>7</v>
       </c>
       <c r="F85" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G85" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H85" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I85" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J85" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K85" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B86" t="s">
         <v>58</v>
@@ -4292,27 +4292,27 @@
         <v>7</v>
       </c>
       <c r="F86" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G86" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H86" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I86" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J86" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K86" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B87" t="s">
         <v>58</v>
@@ -4327,27 +4327,27 @@
         <v>7</v>
       </c>
       <c r="F87" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G87" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H87" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I87" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J87" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K87" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B88" t="s">
         <v>58</v>
@@ -4362,27 +4362,27 @@
         <v>7</v>
       </c>
       <c r="F88" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G88" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H88" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I88" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J88" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K88" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B89" t="s">
         <v>58</v>
@@ -4397,27 +4397,27 @@
         <v>7</v>
       </c>
       <c r="F89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G89" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H89" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I89" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J89" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K89" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B90" t="s">
         <v>58</v>
@@ -4432,27 +4432,27 @@
         <v>7</v>
       </c>
       <c r="F90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G90" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H90" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I90" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J90" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K90" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B91" t="s">
         <v>58</v>
@@ -4467,27 +4467,27 @@
         <v>7</v>
       </c>
       <c r="F91" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H91" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I91" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J91" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K91" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B92" t="s">
         <v>58</v>
@@ -4502,27 +4502,27 @@
         <v>7</v>
       </c>
       <c r="F92" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G92" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H92" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I92" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J92" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K92" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B93" t="s">
         <v>58</v>
@@ -4537,27 +4537,27 @@
         <v>7</v>
       </c>
       <c r="F93" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G93" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H93" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I93" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J93" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K93" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B94" t="s">
         <v>58</v>
@@ -4572,27 +4572,27 @@
         <v>7</v>
       </c>
       <c r="F94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H94" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I94" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J94" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K94" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B95" t="s">
         <v>59</v>
@@ -4607,27 +4607,27 @@
         <v>7</v>
       </c>
       <c r="F95" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G95" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H95" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I95" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J95" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K95" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B96" t="s">
         <v>60</v>
@@ -4642,27 +4642,27 @@
         <v>7</v>
       </c>
       <c r="F96" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G96" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H96" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I96" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J96" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K96" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B97" t="s">
         <v>61</v>
@@ -4677,27 +4677,27 @@
         <v>7</v>
       </c>
       <c r="F97" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G97" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H97" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I97" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J97" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K97" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B98" t="s">
         <v>61</v>
@@ -4712,27 +4712,27 @@
         <v>7</v>
       </c>
       <c r="F98" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G98" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H98" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I98" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J98" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K98" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B99" t="s">
         <v>61</v>
@@ -4747,27 +4747,27 @@
         <v>7</v>
       </c>
       <c r="F99" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G99" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H99" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I99" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J99" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K99" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B100" t="s">
         <v>62</v>
@@ -4782,27 +4782,27 @@
         <v>7</v>
       </c>
       <c r="F100" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G100" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H100" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I100" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J100" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K100" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B101" t="s">
         <v>62</v>
@@ -4817,27 +4817,27 @@
         <v>7</v>
       </c>
       <c r="F101" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G101" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H101" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I101" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J101" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K101" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B102" t="s">
         <v>63</v>
@@ -4852,27 +4852,27 @@
         <v>7</v>
       </c>
       <c r="F102" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G102" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H102" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I102" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J102" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K102" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B103" t="s">
         <v>64</v>
@@ -4887,27 +4887,27 @@
         <v>7</v>
       </c>
       <c r="F103" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G103" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H103" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I103" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J103" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K103" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B104" t="s">
         <v>64</v>
@@ -4922,27 +4922,27 @@
         <v>7</v>
       </c>
       <c r="F104" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G104" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H104" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I104" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J104" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K104" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B105" t="s">
         <v>65</v>
@@ -4957,27 +4957,27 @@
         <v>7</v>
       </c>
       <c r="F105" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H105" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I105" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J105" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K105" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B106" t="s">
         <v>66</v>
@@ -4992,27 +4992,27 @@
         <v>7</v>
       </c>
       <c r="F106" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G106" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H106" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I106" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J106" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K106" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B107" t="s">
         <v>66</v>
@@ -5027,27 +5027,27 @@
         <v>7</v>
       </c>
       <c r="F107" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G107" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H107" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I107" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J107" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K107" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B108" t="s">
         <v>66</v>
@@ -5062,27 +5062,27 @@
         <v>7</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G108" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H108" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I108" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J108" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K108" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B109" t="s">
         <v>66</v>
@@ -5097,27 +5097,27 @@
         <v>7</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G109" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H109" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I109" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J109" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K109" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B110" t="s">
         <v>67</v>
@@ -5132,27 +5132,27 @@
         <v>7</v>
       </c>
       <c r="F110" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G110" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H110" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I110" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J110" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K110" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B111" t="s">
         <v>68</v>
@@ -5167,27 +5167,27 @@
         <v>7</v>
       </c>
       <c r="F111" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G111" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H111" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I111" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J111" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K111" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B112" t="s">
         <v>69</v>
@@ -5202,27 +5202,27 @@
         <v>7</v>
       </c>
       <c r="F112" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G112" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H112" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I112" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J112" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K112" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B113" t="s">
         <v>70</v>
@@ -5237,22 +5237,22 @@
         <v>7</v>
       </c>
       <c r="F113" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G113" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H113" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I113" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J113" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K113" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
